--- a/1_5K_Limits.xlsx
+++ b/1_5K_Limits.xlsx
@@ -209,17 +209,279 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.167149996056032E-2"/>
+          <c:y val="0.11408530805687203"/>
+          <c:w val="0.88532908931463117"/>
+          <c:h val="0.52627323954173977"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="8"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4984</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4323</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2734</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4935</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2672</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -240,7 +502,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -298,10 +560,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +584,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -380,10 +642,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -404,7 +666,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -462,10 +724,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -542,7 +804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -600,10 +862,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="5"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -680,7 +942,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -745,8 +1007,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="257152328"/>
-        <c:axId val="257152720"/>
+        <c:axId val="245984112"/>
+        <c:axId val="247001600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -902,11 +1164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="257152328"/>
-        <c:axId val="257152720"/>
+        <c:axId val="245984112"/>
+        <c:axId val="247001600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="257152328"/>
+        <c:axId val="245984112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +1211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257152720"/>
+        <c:crossAx val="247001600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +1219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257152720"/>
+        <c:axId val="247001600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257152328"/>
+        <c:crossAx val="245984112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,16 +1898,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>307974</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1930,19 +2192,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1950,22 +2212,31 @@
         <v>17</v>
       </c>
       <c r="C1" s="1">
+        <v>41426</v>
+      </c>
+      <c r="D1" s="1">
+        <v>41419</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41412</v>
+      </c>
+      <c r="F1" s="1">
         <v>41405</v>
       </c>
-      <c r="D1" s="1">
+      <c r="G1" s="1">
         <v>41398</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1">
+      <c r="I1" s="1">
         <v>41384</v>
       </c>
-      <c r="G1" s="1">
+      <c r="J1" s="1">
         <v>41377</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1973,22 +2244,31 @@
         <v>1500</v>
       </c>
       <c r="C2">
+        <v>10244</v>
+      </c>
+      <c r="D2">
+        <v>10472</v>
+      </c>
+      <c r="E2">
+        <v>10054</v>
+      </c>
+      <c r="F2">
         <v>9947</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>10440</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>10190</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>10121</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>10121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1996,22 +2276,31 @@
         <v>1500</v>
       </c>
       <c r="C3">
+        <v>16980</v>
+      </c>
+      <c r="D3">
+        <v>17355</v>
+      </c>
+      <c r="E3">
+        <v>16512</v>
+      </c>
+      <c r="F3">
         <v>16508</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>17495</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>17579</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>17522</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>17423</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2019,22 +2308,31 @@
         <v>1500</v>
       </c>
       <c r="C4">
+        <v>16980</v>
+      </c>
+      <c r="D4">
+        <v>17355</v>
+      </c>
+      <c r="E4">
+        <v>16512</v>
+      </c>
+      <c r="F4">
         <v>16508</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>17495</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>17579</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>17522</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>17423</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2042,22 +2340,31 @@
         <v>1500</v>
       </c>
       <c r="C5">
+        <v>696</v>
+      </c>
+      <c r="D5">
+        <v>654</v>
+      </c>
+      <c r="E5">
+        <v>639</v>
+      </c>
+      <c r="F5">
         <v>669</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>631</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>710</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>706</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2065,22 +2372,31 @@
         <v>1500</v>
       </c>
       <c r="C6">
+        <v>17769</v>
+      </c>
+      <c r="D6">
+        <v>18209</v>
+      </c>
+      <c r="E6">
+        <v>17282</v>
+      </c>
+      <c r="F6">
         <v>17106</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>17756</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>17843</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>17561</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>17358</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2088,22 +2404,31 @@
         <v>1500</v>
       </c>
       <c r="C7">
+        <v>11282</v>
+      </c>
+      <c r="D7">
+        <v>11409</v>
+      </c>
+      <c r="E7">
+        <v>10517</v>
+      </c>
+      <c r="F7">
         <v>10475</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>11336</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>11311</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>11216</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>11260</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2111,22 +2436,31 @@
         <v>1500</v>
       </c>
       <c r="C8">
+        <v>5733</v>
+      </c>
+      <c r="D8">
+        <v>5840</v>
+      </c>
+      <c r="E8">
+        <v>5344</v>
+      </c>
+      <c r="F8">
         <v>5283</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>5773</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>5726</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>5636</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>5716</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2134,22 +2468,31 @@
         <v>1500</v>
       </c>
       <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>66</v>
+      </c>
+      <c r="F9">
         <v>70</v>
-      </c>
-      <c r="D9">
-        <v>74</v>
-      </c>
-      <c r="E9">
-        <v>72</v>
-      </c>
-      <c r="F9">
-        <v>72</v>
       </c>
       <c r="G9">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2157,22 +2500,31 @@
         <v>1500</v>
       </c>
       <c r="C10">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="D10">
         <v>413</v>
       </c>
       <c r="E10">
+        <v>301</v>
+      </c>
+      <c r="F10">
+        <v>312</v>
+      </c>
+      <c r="G10">
+        <v>413</v>
+      </c>
+      <c r="H10">
         <v>396</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>393</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2180,22 +2532,31 @@
         <v>1500</v>
       </c>
       <c r="C11">
+        <v>854</v>
+      </c>
+      <c r="D11">
+        <v>846</v>
+      </c>
+      <c r="E11">
+        <v>708</v>
+      </c>
+      <c r="F11">
         <v>729</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>905</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>909</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>937</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>920</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2203,22 +2564,31 @@
         <v>1500</v>
       </c>
       <c r="C12">
+        <v>4984</v>
+      </c>
+      <c r="D12">
+        <v>5068</v>
+      </c>
+      <c r="E12">
+        <v>4935</v>
+      </c>
+      <c r="F12">
         <v>4862</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>4992</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>4963</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>4948</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>4917</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2226,22 +2596,31 @@
         <v>1500</v>
       </c>
       <c r="C13">
+        <v>3480</v>
+      </c>
+      <c r="D13">
+        <v>3536</v>
+      </c>
+      <c r="E13">
+        <v>3205</v>
+      </c>
+      <c r="F13">
         <v>3259</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>3760</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>3704</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>3670</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>3639</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2249,22 +2628,31 @@
         <v>1500</v>
       </c>
       <c r="C14">
+        <v>4323</v>
+      </c>
+      <c r="D14">
+        <v>4377</v>
+      </c>
+      <c r="E14">
+        <v>3956</v>
+      </c>
+      <c r="F14">
         <v>3821</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>4165</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>4158</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>4048</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>4066</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2272,22 +2660,31 @@
         <v>1500</v>
       </c>
       <c r="C15">
+        <v>2559</v>
+      </c>
+      <c r="D15">
+        <v>2631</v>
+      </c>
+      <c r="E15">
+        <v>2281</v>
+      </c>
+      <c r="F15">
         <v>2210</v>
-      </c>
-      <c r="D15">
-        <v>2474</v>
-      </c>
-      <c r="E15">
-        <v>2478</v>
-      </c>
-      <c r="F15">
-        <v>2385</v>
       </c>
       <c r="G15">
         <v>2474</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>2478</v>
+      </c>
+      <c r="I15">
+        <v>2385</v>
+      </c>
+      <c r="J15">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2295,22 +2692,31 @@
         <v>1500</v>
       </c>
       <c r="C16">
+        <v>2678</v>
+      </c>
+      <c r="D16">
+        <v>2734</v>
+      </c>
+      <c r="E16">
+        <v>2672</v>
+      </c>
+      <c r="F16">
         <v>2646</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>2872</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>2833</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>2813</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>2779</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2318,18 +2724,27 @@
         <v>1500</v>
       </c>
       <c r="C17">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="D17">
         <v>337</v>
       </c>
       <c r="E17">
+        <v>295</v>
+      </c>
+      <c r="F17">
+        <v>290</v>
+      </c>
+      <c r="G17">
+        <v>337</v>
+      </c>
+      <c r="H17">
         <v>331</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>294</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>306</v>
       </c>
     </row>
@@ -2358,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>9947</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2366,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>16508</v>
+        <v>16980</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2374,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>16508</v>
+        <v>16980</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2382,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>669</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2390,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17106</v>
+        <v>17769</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2398,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10475</v>
+        <v>11282</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2406,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5283</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2414,7 +2829,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2422,7 +2837,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>312</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2430,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>729</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2438,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>4862</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2446,7 +2861,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3259</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2454,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>3821</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2462,7 +2877,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>2210</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2470,7 +2885,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2646</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2478,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>290</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/1_5K_Limits.xlsx
+++ b/1_5K_Limits.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
   <si>
     <t>jquery</t>
   </si>
@@ -83,6 +85,9 @@
   <si>
     <t>4/272013</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -117,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,11 +231,95 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="9"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -252,7 +342,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -310,10 +400,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -336,7 +426,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -394,10 +484,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -420,7 +510,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -478,10 +568,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -502,7 +592,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -560,10 +650,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -584,7 +674,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -642,10 +732,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -666,7 +756,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -724,10 +814,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -804,7 +894,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -862,10 +952,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -942,7 +1032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1007,8 +1097,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="245984112"/>
-        <c:axId val="247001600"/>
+        <c:axId val="7265824"/>
+        <c:axId val="7276160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1164,11 +1254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245984112"/>
-        <c:axId val="247001600"/>
+        <c:axId val="7265824"/>
+        <c:axId val="7276160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245984112"/>
+        <c:axId val="7265824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +1301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247001600"/>
+        <c:crossAx val="7276160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1219,7 +1309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247001600"/>
+        <c:axId val="7276160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1360,2432 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245984112"/>
+        <c:crossAx val="7265824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.6547831253713524E-2"/>
+                  <c:y val="1.447308703823943E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2780748663101602E-2"/>
+                  <c:y val="7.5983706950756971E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2691622103386814E-2"/>
+                  <c:y val="2.1709630557359152E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8027332144979213E-2"/>
+                  <c:y val="-9.4075065748556327E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7040998217468802E-2"/>
+                  <c:y val="-2.8946174076478877E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.4171122994652413E-2"/>
+                  <c:y val="7.2365435191197175E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>.NET</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cobol</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jquery</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>knockout.js</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>node.js</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>perl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>php</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>VB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>wordpress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.10225254602919781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17037074198565194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17037074198565194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.531881804043546E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1802538503988361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11327948627903477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7532734661114734E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7326042241509053E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1940500677268852E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6389404505092058E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0438970551347009E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4766467666683391E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3515777855816985E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6207796116991922E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7341594341042493E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3311593839361864E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Software</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Job Openings by Week</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.17037074198565194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17080948405073987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17128560431100848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17330156697698337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1743281060246053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17335856834261479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17442598876783552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17549377028163934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17502285352647493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.17037074198565194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17080948405073987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17128560431100848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17330156697698337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1743281060246053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17335856834261479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17442598876783552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17549377028163934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17502285352647493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cobol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.531881804043546E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0013781448359808E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4546692722212357E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7066195069217767E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0647869475685098E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2526011217027685E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0449088130817008E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0710308080605749E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.851035189408018E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1802538503988361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17874639117182547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17971417855944416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18138309596028507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18064311737684144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17594482649279614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17704550415748843</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17588437963222628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17436989562719118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.11327948627903477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11349073021557404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11260140936815302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11038109132127751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11061830086065789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11232882141937019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1122323430771368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11233524297904732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1131123991682321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jquery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.7532734661114734E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7670834632679135E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7638025305461797E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6087910242550824E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.578964042452083E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7204859390792527E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6815701216487074E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6448058971996312E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7420113112399168E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>knockout.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.7326042241509053E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8523171946202055E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4877913977221141E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9270248428300043E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3921537567981418E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3326859430428669E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1441328808715841E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.211249549296903E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4336745456919846E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.1940500677268852E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.134434507941937E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0761137758828286E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1591431480179261E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2947885316014572E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.092431479022573E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.929273084479371E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9361403789912267E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9077018895597058E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.6389404505092058E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5907714593246084E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3496180493871017E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4308084677630962E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6984001267226361E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9676767276402631E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0194677621003756E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.384640038459997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2418656514008466E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>perl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0438970551347009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0136305565894435E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0018752097274036E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1795253938433441E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.134378795078938E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9465903010364853E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9244904844118989E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9557309402668163E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.939375370428039E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>php</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.4766467666683391E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5006890724179902E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4898639979471388E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3638052456469947E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4415755847721635E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7257971818704293E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6752594709372706E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.675734145266616E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6555596853747478E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.3515777855816985E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3487008218571759E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3198910404453131E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1520167088235603E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0350599292465282E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1271131017261542E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1257367387033402E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0543247466047032E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0845027976734609E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$N$2:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6207796116991922E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5742136023901255E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5966719962101023E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.394021767650794E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.333808543217699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4514952733902771E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4587723998333037E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3887264132045991E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4852582197354013E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$O$2:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.7341594341042493E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.693921073544649E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6983281024851462E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8043955121275412E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7942341200696975E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8458748687052855E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8110178404873887E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8173951364128039E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7916461570916252E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wordpress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6/8/2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/1/2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5/25/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5/18/2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/4/2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4/272013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4/20/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4/13/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3311593839361864E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5006890724179904E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3260298849213401E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0961701949012901E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0624636992449441E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3393448146019542E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2843166438451311E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9445935659629021E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.073924879705064E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="166552672"/>
+        <c:axId val="166554848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166552672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166554848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166554848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166552672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1391,6 +3906,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1894,17 +4489,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>101599</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
@@ -1912,6 +5542,71 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2192,19 +5887,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2212,31 +5907,34 @@
         <v>17</v>
       </c>
       <c r="C1" s="1">
+        <v>41433</v>
+      </c>
+      <c r="D1" s="1">
         <v>41426</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>41419</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>41412</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>41405</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>41398</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>41384</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>41377</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2244,31 +5942,34 @@
         <v>1500</v>
       </c>
       <c r="C2">
+        <v>10191</v>
+      </c>
+      <c r="D2">
         <v>10244</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10472</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10054</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9947</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10440</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10190</v>
-      </c>
-      <c r="I2">
-        <v>10121</v>
       </c>
       <c r="J2">
         <v>10121</v>
       </c>
+      <c r="K2">
+        <v>10121</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2279,28 +5980,31 @@
         <v>16980</v>
       </c>
       <c r="D3">
+        <v>16980</v>
+      </c>
+      <c r="E3">
         <v>17355</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>16512</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>16508</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>17495</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>17579</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>17522</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>17423</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2311,28 +6015,31 @@
         <v>16980</v>
       </c>
       <c r="D4">
+        <v>16980</v>
+      </c>
+      <c r="E4">
         <v>17355</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>16512</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>16508</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>17495</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>17579</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>17522</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>17423</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2340,31 +6047,34 @@
         <v>1500</v>
       </c>
       <c r="C5">
+        <v>651</v>
+      </c>
+      <c r="D5">
         <v>696</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>654</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>639</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>669</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>631</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>710</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>706</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2372,31 +6082,34 @@
         <v>1500</v>
       </c>
       <c r="C6">
+        <v>17965</v>
+      </c>
+      <c r="D6">
         <v>17769</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>18209</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>17282</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>17106</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17756</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>17843</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17561</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17358</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2404,31 +6117,34 @@
         <v>1500</v>
       </c>
       <c r="C7">
+        <v>11290</v>
+      </c>
+      <c r="D7">
         <v>11282</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>11409</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10517</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10475</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11336</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11311</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>11216</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11260</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2436,31 +6152,34 @@
         <v>1500</v>
       </c>
       <c r="C8">
+        <v>5734</v>
+      </c>
+      <c r="D8">
         <v>5733</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5840</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5344</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5283</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5773</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5726</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5636</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5716</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2468,31 +6187,34 @@
         <v>1500</v>
       </c>
       <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
         <v>88</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>86</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>66</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>70</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>74</v>
-      </c>
-      <c r="H9">
-        <v>72</v>
       </c>
       <c r="I9">
         <v>72</v>
       </c>
       <c r="J9">
+        <v>72</v>
+      </c>
+      <c r="K9">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2500,31 +6222,34 @@
         <v>1500</v>
       </c>
       <c r="C10">
+        <v>418</v>
+      </c>
+      <c r="D10">
         <v>411</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>413</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>301</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>312</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>413</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>396</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>393</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2532,31 +6257,34 @@
         <v>1500</v>
       </c>
       <c r="C11">
+        <v>861</v>
+      </c>
+      <c r="D11">
         <v>854</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>846</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>708</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>729</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>905</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>909</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>937</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>920</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2564,31 +6292,34 @@
         <v>1500</v>
       </c>
       <c r="C12">
+        <v>5027</v>
+      </c>
+      <c r="D12">
         <v>4984</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5068</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4935</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4862</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4992</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4963</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4948</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4917</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2596,31 +6327,34 @@
         <v>1500</v>
       </c>
       <c r="C13">
+        <v>3465</v>
+      </c>
+      <c r="D13">
         <v>3480</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3536</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3205</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3259</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3760</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3704</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3670</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3639</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2628,31 +6362,34 @@
         <v>1500</v>
       </c>
       <c r="C14">
+        <v>4337</v>
+      </c>
+      <c r="D14">
         <v>4323</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4377</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3956</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3821</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4165</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4158</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4048</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4066</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2660,31 +6397,34 @@
         <v>1500</v>
       </c>
       <c r="C15">
+        <v>2612</v>
+      </c>
+      <c r="D15">
         <v>2559</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2631</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2281</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2210</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2474</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2478</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2385</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2474</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2692,31 +6432,34 @@
         <v>1500</v>
       </c>
       <c r="C16">
+        <v>2725</v>
+      </c>
+      <c r="D16">
         <v>2678</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2734</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2672</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2646</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2872</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2833</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2813</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2779</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2724,28 +6467,776 @@
         <v>1500</v>
       </c>
       <c r="C17">
+        <v>332</v>
+      </c>
+      <c r="D17">
         <v>348</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>337</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>295</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>290</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>337</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>331</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>294</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C2:C17)</f>
+        <v>99665</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D2:D17)</f>
+        <v>99409</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E2:E17)</f>
+        <v>101322</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F2:F17)</f>
+        <v>95279</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G2:G17)</f>
+        <v>94695</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H2:H17)</f>
+        <v>100918</v>
+      </c>
+      <c r="I18">
+        <f>SUM(I2:I17)</f>
+        <v>100782</v>
+      </c>
+      <c r="J18">
+        <f>SUM(J2:J17)</f>
+        <v>99844</v>
+      </c>
+      <c r="K18">
+        <f>SUM(K2:K17)</f>
+        <v>99547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f>C2/C18</f>
+        <v>0.10225254602919781</v>
+      </c>
+      <c r="D19" s="2">
+        <f>D2/D18</f>
+        <v>0.10304901970646521</v>
+      </c>
+      <c r="E19" s="2">
+        <f>E2/E18</f>
+        <v>0.10335366455458835</v>
+      </c>
+      <c r="F19" s="2">
+        <f>F2/F18</f>
+        <v>0.10552167843911041</v>
+      </c>
+      <c r="G19" s="2">
+        <f>G2/G18</f>
+        <v>0.10504250488410159</v>
+      </c>
+      <c r="H19" s="2">
+        <f>H2/H18</f>
+        <v>0.10345032600725342</v>
+      </c>
+      <c r="I19" s="2">
+        <f>I2/I18</f>
+        <v>0.10110932507789089</v>
+      </c>
+      <c r="J19" s="2">
+        <f>J2/J18</f>
+        <v>0.10136813428949161</v>
+      </c>
+      <c r="K19" s="2">
+        <f>K2/K18</f>
+        <v>0.10167056767155214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <f>C3/C18</f>
+        <v>0.17037074198565194</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D3/D18</f>
+        <v>0.17080948405073987</v>
+      </c>
+      <c r="E20" s="2">
+        <f>E3/E18</f>
+        <v>0.17128560431100848</v>
+      </c>
+      <c r="F20" s="2">
+        <f>F3/F18</f>
+        <v>0.17330156697698337</v>
+      </c>
+      <c r="G20" s="2">
+        <f>G3/G18</f>
+        <v>0.1743281060246053</v>
+      </c>
+      <c r="H20" s="2">
+        <f>H3/H18</f>
+        <v>0.17335856834261479</v>
+      </c>
+      <c r="I20" s="2">
+        <f>I3/I18</f>
+        <v>0.17442598876783552</v>
+      </c>
+      <c r="J20" s="2">
+        <f>J3/J18</f>
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="K20" s="2">
+        <f>K3/K18</f>
+        <v>0.17502285352647493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <f>C4/C18</f>
+        <v>0.17037074198565194</v>
+      </c>
+      <c r="D21" s="2">
+        <f>D4/D18</f>
+        <v>0.17080948405073987</v>
+      </c>
+      <c r="E21" s="2">
+        <f>E4/E18</f>
+        <v>0.17128560431100848</v>
+      </c>
+      <c r="F21" s="2">
+        <f>F4/F18</f>
+        <v>0.17330156697698337</v>
+      </c>
+      <c r="G21" s="2">
+        <f>G4/G18</f>
+        <v>0.1743281060246053</v>
+      </c>
+      <c r="H21" s="2">
+        <f>H4/H18</f>
+        <v>0.17335856834261479</v>
+      </c>
+      <c r="I21" s="2">
+        <f>I4/I18</f>
+        <v>0.17442598876783552</v>
+      </c>
+      <c r="J21" s="2">
+        <f>J4/J18</f>
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="K21" s="2">
+        <f>K4/K18</f>
+        <v>0.17502285352647493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C5/C18</f>
+        <v>6.531881804043546E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <f>D5/D18</f>
+        <v>7.0013781448359808E-3</v>
+      </c>
+      <c r="E22" s="2">
+        <f>E5/E18</f>
+        <v>6.4546692722212357E-3</v>
+      </c>
+      <c r="F22" s="2">
+        <f>F5/F18</f>
+        <v>6.7066195069217767E-3</v>
+      </c>
+      <c r="G22" s="2">
+        <f>G5/G18</f>
+        <v>7.0647869475685098E-3</v>
+      </c>
+      <c r="H22" s="2">
+        <f>H5/H18</f>
+        <v>6.2526011217027685E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <f>I5/I18</f>
+        <v>7.0449088130817008E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <f>J5/J18</f>
+        <v>7.0710308080605749E-3</v>
+      </c>
+      <c r="K22" s="2">
+        <f>K5/K18</f>
+        <v>6.851035189408018E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C6/C18</f>
+        <v>0.1802538503988361</v>
+      </c>
+      <c r="D23" s="2">
+        <f>D6/D18</f>
+        <v>0.17874639117182547</v>
+      </c>
+      <c r="E23" s="2">
+        <f>E6/E18</f>
+        <v>0.17971417855944416</v>
+      </c>
+      <c r="F23" s="2">
+        <f>F6/F18</f>
+        <v>0.18138309596028507</v>
+      </c>
+      <c r="G23" s="2">
+        <f>G6/G18</f>
+        <v>0.18064311737684144</v>
+      </c>
+      <c r="H23" s="2">
+        <f>H6/H18</f>
+        <v>0.17594482649279614</v>
+      </c>
+      <c r="I23" s="2">
+        <f>I6/I18</f>
+        <v>0.17704550415748843</v>
+      </c>
+      <c r="J23" s="2">
+        <f>J6/J18</f>
+        <v>0.17588437963222628</v>
+      </c>
+      <c r="K23" s="2">
+        <f>K6/K18</f>
+        <v>0.17436989562719118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C7/C18</f>
+        <v>0.11327948627903477</v>
+      </c>
+      <c r="D24" s="2">
+        <f>D7/D18</f>
+        <v>0.11349073021557404</v>
+      </c>
+      <c r="E24" s="2">
+        <f>E7/E18</f>
+        <v>0.11260140936815302</v>
+      </c>
+      <c r="F24" s="2">
+        <f>F7/F18</f>
+        <v>0.11038109132127751</v>
+      </c>
+      <c r="G24" s="2">
+        <f>G7/G18</f>
+        <v>0.11061830086065789</v>
+      </c>
+      <c r="H24" s="2">
+        <f>H7/H18</f>
+        <v>0.11232882141937019</v>
+      </c>
+      <c r="I24" s="2">
+        <f>I7/I18</f>
+        <v>0.1122323430771368</v>
+      </c>
+      <c r="J24" s="2">
+        <f>J7/J18</f>
+        <v>0.11233524297904732</v>
+      </c>
+      <c r="K24" s="2">
+        <f>K7/K18</f>
+        <v>0.1131123991682321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C8/C18</f>
+        <v>5.7532734661114734E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f>D8/D18</f>
+        <v>5.7670834632679135E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f>E8/E18</f>
+        <v>5.7638025305461797E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f>F8/F18</f>
+        <v>5.6087910242550824E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <f>G8/G18</f>
+        <v>5.578964042452083E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <f>H8/H18</f>
+        <v>5.7204859390792527E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <f>I8/I18</f>
+        <v>5.6815701216487074E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <f>J8/J18</f>
+        <v>5.6448058971996312E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <f>K8/K18</f>
+        <v>5.7420113112399168E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C9/C18</f>
+        <v>9.7326042241509053E-4</v>
+      </c>
+      <c r="D26" s="2">
+        <f>D9/D18</f>
+        <v>8.8523171946202055E-4</v>
+      </c>
+      <c r="E26" s="2">
+        <f>E9/E18</f>
+        <v>8.4877913977221141E-4</v>
+      </c>
+      <c r="F26" s="2">
+        <f>F9/F18</f>
+        <v>6.9270248428300043E-4</v>
+      </c>
+      <c r="G26" s="2">
+        <f>G9/G18</f>
+        <v>7.3921537567981418E-4</v>
+      </c>
+      <c r="H26" s="2">
+        <f>H9/H18</f>
+        <v>7.3326859430428669E-4</v>
+      </c>
+      <c r="I26" s="2">
+        <f>I9/I18</f>
+        <v>7.1441328808715841E-4</v>
+      </c>
+      <c r="J26" s="2">
+        <f>J9/J18</f>
+        <v>7.211249549296903E-4</v>
+      </c>
+      <c r="K26" s="2">
+        <f>K9/K18</f>
+        <v>7.4336745456919846E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <f>C10/C18</f>
+        <v>4.1940500677268852E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D10/D18</f>
+        <v>4.134434507941937E-3</v>
+      </c>
+      <c r="E27" s="2">
+        <f>E10/E18</f>
+        <v>4.0761137758828286E-3</v>
+      </c>
+      <c r="F27" s="2">
+        <f>F10/F18</f>
+        <v>3.1591431480179261E-3</v>
+      </c>
+      <c r="G27" s="2">
+        <f>G10/G18</f>
+        <v>3.2947885316014572E-3</v>
+      </c>
+      <c r="H27" s="2">
+        <f>H10/H18</f>
+        <v>4.092431479022573E-3</v>
+      </c>
+      <c r="I27" s="2">
+        <f>I10/I18</f>
+        <v>3.929273084479371E-3</v>
+      </c>
+      <c r="J27" s="2">
+        <f>J10/J18</f>
+        <v>3.9361403789912267E-3</v>
+      </c>
+      <c r="K27" s="2">
+        <f>K10/K18</f>
+        <v>3.9077018895597058E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <f>C11/C18</f>
+        <v>8.6389404505092058E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f>D11/D18</f>
+        <v>8.5907714593246084E-3</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E11/E18</f>
+        <v>8.3496180493871017E-3</v>
+      </c>
+      <c r="F28" s="2">
+        <f>F11/F18</f>
+        <v>7.4308084677630962E-3</v>
+      </c>
+      <c r="G28" s="2">
+        <f>G11/G18</f>
+        <v>7.6984001267226361E-3</v>
+      </c>
+      <c r="H28" s="2">
+        <f>H11/H18</f>
+        <v>8.9676767276402631E-3</v>
+      </c>
+      <c r="I28" s="2">
+        <f>I11/I18</f>
+        <v>9.0194677621003756E-3</v>
+      </c>
+      <c r="J28" s="2">
+        <f>J11/J18</f>
+        <v>9.384640038459997E-3</v>
+      </c>
+      <c r="K28" s="2">
+        <f>K11/K18</f>
+        <v>9.2418656514008466E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <f>C12/C18</f>
+        <v>5.0438970551347009E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <f>D12/D18</f>
+        <v>5.0136305565894435E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <f>E12/E18</f>
+        <v>5.0018752097274036E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <f>F12/F18</f>
+        <v>5.1795253938433441E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <f>G12/G18</f>
+        <v>5.134378795078938E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <f>H12/H18</f>
+        <v>4.9465903010364853E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <f>I12/I18</f>
+        <v>4.9244904844118989E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <f>J12/J18</f>
+        <v>4.9557309402668163E-2</v>
+      </c>
+      <c r="K29" s="2">
+        <f>K12/K18</f>
+        <v>4.939375370428039E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <f>C13/C18</f>
+        <v>3.4766467666683391E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <f>D13/D18</f>
+        <v>3.5006890724179902E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <f>E13/E18</f>
+        <v>3.4898639979471388E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <f>F13/F18</f>
+        <v>3.3638052456469947E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <f>G13/G18</f>
+        <v>3.4415755847721635E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <f>H13/H18</f>
+        <v>3.7257971818704293E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <f>I13/I18</f>
+        <v>3.6752594709372706E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <f>J13/J18</f>
+        <v>3.675734145266616E-2</v>
+      </c>
+      <c r="K30" s="2">
+        <f>K13/K18</f>
+        <v>3.6555596853747478E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <f>C14/C18</f>
+        <v>4.3515777855816985E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f>D14/D18</f>
+        <v>4.3487008218571759E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f>E14/E18</f>
+        <v>4.3198910404453131E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <f>F14/F18</f>
+        <v>4.1520167088235603E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <f>G14/G18</f>
+        <v>4.0350599292465282E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <f>H14/H18</f>
+        <v>4.1271131017261542E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <f>I14/I18</f>
+        <v>4.1257367387033402E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <f>J14/J18</f>
+        <v>4.0543247466047032E-2</v>
+      </c>
+      <c r="K31" s="2">
+        <f>K14/K18</f>
+        <v>4.0845027976734609E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <f>C15/C18</f>
+        <v>2.6207796116991922E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <f>D15/D18</f>
+        <v>2.5742136023901255E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <f>E15/E18</f>
+        <v>2.5966719962101023E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <f>F15/F18</f>
+        <v>2.394021767650794E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <f>G15/G18</f>
+        <v>2.333808543217699E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <f>H15/H18</f>
+        <v>2.4514952733902771E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <f>I15/I18</f>
+        <v>2.4587723998333037E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <f>J15/J18</f>
+        <v>2.3887264132045991E-2</v>
+      </c>
+      <c r="K32" s="2">
+        <f>K15/K18</f>
+        <v>2.4852582197354013E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C16/C18</f>
+        <v>2.7341594341042493E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <f>D16/D18</f>
+        <v>2.693921073544649E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <f>E16/E18</f>
+        <v>2.6983281024851462E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <f>F16/F18</f>
+        <v>2.8043955121275412E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <f>G16/G18</f>
+        <v>2.7942341200696975E-2</v>
+      </c>
+      <c r="H33" s="2">
+        <f>H16/H18</f>
+        <v>2.8458748687052855E-2</v>
+      </c>
+      <c r="I33" s="2">
+        <f>I16/I18</f>
+        <v>2.8110178404873887E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <f>J16/J18</f>
+        <v>2.8173951364128039E-2</v>
+      </c>
+      <c r="K33" s="2">
+        <f>K16/K18</f>
+        <v>2.7916461570916252E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
+        <f>C17/C18</f>
+        <v>3.3311593839361864E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <f>D17/D18</f>
+        <v>3.5006890724179904E-3</v>
+      </c>
+      <c r="E34" s="2">
+        <f>E17/E18</f>
+        <v>3.3260298849213401E-3</v>
+      </c>
+      <c r="F34" s="2">
+        <f>F17/F18</f>
+        <v>3.0961701949012901E-3</v>
+      </c>
+      <c r="G34" s="2">
+        <f>G17/G18</f>
+        <v>3.0624636992449441E-3</v>
+      </c>
+      <c r="H34" s="2">
+        <f>H17/H18</f>
+        <v>3.3393448146019542E-3</v>
+      </c>
+      <c r="I34" s="2">
+        <f>I17/I18</f>
+        <v>3.2843166438451311E-3</v>
+      </c>
+      <c r="J34" s="2">
+        <f>J17/J18</f>
+        <v>2.9445935659629021E-3</v>
+      </c>
+      <c r="K34" s="2">
+        <f>K17/K18</f>
+        <v>3.073924879705064E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2760,23 +7251,1104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.10225254602919781</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.10304901970646521</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.10335366455458835</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.10552167843911041</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.10504250488410159</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.10345032600725342</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0.10110932507789089</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.10136813428949161</v>
+      </c>
+      <c r="J1" s="2">
+        <v>0.10167056767155214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>41433</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41426</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41419</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41412</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41405</v>
+      </c>
+      <c r="G2" s="1">
+        <v>41398</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>41384</v>
+      </c>
+      <c r="J2" s="1">
+        <v>41377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.17037074198565194</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.17080948405073987</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.17128560431100848</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.17330156697698337</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.1743281060246053</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.17335856834261479</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.17442598876783552</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.17502285352647493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.17037074198565194</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.17080948405073987</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.17128560431100848</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.17330156697698337</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.1743281060246053</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.17335856834261479</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.17442598876783552</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.17502285352647493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.531881804043546E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.0013781448359808E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.4546692722212357E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.7066195069217767E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.0647869475685098E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.2526011217027685E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7.0449088130817008E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7.0710308080605749E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6.851035189408018E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.1802538503988361</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.17874639117182547</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.17971417855944416</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.18138309596028507</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.18064311737684144</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.17594482649279614</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.17704550415748843</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.17588437963222628</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.17436989562719118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.11327948627903477</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.11349073021557404</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.11260140936815302</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.11038109132127751</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.11061830086065789</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.11232882141937019</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.1122323430771368</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.11233524297904732</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.1131123991682321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.7532734661114734E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.7670834632679135E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.7638025305461797E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.6087910242550824E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.578964042452083E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.7204859390792527E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.6815701216487074E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.6448058971996312E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5.7420113112399168E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9.7326042241509053E-4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.8523171946202055E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.4877913977221141E-4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.9270248428300043E-4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.3921537567981418E-4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.3326859430428669E-4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.1441328808715841E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7.211249549296903E-4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7.4336745456919846E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.1940500677268852E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.134434507941937E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.0761137758828286E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.1591431480179261E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.2947885316014572E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.092431479022573E-3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.929273084479371E-3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.9361403789912267E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.9077018895597058E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8.6389404505092058E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.5907714593246084E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.3496180493871017E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.4308084677630962E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.6984001267226361E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8.9676767276402631E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9.0194677621003756E-3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9.384640038459997E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.2418656514008466E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5.0438970551347009E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.0136305565894435E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.0018752097274036E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5.1795253938433441E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.134378795078938E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4.9465903010364853E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.9244904844118989E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4.9557309402668163E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4.939375370428039E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.4766467666683391E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.5006890724179902E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.4898639979471388E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.3638052456469947E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3.4415755847721635E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.7257971818704293E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.6752594709372706E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.675734145266616E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3.6555596853747478E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.3515777855816985E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.3487008218571759E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.3198910404453131E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.1520167088235603E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.0350599292465282E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4.1271131017261542E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.1257367387033402E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.0543247466047032E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4.0845027976734609E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.6207796116991922E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.5742136023901255E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.5966719962101023E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.394021767650794E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.333808543217699E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.4514952733902771E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2.4587723998333037E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.3887264132045991E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.4852582197354013E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.7341594341042493E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.693921073544649E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.6983281024851462E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.8043955121275412E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.7942341200696975E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.8458748687052855E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2.8110178404873887E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.8173951364128039E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.7916461570916252E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.3311593839361864E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.5006890724179904E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.3260298849213401E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.0961701949012901E-3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.0624636992449441E-3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.3393448146019542E-3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3.2843166438451311E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.9445935659629021E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3.073924879705064E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>41433</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.17037074198565194</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.17037074198565194</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.531881804043546E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1802538503988361</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.11327948627903477</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.7532734661114734E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9.7326042241509053E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.1940500677268852E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8.6389404505092058E-3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.0438970551347009E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3.4766467666683391E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.3515777855816985E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2.6207796116991922E-2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2.7341594341042493E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3.3311593839361864E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.17080948405073987</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.17080948405073987</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.0013781448359808E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.17874639117182547</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.11349073021557404</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.7670834632679135E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.8523171946202055E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.134434507941937E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8.5907714593246084E-3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.0136305565894435E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3.5006890724179902E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4.3487008218571759E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.5742136023901255E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.693921073544649E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3.5006890724179904E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41419</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.17128560431100848</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.17128560431100848</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.4546692722212357E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.17971417855944416</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.11260140936815302</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.7638025305461797E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.4877913977221141E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.0761137758828286E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8.3496180493871017E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5.0018752097274036E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3.4898639979471388E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.3198910404453131E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.5966719962101023E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.6983281024851462E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3.3260298849213401E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41412</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.17330156697698337</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.17330156697698337</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.7066195069217767E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.18138309596028507</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.11038109132127751</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.6087910242550824E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.9270248428300043E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.1591431480179261E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.4308084677630962E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.1795253938433441E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3.3638052456469947E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4.1520167088235603E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.394021767650794E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2.8043955121275412E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3.0961701949012901E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41405</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.1743281060246053</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.1743281060246053</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.0647869475685098E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.18064311737684144</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.11061830086065789</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.578964042452083E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.3921537567981418E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.2947885316014572E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7.6984001267226361E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5.134378795078938E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3.4415755847721635E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4.0350599292465282E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.333808543217699E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.7942341200696975E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3.0624636992449441E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41398</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.17335856834261479</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.17335856834261479</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.2526011217027685E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.17594482649279614</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.11232882141937019</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.7204859390792527E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.3326859430428669E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.092431479022573E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8.9676767276402631E-3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.9465903010364853E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3.7257971818704293E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4.1271131017261542E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.4514952733902771E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2.8458748687052855E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3.3393448146019542E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.17442598876783552</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.17442598876783552</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.0449088130817008E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.17704550415748843</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.1122323430771368</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.6815701216487074E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.1441328808715841E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.929273084479371E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>9.0194677621003756E-3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4.9244904844118989E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3.6752594709372706E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4.1257367387033402E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.4587723998333037E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2.8110178404873887E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3.2843166438451311E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41384</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.0710308080605749E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.17588437963222628</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.11233524297904732</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5.6448058971996312E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.211249549296903E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.9361403789912267E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9.384640038459997E-3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.9557309402668163E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3.675734145266616E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4.0543247466047032E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.3887264132045991E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2.8173951364128039E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2.9445935659629021E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41377</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.17502285352647493</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.17502285352647493</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.851035189408018E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.17436989562719118</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.1131123991682321</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.7420113112399168E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7.4336745456919846E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.9077018895597058E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9.2418656514008466E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.939375370428039E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.6555596853747478E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4.0845027976734609E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.4852582197354013E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2.7916461570916252E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3.073924879705064E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>10244</v>
+        <v>10191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2784,7 +8356,7 @@
         <v>16980</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2792,108 +8364,108 @@
         <v>16980</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>696</v>
+        <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17769</v>
+        <v>17965</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11282</v>
+        <v>11290</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5733</v>
+        <v>5734</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>4984</v>
+        <v>5027</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3480</v>
+        <v>3465</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>4323</v>
+        <v>4337</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
-        <v>2559</v>
+        <v>2612</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2678</v>
+        <v>2725</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/1_5K_Limits.xlsx
+++ b/1_5K_Limits.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
   <si>
     <t>jquery</t>
   </si>
@@ -231,11 +231,95 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="9"/>
+          <c:idx val="10"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6/15/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3419</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -258,7 +342,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -316,10 +400,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,7 +426,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -400,10 +484,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -426,7 +510,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -484,10 +568,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +594,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -568,10 +652,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -592,7 +676,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -650,10 +734,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -674,7 +758,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -732,14 +816,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4/272013</c:v>
+                  <c:v>4/27/2013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -756,7 +840,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -814,10 +898,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -894,7 +978,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -952,10 +1036,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="9"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1032,7 +1116,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:f>Sheet1!$L$2:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1097,8 +1181,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="7265824"/>
-        <c:axId val="7276160"/>
+        <c:axId val="-1940375984"/>
+        <c:axId val="-1828282336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1254,11 +1338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="7265824"/>
-        <c:axId val="7276160"/>
+        <c:axId val="-1940375984"/>
+        <c:axId val="-1828282336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7265824"/>
+        <c:axId val="-1940375984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7276160"/>
+        <c:crossAx val="-1828282336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1309,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7276160"/>
+        <c:axId val="-1828282336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7265824"/>
+        <c:crossAx val="-1940375984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1455,7 +1539,68 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage of Open</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Positions by Language</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1732,8 +1877,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.6547831253713524E-2"/>
-                  <c:y val="1.447308703823943E-2"/>
+                  <c:x val="6.8924539512774899E-2"/>
+                  <c:y val="3.6182717595598587E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1753,8 +1898,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.2780748663101602E-2"/>
-                  <c:y val="7.5983706950756971E-2"/>
+                  <c:x val="-7.1301247771836024E-2"/>
+                  <c:y val="0.12302123982503525"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1774,8 +1919,29 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2691622103386814E-2"/>
-                  <c:y val="2.1709630557359152E-2"/>
+                  <c:x val="-9.9821746880570411E-2"/>
+                  <c:y val="1.4473087038239367E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.4171122994652427E-2"/>
+                  <c:y val="-5.789234815295774E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1795,8 +1961,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8027332144979213E-2"/>
-                  <c:y val="-9.4075065748556327E-2"/>
+                  <c:x val="-5.9417706476530018E-2"/>
+                  <c:y val="-0.15558568566107392"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1813,11 +1979,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7040998217468802E-2"/>
-                  <c:y val="-2.8946174076478877E-2"/>
+                  <c:x val="-1.6636957813428423E-2"/>
+                  <c:y val="-4.3419261114718305E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1837,8 +2003,8 @@
               <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.4171122994652413E-2"/>
-                  <c:y val="7.2365435191197175E-3"/>
+                  <c:x val="7.8431372549019523E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1977,52 +2143,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.10225254602919781</c:v>
+                  <c:v>0.10219795745367941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17037074198565194</c:v>
+                  <c:v>0.17189076817502927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17037074198565194</c:v>
+                  <c:v>0.17189076817502927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.531881804043546E-3</c:v>
+                  <c:v>6.0347959472005809E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1802538503988361</c:v>
+                  <c:v>0.17942921729302064</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11327948627903477</c:v>
+                  <c:v>0.11340976062648851</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7532734661114734E-2</c:v>
+                  <c:v>5.8410366124409641E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7326042241509053E-4</c:v>
+                  <c:v>1.0192548338917369E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1940500677268852E-3</c:v>
+                  <c:v>3.9559197513421868E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6389404505092058E-3</c:v>
+                  <c:v>9.0017357607072215E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0438970551347009E-2</c:v>
+                  <c:v>4.8328825737698297E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4766467666683391E-2</c:v>
+                  <c:v>3.4503289872038108E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3515777855816985E-2</c:v>
+                  <c:v>4.337383441650184E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6207796116991922E-2</c:v>
+                  <c:v>2.5420821055181043E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7341594341042493E-2</c:v>
+                  <c:v>2.793363742784483E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3311593839361864E-3</c:v>
+                  <c:v>3.1990473499374319E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,11 +2285,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Software</a:t>
+              <a:t>Software Job </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Job Openings by Week</a:t>
+              <a:t> Openings by Week</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2191,71 +2357,78 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
+                  <c:v>41440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
+                  <c:v>41433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
+                  <c:v>41419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
+                  <c:v>41412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
+                  <c:v>41405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4/272013</c:v>
+                  <c:v>41398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
+                  <c:v>41391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$B$10</c:f>
+              <c:f>Sheet6!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.17189076817502927</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.17037074198565194</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17080948405073987</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17128560431100848</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17330156697698337</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.1743281060246053</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.17335856834261479</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.17442598876783552</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17549377028163934</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17502285352647493</c:v>
                 </c:pt>
               </c:numCache>
@@ -2290,71 +2463,78 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
+                  <c:v>41440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
+                  <c:v>41433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
+                  <c:v>41419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
+                  <c:v>41412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
+                  <c:v>41405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4/272013</c:v>
+                  <c:v>41398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
+                  <c:v>41391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$2:$C$10</c:f>
+              <c:f>Sheet6!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.17189076817502927</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.17037074198565194</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17080948405073987</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17128560431100848</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17330156697698337</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.1743281060246053</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.17335856834261479</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.17442598876783552</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17549377028163934</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17502285352647493</c:v>
                 </c:pt>
               </c:numCache>
@@ -2389,71 +2569,78 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
+                  <c:v>41440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
+                  <c:v>41433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
+                  <c:v>41419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
+                  <c:v>41412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
+                  <c:v>41405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4/272013</c:v>
+                  <c:v>41398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
+                  <c:v>41391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$D$2:$D$10</c:f>
+              <c:f>Sheet6!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>6.0347959472005809E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.531881804043546E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7.0013781448359808E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.4546692722212357E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.7066195069217767E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.0647869475685098E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.2526011217027685E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.0449088130817008E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.0710308080605749E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6.851035189408018E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2487,72 +2674,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$E$2:$E$10</c:f>
+              <c:f>Sheet6!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.17942921729302064</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1802538503988361</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17874639117182547</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17971417855944416</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.18138309596028507</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.18064311737684144</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.17594482649279614</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.17704550415748843</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17588437963222628</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17436989562719118</c:v>
                 </c:pt>
               </c:numCache>
@@ -2586,72 +2741,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$F$2:$F$10</c:f>
+              <c:f>Sheet6!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.11340976062648851</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.11327948627903477</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.11349073021557404</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.11260140936815302</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.11038109132127751</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.11061830086065789</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.11232882141937019</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.1122323430771368</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.11233524297904732</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.1131123991682321</c:v>
                 </c:pt>
               </c:numCache>
@@ -2685,72 +2808,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$G$2:$G$10</c:f>
+              <c:f>Sheet6!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>5.8410366124409641E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5.7532734661114734E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.7670834632679135E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.7638025305461797E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.6087910242550824E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.578964042452083E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.7204859390792527E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.6815701216487074E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5.6448058971996312E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5.7420113112399168E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2786,72 +2877,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$H$2:$H$10</c:f>
+              <c:f>Sheet6!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1.0192548338917369E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.7326042241509053E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8.8523171946202055E-4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.4877913977221141E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.9270248428300043E-4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.3921537567981418E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.3326859430428669E-4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.1441328808715841E-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.211249549296903E-4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7.4336745456919846E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2887,72 +2946,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$I$2:$I$10</c:f>
+              <c:f>Sheet6!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>3.9559197513421868E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.1940500677268852E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.134434507941937E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.0761137758828286E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.1591431480179261E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.2947885316014572E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.092431479022573E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.929273084479371E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.9361403789912267E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.9077018895597058E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2988,72 +3015,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$J$2:$J$10</c:f>
+              <c:f>Sheet6!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>9.0017357607072215E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6389404505092058E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8.5907714593246084E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.3496180493871017E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7.4308084677630962E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.6984001267226361E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8.9676767276402631E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9.0194677621003756E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9.384640038459997E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9.2418656514008466E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3089,72 +3084,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$K$2:$K$10</c:f>
+              <c:f>Sheet6!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>4.8328825737698297E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5.0438970551347009E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.0136305565894435E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.0018752097274036E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.1795253938433441E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.134378795078938E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.9465903010364853E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.9244904844118989E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.9557309402668163E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.939375370428039E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3190,72 +3153,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$L$2:$L$10</c:f>
+              <c:f>Sheet6!$L$2:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>3.4503289872038108E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.4766467666683391E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.5006890724179902E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.4898639979471388E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.3638052456469947E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.4415755847721635E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.7257971818704293E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.6752594709372706E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.675734145266616E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.6555596853747478E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3291,72 +3222,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$M$2:$M$10</c:f>
+              <c:f>Sheet6!$M$2:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>4.337383441650184E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.3515777855816985E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.3487008218571759E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.3198910404453131E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.1520167088235603E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.0350599292465282E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.1271131017261542E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.1257367387033402E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.0543247466047032E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.0845027976734609E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3393,72 +3292,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$N$2:$N$10</c:f>
+              <c:f>Sheet6!$N$2:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2.5420821055181043E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.6207796116991922E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.5742136023901255E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.5966719962101023E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.394021767650794E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.333808543217699E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.4514952733902771E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.4587723998333037E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.3887264132045991E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.4852582197354013E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3495,72 +3362,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$O$2:$O$10</c:f>
+              <c:f>Sheet6!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2.793363742784483E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.7341594341042493E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.693921073544649E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.6983281024851462E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.8043955121275412E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.7942341200696975E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.8458748687052855E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.8110178404873887E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.8173951364128039E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.7916461570916252E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3597,72 +3432,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6/8/2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6/1/2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5/25/2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5/18/2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5/11/2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5/4/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4/272013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4/20/2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4/13/2013</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$P$2:$P$10</c:f>
+              <c:f>Sheet6!$P$2:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>3.1990473499374319E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.3311593839361864E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.5006890724179904E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.3260298849213401E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.0961701949012901E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.0624636992449441E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.3393448146019542E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.2843166438451311E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.9445935659629021E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.073924879705064E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3679,17 +3482,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166552672"/>
-        <c:axId val="166554848"/>
+        <c:axId val="-1778708448"/>
+        <c:axId val="-1778702464"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="166552672"/>
+      <c:dateAx>
+        <c:axId val="-1778708448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3726,15 +3529,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166554848"/>
+        <c:crossAx val="-1778702464"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="166554848"/>
+        <c:axId val="-1778702464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,7 +3587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166552672"/>
+        <c:crossAx val="-1778708448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5528,13 +5330,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>101599</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
@@ -5558,16 +5360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5593,20 +5395,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342898</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5887,19 +5689,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5907,34 +5709,37 @@
         <v>17</v>
       </c>
       <c r="C1" s="1">
+        <v>41440</v>
+      </c>
+      <c r="D1" s="1">
         <v>41433</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>41426</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>41419</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>41412</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>41405</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>41398</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="1">
+        <v>41391</v>
+      </c>
+      <c r="K1" s="1">
         <v>41384</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>41377</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5942,34 +5747,37 @@
         <v>1500</v>
       </c>
       <c r="C2">
+        <v>10127</v>
+      </c>
+      <c r="D2">
         <v>10191</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10244</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10472</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10054</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9947</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10440</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10190</v>
-      </c>
-      <c r="J2">
-        <v>10121</v>
       </c>
       <c r="K2">
         <v>10121</v>
       </c>
+      <c r="L2">
+        <v>10121</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5977,34 +5785,37 @@
         <v>1500</v>
       </c>
       <c r="C3">
-        <v>16980</v>
+        <v>17033</v>
       </c>
       <c r="D3">
         <v>16980</v>
       </c>
       <c r="E3">
+        <v>16980</v>
+      </c>
+      <c r="F3">
         <v>17355</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>16512</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>16508</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>17495</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>17579</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>17522</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>17423</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6012,34 +5823,37 @@
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>16980</v>
+        <v>17033</v>
       </c>
       <c r="D4">
         <v>16980</v>
       </c>
       <c r="E4">
+        <v>16980</v>
+      </c>
+      <c r="F4">
         <v>17355</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>16512</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>16508</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>17495</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>17579</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>17522</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>17423</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6047,34 +5861,37 @@
         <v>1500</v>
       </c>
       <c r="C5">
+        <v>598</v>
+      </c>
+      <c r="D5">
         <v>651</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>696</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>654</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>639</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>669</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>631</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>710</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>706</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6082,34 +5899,37 @@
         <v>1500</v>
       </c>
       <c r="C6">
+        <v>17780</v>
+      </c>
+      <c r="D6">
         <v>17965</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>17769</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>18209</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>17282</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17106</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>17756</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17843</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17561</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>17358</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6117,34 +5937,37 @@
         <v>1500</v>
       </c>
       <c r="C7">
+        <v>11238</v>
+      </c>
+      <c r="D7">
         <v>11290</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>11282</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11409</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10517</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10475</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11336</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>11311</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11216</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11260</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6152,34 +5975,37 @@
         <v>1500</v>
       </c>
       <c r="C8">
+        <v>5788</v>
+      </c>
+      <c r="D8">
         <v>5734</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5733</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5840</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5344</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5283</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5773</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5726</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5636</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5716</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6187,34 +6013,37 @@
         <v>1500</v>
       </c>
       <c r="C9">
+        <v>101</v>
+      </c>
+      <c r="D9">
         <v>97</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>88</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>86</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>66</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>70</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>74</v>
-      </c>
-      <c r="I9">
-        <v>72</v>
       </c>
       <c r="J9">
         <v>72</v>
       </c>
       <c r="K9">
+        <v>72</v>
+      </c>
+      <c r="L9">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6222,34 +6051,37 @@
         <v>1500</v>
       </c>
       <c r="C10">
+        <v>392</v>
+      </c>
+      <c r="D10">
         <v>418</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>411</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>413</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>301</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>312</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>413</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>396</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>393</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6257,34 +6089,37 @@
         <v>1500</v>
       </c>
       <c r="C11">
+        <v>892</v>
+      </c>
+      <c r="D11">
         <v>861</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>854</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>846</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>708</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>729</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>905</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>909</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>937</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>920</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6292,34 +6127,37 @@
         <v>1500</v>
       </c>
       <c r="C12">
+        <v>4789</v>
+      </c>
+      <c r="D12">
         <v>5027</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4984</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5068</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4935</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4862</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4992</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4963</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4948</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4917</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6327,34 +6165,37 @@
         <v>1500</v>
       </c>
       <c r="C13">
+        <v>3419</v>
+      </c>
+      <c r="D13">
         <v>3465</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3480</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3536</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3205</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3259</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3760</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3704</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3670</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3639</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6362,34 +6203,37 @@
         <v>1500</v>
       </c>
       <c r="C14">
+        <v>4298</v>
+      </c>
+      <c r="D14">
         <v>4337</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4323</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4377</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3956</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3821</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4165</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4158</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4048</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4066</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6397,34 +6241,37 @@
         <v>1500</v>
       </c>
       <c r="C15">
+        <v>2519</v>
+      </c>
+      <c r="D15">
         <v>2612</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2559</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2631</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2281</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2210</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2474</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2478</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2385</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2474</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6432,34 +6279,37 @@
         <v>1500</v>
       </c>
       <c r="C16">
+        <v>2768</v>
+      </c>
+      <c r="D16">
         <v>2725</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2678</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2734</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2672</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2646</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2872</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2833</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2813</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2779</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -6467,75 +6317,82 @@
         <v>1500</v>
       </c>
       <c r="C17">
+        <v>317</v>
+      </c>
+      <c r="D17">
         <v>332</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>348</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>337</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>295</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>290</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>337</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>331</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>294</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <f>SUM(C2:C17)</f>
+        <f t="shared" ref="C18:L18" si="0">SUM(C2:C17)</f>
+        <v>99092</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
         <v>99665</v>
       </c>
-      <c r="D18">
-        <f>SUM(D2:D17)</f>
+      <c r="E18">
+        <f t="shared" si="0"/>
         <v>99409</v>
       </c>
-      <c r="E18">
-        <f>SUM(E2:E17)</f>
+      <c r="F18">
+        <f t="shared" si="0"/>
         <v>101322</v>
       </c>
-      <c r="F18">
-        <f>SUM(F2:F17)</f>
+      <c r="G18">
+        <f t="shared" si="0"/>
         <v>95279</v>
       </c>
-      <c r="G18">
-        <f>SUM(G2:G17)</f>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>94695</v>
       </c>
-      <c r="H18">
-        <f>SUM(H2:H17)</f>
+      <c r="I18">
+        <f t="shared" si="0"/>
         <v>100918</v>
       </c>
-      <c r="I18">
-        <f>SUM(I2:I17)</f>
+      <c r="J18">
+        <f t="shared" si="0"/>
         <v>100782</v>
       </c>
-      <c r="J18">
-        <f>SUM(J2:J17)</f>
+      <c r="K18">
+        <f t="shared" si="0"/>
         <v>99844</v>
       </c>
-      <c r="K18">
-        <f>SUM(K2:K17)</f>
+      <c r="L18">
+        <f t="shared" si="0"/>
         <v>99547</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -6543,43 +6400,47 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <f>C2/C18</f>
+        <f t="shared" ref="C19:L19" si="1">C2/C18</f>
+        <v>0.10219795745367941</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10225254602919781</v>
       </c>
-      <c r="D19" s="2">
-        <f>D2/D18</f>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10304901970646521</v>
       </c>
-      <c r="E19" s="2">
-        <f>E2/E18</f>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10335366455458835</v>
       </c>
-      <c r="F19" s="2">
-        <f>F2/F18</f>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10552167843911041</v>
       </c>
-      <c r="G19" s="2">
-        <f>G2/G18</f>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10504250488410159</v>
       </c>
-      <c r="H19" s="2">
-        <f>H2/H18</f>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10345032600725342</v>
       </c>
-      <c r="I19" s="2">
-        <f>I2/I18</f>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10110932507789089</v>
       </c>
-      <c r="J19" s="2">
-        <f>J2/J18</f>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10136813428949161</v>
       </c>
-      <c r="K19" s="2">
-        <f>K2/K18</f>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10167056767155214</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -6587,43 +6448,47 @@
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <f>C3/C18</f>
+        <f t="shared" ref="C20" si="2">C3/C18</f>
+        <v>0.17189076817502927</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:L20" si="3">D3/D18</f>
         <v>0.17037074198565194</v>
       </c>
-      <c r="D20" s="2">
-        <f>D3/D18</f>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17080948405073987</v>
       </c>
-      <c r="E20" s="2">
-        <f>E3/E18</f>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17128560431100848</v>
       </c>
-      <c r="F20" s="2">
-        <f>F3/F18</f>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17330156697698337</v>
       </c>
-      <c r="G20" s="2">
-        <f>G3/G18</f>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
         <v>0.1743281060246053</v>
       </c>
-      <c r="H20" s="2">
-        <f>H3/H18</f>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17335856834261479</v>
       </c>
-      <c r="I20" s="2">
-        <f>I3/I18</f>
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17442598876783552</v>
       </c>
-      <c r="J20" s="2">
-        <f>J3/J18</f>
+      <c r="K20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17549377028163934</v>
       </c>
-      <c r="K20" s="2">
-        <f>K3/K18</f>
+      <c r="L20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -6631,43 +6496,47 @@
         <v>9</v>
       </c>
       <c r="C21" s="2">
-        <f>C4/C18</f>
+        <f t="shared" ref="C21" si="4">C4/C18</f>
+        <v>0.17189076817502927</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:L21" si="5">D4/D18</f>
         <v>0.17037074198565194</v>
       </c>
-      <c r="D21" s="2">
-        <f>D4/D18</f>
+      <c r="E21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17080948405073987</v>
       </c>
-      <c r="E21" s="2">
-        <f>E4/E18</f>
+      <c r="F21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17128560431100848</v>
       </c>
-      <c r="F21" s="2">
-        <f>F4/F18</f>
+      <c r="G21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17330156697698337</v>
       </c>
-      <c r="G21" s="2">
-        <f>G4/G18</f>
+      <c r="H21" s="2">
+        <f t="shared" si="5"/>
         <v>0.1743281060246053</v>
       </c>
-      <c r="H21" s="2">
-        <f>H4/H18</f>
+      <c r="I21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17335856834261479</v>
       </c>
-      <c r="I21" s="2">
-        <f>I4/I18</f>
+      <c r="J21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17442598876783552</v>
       </c>
-      <c r="J21" s="2">
-        <f>J4/J18</f>
+      <c r="K21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17549377028163934</v>
       </c>
-      <c r="K21" s="2">
-        <f>K4/K18</f>
+      <c r="L21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6675,43 +6544,47 @@
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <f>C5/C18</f>
+        <f t="shared" ref="C22" si="6">C5/C18</f>
+        <v>6.0347959472005809E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:L22" si="7">D5/D18</f>
         <v>6.531881804043546E-3</v>
       </c>
-      <c r="D22" s="2">
-        <f>D5/D18</f>
+      <c r="E22" s="2">
+        <f t="shared" si="7"/>
         <v>7.0013781448359808E-3</v>
       </c>
-      <c r="E22" s="2">
-        <f>E5/E18</f>
+      <c r="F22" s="2">
+        <f t="shared" si="7"/>
         <v>6.4546692722212357E-3</v>
       </c>
-      <c r="F22" s="2">
-        <f>F5/F18</f>
+      <c r="G22" s="2">
+        <f t="shared" si="7"/>
         <v>6.7066195069217767E-3</v>
       </c>
-      <c r="G22" s="2">
-        <f>G5/G18</f>
+      <c r="H22" s="2">
+        <f t="shared" si="7"/>
         <v>7.0647869475685098E-3</v>
       </c>
-      <c r="H22" s="2">
-        <f>H5/H18</f>
+      <c r="I22" s="2">
+        <f t="shared" si="7"/>
         <v>6.2526011217027685E-3</v>
       </c>
-      <c r="I22" s="2">
-        <f>I5/I18</f>
+      <c r="J22" s="2">
+        <f t="shared" si="7"/>
         <v>7.0449088130817008E-3</v>
       </c>
-      <c r="J22" s="2">
-        <f>J5/J18</f>
+      <c r="K22" s="2">
+        <f t="shared" si="7"/>
         <v>7.0710308080605749E-3</v>
       </c>
-      <c r="K22" s="2">
-        <f>K5/K18</f>
+      <c r="L22" s="2">
+        <f t="shared" si="7"/>
         <v>6.851035189408018E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -6719,43 +6592,47 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <f>C6/C18</f>
+        <f t="shared" ref="C23" si="8">C6/C18</f>
+        <v>0.17942921729302064</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:L23" si="9">D6/D18</f>
         <v>0.1802538503988361</v>
       </c>
-      <c r="D23" s="2">
-        <f>D6/D18</f>
+      <c r="E23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17874639117182547</v>
       </c>
-      <c r="E23" s="2">
-        <f>E6/E18</f>
+      <c r="F23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17971417855944416</v>
       </c>
-      <c r="F23" s="2">
-        <f>F6/F18</f>
+      <c r="G23" s="2">
+        <f t="shared" si="9"/>
         <v>0.18138309596028507</v>
       </c>
-      <c r="G23" s="2">
-        <f>G6/G18</f>
+      <c r="H23" s="2">
+        <f t="shared" si="9"/>
         <v>0.18064311737684144</v>
       </c>
-      <c r="H23" s="2">
-        <f>H6/H18</f>
+      <c r="I23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17594482649279614</v>
       </c>
-      <c r="I23" s="2">
-        <f>I6/I18</f>
+      <c r="J23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17704550415748843</v>
       </c>
-      <c r="J23" s="2">
-        <f>J6/J18</f>
+      <c r="K23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17588437963222628</v>
       </c>
-      <c r="K23" s="2">
-        <f>K6/K18</f>
+      <c r="L23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17436989562719118</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -6763,43 +6640,47 @@
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f>C7/C18</f>
+        <f t="shared" ref="C24" si="10">C7/C18</f>
+        <v>0.11340976062648851</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:L24" si="11">D7/D18</f>
         <v>0.11327948627903477</v>
       </c>
-      <c r="D24" s="2">
-        <f>D7/D18</f>
+      <c r="E24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11349073021557404</v>
       </c>
-      <c r="E24" s="2">
-        <f>E7/E18</f>
+      <c r="F24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11260140936815302</v>
       </c>
-      <c r="F24" s="2">
-        <f>F7/F18</f>
+      <c r="G24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11038109132127751</v>
       </c>
-      <c r="G24" s="2">
-        <f>G7/G18</f>
+      <c r="H24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11061830086065789</v>
       </c>
-      <c r="H24" s="2">
-        <f>H7/H18</f>
+      <c r="I24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11232882141937019</v>
       </c>
-      <c r="I24" s="2">
-        <f>I7/I18</f>
+      <c r="J24" s="2">
+        <f t="shared" si="11"/>
         <v>0.1122323430771368</v>
       </c>
-      <c r="J24" s="2">
-        <f>J7/J18</f>
+      <c r="K24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11233524297904732</v>
       </c>
-      <c r="K24" s="2">
-        <f>K7/K18</f>
+      <c r="L24" s="2">
+        <f t="shared" si="11"/>
         <v>0.1131123991682321</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -6807,43 +6688,47 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <f>C8/C18</f>
+        <f t="shared" ref="C25" si="12">C8/C18</f>
+        <v>5.8410366124409641E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:L25" si="13">D8/D18</f>
         <v>5.7532734661114734E-2</v>
       </c>
-      <c r="D25" s="2">
-        <f>D8/D18</f>
+      <c r="E25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7670834632679135E-2</v>
       </c>
-      <c r="E25" s="2">
-        <f>E8/E18</f>
+      <c r="F25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7638025305461797E-2</v>
       </c>
-      <c r="F25" s="2">
-        <f>F8/F18</f>
+      <c r="G25" s="2">
+        <f t="shared" si="13"/>
         <v>5.6087910242550824E-2</v>
       </c>
-      <c r="G25" s="2">
-        <f>G8/G18</f>
+      <c r="H25" s="2">
+        <f t="shared" si="13"/>
         <v>5.578964042452083E-2</v>
       </c>
-      <c r="H25" s="2">
-        <f>H8/H18</f>
+      <c r="I25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7204859390792527E-2</v>
       </c>
-      <c r="I25" s="2">
-        <f>I8/I18</f>
+      <c r="J25" s="2">
+        <f t="shared" si="13"/>
         <v>5.6815701216487074E-2</v>
       </c>
-      <c r="J25" s="2">
-        <f>J8/J18</f>
+      <c r="K25" s="2">
+        <f t="shared" si="13"/>
         <v>5.6448058971996312E-2</v>
       </c>
-      <c r="K25" s="2">
-        <f>K8/K18</f>
+      <c r="L25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7420113112399168E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -6851,43 +6736,47 @@
         <v>14</v>
       </c>
       <c r="C26" s="2">
-        <f>C9/C18</f>
+        <f t="shared" ref="C26" si="14">C9/C18</f>
+        <v>1.0192548338917369E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:L26" si="15">D9/D18</f>
         <v>9.7326042241509053E-4</v>
       </c>
-      <c r="D26" s="2">
-        <f>D9/D18</f>
+      <c r="E26" s="2">
+        <f t="shared" si="15"/>
         <v>8.8523171946202055E-4</v>
       </c>
-      <c r="E26" s="2">
-        <f>E9/E18</f>
+      <c r="F26" s="2">
+        <f t="shared" si="15"/>
         <v>8.4877913977221141E-4</v>
       </c>
-      <c r="F26" s="2">
-        <f>F9/F18</f>
+      <c r="G26" s="2">
+        <f t="shared" si="15"/>
         <v>6.9270248428300043E-4</v>
       </c>
-      <c r="G26" s="2">
-        <f>G9/G18</f>
+      <c r="H26" s="2">
+        <f t="shared" si="15"/>
         <v>7.3921537567981418E-4</v>
       </c>
-      <c r="H26" s="2">
-        <f>H9/H18</f>
+      <c r="I26" s="2">
+        <f t="shared" si="15"/>
         <v>7.3326859430428669E-4</v>
       </c>
-      <c r="I26" s="2">
-        <f>I9/I18</f>
+      <c r="J26" s="2">
+        <f t="shared" si="15"/>
         <v>7.1441328808715841E-4</v>
       </c>
-      <c r="J26" s="2">
-        <f>J9/J18</f>
+      <c r="K26" s="2">
+        <f t="shared" si="15"/>
         <v>7.211249549296903E-4</v>
       </c>
-      <c r="K26" s="2">
-        <f>K9/K18</f>
+      <c r="L26" s="2">
+        <f t="shared" si="15"/>
         <v>7.4336745456919846E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6895,43 +6784,47 @@
         <v>13</v>
       </c>
       <c r="C27" s="2">
-        <f>C10/C18</f>
+        <f t="shared" ref="C27" si="16">C10/C18</f>
+        <v>3.9559197513421868E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:L27" si="17">D10/D18</f>
         <v>4.1940500677268852E-3</v>
       </c>
-      <c r="D27" s="2">
-        <f>D10/D18</f>
+      <c r="E27" s="2">
+        <f t="shared" si="17"/>
         <v>4.134434507941937E-3</v>
       </c>
-      <c r="E27" s="2">
-        <f>E10/E18</f>
+      <c r="F27" s="2">
+        <f t="shared" si="17"/>
         <v>4.0761137758828286E-3</v>
       </c>
-      <c r="F27" s="2">
-        <f>F10/F18</f>
+      <c r="G27" s="2">
+        <f t="shared" si="17"/>
         <v>3.1591431480179261E-3</v>
       </c>
-      <c r="G27" s="2">
-        <f>G10/G18</f>
+      <c r="H27" s="2">
+        <f t="shared" si="17"/>
         <v>3.2947885316014572E-3</v>
       </c>
-      <c r="H27" s="2">
-        <f>H10/H18</f>
+      <c r="I27" s="2">
+        <f t="shared" si="17"/>
         <v>4.092431479022573E-3</v>
       </c>
-      <c r="I27" s="2">
-        <f>I10/I18</f>
+      <c r="J27" s="2">
+        <f t="shared" si="17"/>
         <v>3.929273084479371E-3</v>
       </c>
-      <c r="J27" s="2">
-        <f>J10/J18</f>
+      <c r="K27" s="2">
+        <f t="shared" si="17"/>
         <v>3.9361403789912267E-3</v>
       </c>
-      <c r="K27" s="2">
-        <f>K10/K18</f>
+      <c r="L27" s="2">
+        <f t="shared" si="17"/>
         <v>3.9077018895597058E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6939,43 +6832,47 @@
         <v>10</v>
       </c>
       <c r="C28" s="2">
-        <f>C11/C18</f>
+        <f t="shared" ref="C28" si="18">C11/C18</f>
+        <v>9.0017357607072215E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:L28" si="19">D11/D18</f>
         <v>8.6389404505092058E-3</v>
       </c>
-      <c r="D28" s="2">
-        <f>D11/D18</f>
+      <c r="E28" s="2">
+        <f t="shared" si="19"/>
         <v>8.5907714593246084E-3</v>
       </c>
-      <c r="E28" s="2">
-        <f>E11/E18</f>
+      <c r="F28" s="2">
+        <f t="shared" si="19"/>
         <v>8.3496180493871017E-3</v>
       </c>
-      <c r="F28" s="2">
-        <f>F11/F18</f>
+      <c r="G28" s="2">
+        <f t="shared" si="19"/>
         <v>7.4308084677630962E-3</v>
       </c>
-      <c r="G28" s="2">
-        <f>G11/G18</f>
+      <c r="H28" s="2">
+        <f t="shared" si="19"/>
         <v>7.6984001267226361E-3</v>
       </c>
-      <c r="H28" s="2">
-        <f>H11/H18</f>
+      <c r="I28" s="2">
+        <f t="shared" si="19"/>
         <v>8.9676767276402631E-3</v>
       </c>
-      <c r="I28" s="2">
-        <f>I11/I18</f>
+      <c r="J28" s="2">
+        <f t="shared" si="19"/>
         <v>9.0194677621003756E-3</v>
       </c>
-      <c r="J28" s="2">
-        <f>J11/J18</f>
+      <c r="K28" s="2">
+        <f t="shared" si="19"/>
         <v>9.384640038459997E-3</v>
       </c>
-      <c r="K28" s="2">
-        <f>K11/K18</f>
+      <c r="L28" s="2">
+        <f t="shared" si="19"/>
         <v>9.2418656514008466E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -6983,43 +6880,47 @@
         <v>6</v>
       </c>
       <c r="C29" s="2">
-        <f>C12/C18</f>
+        <f t="shared" ref="C29" si="20">C12/C18</f>
+        <v>4.8328825737698297E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:L29" si="21">D12/D18</f>
         <v>5.0438970551347009E-2</v>
       </c>
-      <c r="D29" s="2">
-        <f>D12/D18</f>
+      <c r="E29" s="2">
+        <f t="shared" si="21"/>
         <v>5.0136305565894435E-2</v>
       </c>
-      <c r="E29" s="2">
-        <f>E12/E18</f>
+      <c r="F29" s="2">
+        <f t="shared" si="21"/>
         <v>5.0018752097274036E-2</v>
       </c>
-      <c r="F29" s="2">
-        <f>F12/F18</f>
+      <c r="G29" s="2">
+        <f t="shared" si="21"/>
         <v>5.1795253938433441E-2</v>
       </c>
-      <c r="G29" s="2">
-        <f>G12/G18</f>
+      <c r="H29" s="2">
+        <f t="shared" si="21"/>
         <v>5.134378795078938E-2</v>
       </c>
-      <c r="H29" s="2">
-        <f>H12/H18</f>
+      <c r="I29" s="2">
+        <f t="shared" si="21"/>
         <v>4.9465903010364853E-2</v>
       </c>
-      <c r="I29" s="2">
-        <f>I12/I18</f>
+      <c r="J29" s="2">
+        <f t="shared" si="21"/>
         <v>4.9244904844118989E-2</v>
       </c>
-      <c r="J29" s="2">
-        <f>J12/J18</f>
+      <c r="K29" s="2">
+        <f t="shared" si="21"/>
         <v>4.9557309402668163E-2</v>
       </c>
-      <c r="K29" s="2">
-        <f>K12/K18</f>
+      <c r="L29" s="2">
+        <f t="shared" si="21"/>
         <v>4.939375370428039E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7027,43 +6928,47 @@
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <f>C13/C18</f>
+        <f t="shared" ref="C30" si="22">C13/C18</f>
+        <v>3.4503289872038108E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:L30" si="23">D13/D18</f>
         <v>3.4766467666683391E-2</v>
       </c>
-      <c r="D30" s="2">
-        <f>D13/D18</f>
+      <c r="E30" s="2">
+        <f t="shared" si="23"/>
         <v>3.5006890724179902E-2</v>
       </c>
-      <c r="E30" s="2">
-        <f>E13/E18</f>
+      <c r="F30" s="2">
+        <f t="shared" si="23"/>
         <v>3.4898639979471388E-2</v>
       </c>
-      <c r="F30" s="2">
-        <f>F13/F18</f>
+      <c r="G30" s="2">
+        <f t="shared" si="23"/>
         <v>3.3638052456469947E-2</v>
       </c>
-      <c r="G30" s="2">
-        <f>G13/G18</f>
+      <c r="H30" s="2">
+        <f t="shared" si="23"/>
         <v>3.4415755847721635E-2</v>
       </c>
-      <c r="H30" s="2">
-        <f>H13/H18</f>
+      <c r="I30" s="2">
+        <f t="shared" si="23"/>
         <v>3.7257971818704293E-2</v>
       </c>
-      <c r="I30" s="2">
-        <f>I13/I18</f>
+      <c r="J30" s="2">
+        <f t="shared" si="23"/>
         <v>3.6752594709372706E-2</v>
       </c>
-      <c r="J30" s="2">
-        <f>J13/J18</f>
+      <c r="K30" s="2">
+        <f t="shared" si="23"/>
         <v>3.675734145266616E-2</v>
       </c>
-      <c r="K30" s="2">
-        <f>K13/K18</f>
+      <c r="L30" s="2">
+        <f t="shared" si="23"/>
         <v>3.6555596853747478E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -7071,43 +6976,47 @@
         <v>7</v>
       </c>
       <c r="C31" s="2">
-        <f>C14/C18</f>
+        <f t="shared" ref="C31" si="24">C14/C18</f>
+        <v>4.337383441650184E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:L31" si="25">D14/D18</f>
         <v>4.3515777855816985E-2</v>
       </c>
-      <c r="D31" s="2">
-        <f>D14/D18</f>
+      <c r="E31" s="2">
+        <f t="shared" si="25"/>
         <v>4.3487008218571759E-2</v>
       </c>
-      <c r="E31" s="2">
-        <f>E14/E18</f>
+      <c r="F31" s="2">
+        <f t="shared" si="25"/>
         <v>4.3198910404453131E-2</v>
       </c>
-      <c r="F31" s="2">
-        <f>F14/F18</f>
+      <c r="G31" s="2">
+        <f t="shared" si="25"/>
         <v>4.1520167088235603E-2</v>
       </c>
-      <c r="G31" s="2">
-        <f>G14/G18</f>
+      <c r="H31" s="2">
+        <f t="shared" si="25"/>
         <v>4.0350599292465282E-2</v>
       </c>
-      <c r="H31" s="2">
-        <f>H14/H18</f>
+      <c r="I31" s="2">
+        <f t="shared" si="25"/>
         <v>4.1271131017261542E-2</v>
       </c>
-      <c r="I31" s="2">
-        <f>I14/I18</f>
+      <c r="J31" s="2">
+        <f t="shared" si="25"/>
         <v>4.1257367387033402E-2</v>
       </c>
-      <c r="J31" s="2">
-        <f>J14/J18</f>
+      <c r="K31" s="2">
+        <f t="shared" si="25"/>
         <v>4.0543247466047032E-2</v>
       </c>
-      <c r="K31" s="2">
-        <f>K14/K18</f>
+      <c r="L31" s="2">
+        <f t="shared" si="25"/>
         <v>4.0845027976734609E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -7115,43 +7024,47 @@
         <v>8</v>
       </c>
       <c r="C32" s="2">
-        <f>C15/C18</f>
+        <f t="shared" ref="C32" si="26">C15/C18</f>
+        <v>2.5420821055181043E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:L32" si="27">D15/D18</f>
         <v>2.6207796116991922E-2</v>
       </c>
-      <c r="D32" s="2">
-        <f>D15/D18</f>
+      <c r="E32" s="2">
+        <f t="shared" si="27"/>
         <v>2.5742136023901255E-2</v>
       </c>
-      <c r="E32" s="2">
-        <f>E15/E18</f>
+      <c r="F32" s="2">
+        <f t="shared" si="27"/>
         <v>2.5966719962101023E-2</v>
       </c>
-      <c r="F32" s="2">
-        <f>F15/F18</f>
+      <c r="G32" s="2">
+        <f t="shared" si="27"/>
         <v>2.394021767650794E-2</v>
       </c>
-      <c r="G32" s="2">
-        <f>G15/G18</f>
+      <c r="H32" s="2">
+        <f t="shared" si="27"/>
         <v>2.333808543217699E-2</v>
       </c>
-      <c r="H32" s="2">
-        <f>H15/H18</f>
+      <c r="I32" s="2">
+        <f t="shared" si="27"/>
         <v>2.4514952733902771E-2</v>
       </c>
-      <c r="I32" s="2">
-        <f>I15/I18</f>
+      <c r="J32" s="2">
+        <f t="shared" si="27"/>
         <v>2.4587723998333037E-2</v>
       </c>
-      <c r="J32" s="2">
-        <f>J15/J18</f>
+      <c r="K32" s="2">
+        <f t="shared" si="27"/>
         <v>2.3887264132045991E-2</v>
       </c>
-      <c r="K32" s="2">
-        <f>K15/K18</f>
+      <c r="L32" s="2">
+        <f t="shared" si="27"/>
         <v>2.4852582197354013E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -7159,43 +7072,47 @@
         <v>15</v>
       </c>
       <c r="C33" s="2">
-        <f>C16/C18</f>
+        <f t="shared" ref="C33" si="28">C16/C18</f>
+        <v>2.793363742784483E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:L33" si="29">D16/D18</f>
         <v>2.7341594341042493E-2</v>
       </c>
-      <c r="D33" s="2">
-        <f>D16/D18</f>
+      <c r="E33" s="2">
+        <f t="shared" si="29"/>
         <v>2.693921073544649E-2</v>
       </c>
-      <c r="E33" s="2">
-        <f>E16/E18</f>
+      <c r="F33" s="2">
+        <f t="shared" si="29"/>
         <v>2.6983281024851462E-2</v>
       </c>
-      <c r="F33" s="2">
-        <f>F16/F18</f>
+      <c r="G33" s="2">
+        <f t="shared" si="29"/>
         <v>2.8043955121275412E-2</v>
       </c>
-      <c r="G33" s="2">
-        <f>G16/G18</f>
+      <c r="H33" s="2">
+        <f t="shared" si="29"/>
         <v>2.7942341200696975E-2</v>
       </c>
-      <c r="H33" s="2">
-        <f>H16/H18</f>
+      <c r="I33" s="2">
+        <f t="shared" si="29"/>
         <v>2.8458748687052855E-2</v>
       </c>
-      <c r="I33" s="2">
-        <f>I16/I18</f>
+      <c r="J33" s="2">
+        <f t="shared" si="29"/>
         <v>2.8110178404873887E-2</v>
       </c>
-      <c r="J33" s="2">
-        <f>J16/J18</f>
+      <c r="K33" s="2">
+        <f t="shared" si="29"/>
         <v>2.8173951364128039E-2</v>
       </c>
-      <c r="K33" s="2">
-        <f>K16/K18</f>
+      <c r="L33" s="2">
+        <f t="shared" si="29"/>
         <v>2.7916461570916252E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -7203,39 +7120,43 @@
         <v>12</v>
       </c>
       <c r="C34" s="2">
-        <f>C17/C18</f>
+        <f t="shared" ref="C34" si="30">C17/C18</f>
+        <v>3.1990473499374319E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:L34" si="31">D17/D18</f>
         <v>3.3311593839361864E-3</v>
       </c>
-      <c r="D34" s="2">
-        <f>D17/D18</f>
+      <c r="E34" s="2">
+        <f t="shared" si="31"/>
         <v>3.5006890724179904E-3</v>
       </c>
-      <c r="E34" s="2">
-        <f>E17/E18</f>
+      <c r="F34" s="2">
+        <f t="shared" si="31"/>
         <v>3.3260298849213401E-3</v>
       </c>
-      <c r="F34" s="2">
-        <f>F17/F18</f>
+      <c r="G34" s="2">
+        <f t="shared" si="31"/>
         <v>3.0961701949012901E-3</v>
       </c>
-      <c r="G34" s="2">
-        <f>G17/G18</f>
+      <c r="H34" s="2">
+        <f t="shared" si="31"/>
         <v>3.0624636992449441E-3</v>
       </c>
-      <c r="H34" s="2">
-        <f>H17/H18</f>
+      <c r="I34" s="2">
+        <f t="shared" si="31"/>
         <v>3.3393448146019542E-3</v>
       </c>
-      <c r="I34" s="2">
-        <f>I17/I18</f>
+      <c r="J34" s="2">
+        <f t="shared" si="31"/>
         <v>3.2843166438451311E-3</v>
       </c>
-      <c r="J34" s="2">
-        <f>J17/J18</f>
+      <c r="K34" s="2">
+        <f t="shared" si="31"/>
         <v>2.9445935659629021E-3</v>
       </c>
-      <c r="K34" s="2">
-        <f>K17/K18</f>
+      <c r="L34" s="2">
+        <f t="shared" si="31"/>
         <v>3.073924879705064E-3</v>
       </c>
     </row>
@@ -7251,580 +7172,630 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J17"/>
+      <selection activeCell="A2" sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="12.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C1" s="2">
         <v>0.10225254602919781</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>0.10304901970646521</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>0.10335366455458835</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>0.10552167843911041</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>0.10504250488410159</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>0.10345032600725342</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>0.10110932507789089</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>0.10136813428949161</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>0.10167056767155214</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
+        <v>41440</v>
+      </c>
+      <c r="C2" s="1">
         <v>41433</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>41426</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>41419</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>41412</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>41405</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>41398</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>41384</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>41377</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>0.17189076817502927</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.17037074198565194</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>0.17080948405073987</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.17128560431100848</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.17330156697698337</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0.1743281060246053</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.17335856834261479</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.17442598876783552</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0.17549377028163934</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
+        <v>0.17189076817502927</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.17037074198565194</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.17080948405073987</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.17128560431100848</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.17330156697698337</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0.1743281060246053</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.17335856834261479</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.17442598876783552</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0.17549377028163934</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
+        <v>6.0347959472005809E-3</v>
+      </c>
+      <c r="C5" s="2">
         <v>6.531881804043546E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>7.0013781448359808E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>6.4546692722212357E-3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>6.7066195069217767E-3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>7.0647869475685098E-3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>6.2526011217027685E-3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>7.0449088130817008E-3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>7.0710308080605749E-3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>6.851035189408018E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
+        <v>0.17942921729302064</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.1802538503988361</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>0.17874639117182547</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.17971417855944416</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.18138309596028507</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0.18064311737684144</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.17594482649279614</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.17704550415748843</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0.17588437963222628</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>0.17436989562719118</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
+        <v>0.11340976062648851</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.11327948627903477</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>0.11349073021557404</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.11260140936815302</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.11038109132127751</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>0.11061830086065789</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.11232882141937019</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.1122323430771368</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0.11233524297904732</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>0.1131123991682321</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2">
+        <v>5.8410366124409641E-2</v>
+      </c>
+      <c r="C8" s="2">
         <v>5.7532734661114734E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>5.7670834632679135E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>5.7638025305461797E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>5.6087910242550824E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>5.578964042452083E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>5.7204859390792527E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>5.6815701216487074E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>5.6448058971996312E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>5.7420113112399168E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
+        <v>1.0192548338917369E-3</v>
+      </c>
+      <c r="C9" s="2">
         <v>9.7326042241509053E-4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>8.8523171946202055E-4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>8.4877913977221141E-4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>6.9270248428300043E-4</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>7.3921537567981418E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>7.3326859430428669E-4</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>7.1441328808715841E-4</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>7.211249549296903E-4</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>7.4336745456919846E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
+        <v>3.9559197513421868E-3</v>
+      </c>
+      <c r="C10" s="2">
         <v>4.1940500677268852E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>4.134434507941937E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>4.0761137758828286E-3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>3.1591431480179261E-3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>3.2947885316014572E-3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>4.092431479022573E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>3.929273084479371E-3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>3.9361403789912267E-3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>3.9077018895597058E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
+        <v>9.0017357607072215E-3</v>
+      </c>
+      <c r="C11" s="2">
         <v>8.6389404505092058E-3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>8.5907714593246084E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>8.3496180493871017E-3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>7.4308084677630962E-3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>7.6984001267226361E-3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>8.9676767276402631E-3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>9.0194677621003756E-3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>9.384640038459997E-3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>9.2418656514008466E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
+        <v>4.8328825737698297E-2</v>
+      </c>
+      <c r="C12" s="2">
         <v>5.0438970551347009E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>5.0136305565894435E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>5.0018752097274036E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>5.1795253938433441E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>5.134378795078938E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>4.9465903010364853E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>4.9244904844118989E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>4.9557309402668163E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>4.939375370428039E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
+        <v>3.4503289872038108E-2</v>
+      </c>
+      <c r="C13" s="2">
         <v>3.4766467666683391E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>3.5006890724179902E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>3.4898639979471388E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>3.3638052456469947E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>3.4415755847721635E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>3.7257971818704293E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>3.6752594709372706E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>3.675734145266616E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>3.6555596853747478E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2">
+        <v>4.337383441650184E-2</v>
+      </c>
+      <c r="C14" s="2">
         <v>4.3515777855816985E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>4.3487008218571759E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>4.3198910404453131E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>4.1520167088235603E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>4.0350599292465282E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>4.1271131017261542E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>4.1257367387033402E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>4.0543247466047032E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>4.0845027976734609E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2">
+        <v>2.5420821055181043E-2</v>
+      </c>
+      <c r="C15" s="2">
         <v>2.6207796116991922E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>2.5742136023901255E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>2.5966719962101023E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>2.394021767650794E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>2.333808543217699E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>2.4514952733902771E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>2.4587723998333037E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>2.3887264132045991E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>2.4852582197354013E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
+        <v>2.793363742784483E-2</v>
+      </c>
+      <c r="C16" s="2">
         <v>2.7341594341042493E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>2.693921073544649E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>2.6983281024851462E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>2.8043955121275412E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>2.7942341200696975E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>2.8458748687052855E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>2.8110178404873887E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>2.8173951364128039E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>2.7916461570916252E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
+        <v>3.1990473499374319E-3</v>
+      </c>
+      <c r="C17" s="2">
         <v>3.3311593839361864E-3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>3.5006890724179904E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>3.3260298849213401E-3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>3.0961701949012901E-3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>3.0624636992449441E-3</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>3.3393448146019542E-3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>3.2843166438451311E-3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>2.9445935659629021E-3</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>3.073924879705064E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -7876,451 +7847,501 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41433</v>
+        <v>41440</v>
       </c>
       <c r="B2" s="2">
-        <v>0.17037074198565194</v>
+        <v>0.17189076817502927</v>
       </c>
       <c r="C2" s="2">
-        <v>0.17037074198565194</v>
+        <v>0.17189076817502927</v>
       </c>
       <c r="D2" s="2">
-        <v>6.531881804043546E-3</v>
+        <v>6.0347959472005809E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>0.1802538503988361</v>
+        <v>0.17942921729302064</v>
       </c>
       <c r="F2" s="2">
-        <v>0.11327948627903477</v>
+        <v>0.11340976062648851</v>
       </c>
       <c r="G2" s="2">
-        <v>5.7532734661114734E-2</v>
+        <v>5.8410366124409641E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>9.7326042241509053E-4</v>
+        <v>1.0192548338917369E-3</v>
       </c>
       <c r="I2" s="2">
-        <v>4.1940500677268852E-3</v>
+        <v>3.9559197513421868E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>8.6389404505092058E-3</v>
+        <v>9.0017357607072215E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>5.0438970551347009E-2</v>
+        <v>4.8328825737698297E-2</v>
       </c>
       <c r="L2" s="2">
-        <v>3.4766467666683391E-2</v>
+        <v>3.4503289872038108E-2</v>
       </c>
       <c r="M2" s="2">
-        <v>4.3515777855816985E-2</v>
+        <v>4.337383441650184E-2</v>
       </c>
       <c r="N2" s="2">
-        <v>2.6207796116991922E-2</v>
+        <v>2.5420821055181043E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>2.7341594341042493E-2</v>
+        <v>2.793363742784483E-2</v>
       </c>
       <c r="P2" s="2">
-        <v>3.3311593839361864E-3</v>
+        <v>3.1990473499374319E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41426</v>
+        <v>41433</v>
       </c>
       <c r="B3" s="2">
-        <v>0.17080948405073987</v>
+        <v>0.17037074198565194</v>
       </c>
       <c r="C3" s="2">
-        <v>0.17080948405073987</v>
+        <v>0.17037074198565194</v>
       </c>
       <c r="D3" s="2">
-        <v>7.0013781448359808E-3</v>
+        <v>6.531881804043546E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>0.17874639117182547</v>
+        <v>0.1802538503988361</v>
       </c>
       <c r="F3" s="2">
-        <v>0.11349073021557404</v>
+        <v>0.11327948627903477</v>
       </c>
       <c r="G3" s="2">
-        <v>5.7670834632679135E-2</v>
+        <v>5.7532734661114734E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>8.8523171946202055E-4</v>
+        <v>9.7326042241509053E-4</v>
       </c>
       <c r="I3" s="2">
-        <v>4.134434507941937E-3</v>
+        <v>4.1940500677268852E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>8.5907714593246084E-3</v>
+        <v>8.6389404505092058E-3</v>
       </c>
       <c r="K3" s="2">
-        <v>5.0136305565894435E-2</v>
+        <v>5.0438970551347009E-2</v>
       </c>
       <c r="L3" s="2">
-        <v>3.5006890724179902E-2</v>
+        <v>3.4766467666683391E-2</v>
       </c>
       <c r="M3" s="2">
-        <v>4.3487008218571759E-2</v>
+        <v>4.3515777855816985E-2</v>
       </c>
       <c r="N3" s="2">
-        <v>2.5742136023901255E-2</v>
+        <v>2.6207796116991922E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>2.693921073544649E-2</v>
+        <v>2.7341594341042493E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>3.5006890724179904E-3</v>
+        <v>3.3311593839361864E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41419</v>
+        <v>41426</v>
       </c>
       <c r="B4" s="2">
-        <v>0.17128560431100848</v>
+        <v>0.17080948405073987</v>
       </c>
       <c r="C4" s="2">
-        <v>0.17128560431100848</v>
+        <v>0.17080948405073987</v>
       </c>
       <c r="D4" s="2">
-        <v>6.4546692722212357E-3</v>
+        <v>7.0013781448359808E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>0.17971417855944416</v>
+        <v>0.17874639117182547</v>
       </c>
       <c r="F4" s="2">
-        <v>0.11260140936815302</v>
+        <v>0.11349073021557404</v>
       </c>
       <c r="G4" s="2">
-        <v>5.7638025305461797E-2</v>
+        <v>5.7670834632679135E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>8.4877913977221141E-4</v>
+        <v>8.8523171946202055E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>4.0761137758828286E-3</v>
+        <v>4.134434507941937E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>8.3496180493871017E-3</v>
+        <v>8.5907714593246084E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>5.0018752097274036E-2</v>
+        <v>5.0136305565894435E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>3.4898639979471388E-2</v>
+        <v>3.5006890724179902E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>4.3198910404453131E-2</v>
+        <v>4.3487008218571759E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>2.5966719962101023E-2</v>
+        <v>2.5742136023901255E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>2.6983281024851462E-2</v>
+        <v>2.693921073544649E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>3.3260298849213401E-3</v>
+        <v>3.5006890724179904E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41412</v>
+        <v>41419</v>
       </c>
       <c r="B5" s="2">
-        <v>0.17330156697698337</v>
+        <v>0.17128560431100848</v>
       </c>
       <c r="C5" s="2">
-        <v>0.17330156697698337</v>
+        <v>0.17128560431100848</v>
       </c>
       <c r="D5" s="2">
-        <v>6.7066195069217767E-3</v>
+        <v>6.4546692722212357E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.18138309596028507</v>
+        <v>0.17971417855944416</v>
       </c>
       <c r="F5" s="2">
-        <v>0.11038109132127751</v>
+        <v>0.11260140936815302</v>
       </c>
       <c r="G5" s="2">
-        <v>5.6087910242550824E-2</v>
+        <v>5.7638025305461797E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>6.9270248428300043E-4</v>
+        <v>8.4877913977221141E-4</v>
       </c>
       <c r="I5" s="2">
-        <v>3.1591431480179261E-3</v>
+        <v>4.0761137758828286E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>7.4308084677630962E-3</v>
+        <v>8.3496180493871017E-3</v>
       </c>
       <c r="K5" s="2">
-        <v>5.1795253938433441E-2</v>
+        <v>5.0018752097274036E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>3.3638052456469947E-2</v>
+        <v>3.4898639979471388E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>4.1520167088235603E-2</v>
+        <v>4.3198910404453131E-2</v>
       </c>
       <c r="N5" s="2">
-        <v>2.394021767650794E-2</v>
+        <v>2.5966719962101023E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>2.8043955121275412E-2</v>
+        <v>2.6983281024851462E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>3.0961701949012901E-3</v>
+        <v>3.3260298849213401E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41405</v>
+        <v>41412</v>
       </c>
       <c r="B6" s="2">
-        <v>0.1743281060246053</v>
+        <v>0.17330156697698337</v>
       </c>
       <c r="C6" s="2">
-        <v>0.1743281060246053</v>
+        <v>0.17330156697698337</v>
       </c>
       <c r="D6" s="2">
-        <v>7.0647869475685098E-3</v>
+        <v>6.7066195069217767E-3</v>
       </c>
       <c r="E6" s="2">
-        <v>0.18064311737684144</v>
+        <v>0.18138309596028507</v>
       </c>
       <c r="F6" s="2">
-        <v>0.11061830086065789</v>
+        <v>0.11038109132127751</v>
       </c>
       <c r="G6" s="2">
-        <v>5.578964042452083E-2</v>
+        <v>5.6087910242550824E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>7.3921537567981418E-4</v>
+        <v>6.9270248428300043E-4</v>
       </c>
       <c r="I6" s="2">
-        <v>3.2947885316014572E-3</v>
+        <v>3.1591431480179261E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>7.6984001267226361E-3</v>
+        <v>7.4308084677630962E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>5.134378795078938E-2</v>
+        <v>5.1795253938433441E-2</v>
       </c>
       <c r="L6" s="2">
-        <v>3.4415755847721635E-2</v>
+        <v>3.3638052456469947E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>4.0350599292465282E-2</v>
+        <v>4.1520167088235603E-2</v>
       </c>
       <c r="N6" s="2">
-        <v>2.333808543217699E-2</v>
+        <v>2.394021767650794E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>2.7942341200696975E-2</v>
+        <v>2.8043955121275412E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>3.0624636992449441E-3</v>
+        <v>3.0961701949012901E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41398</v>
+        <v>41405</v>
       </c>
       <c r="B7" s="2">
-        <v>0.17335856834261479</v>
+        <v>0.1743281060246053</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17335856834261479</v>
+        <v>0.1743281060246053</v>
       </c>
       <c r="D7" s="2">
-        <v>6.2526011217027685E-3</v>
+        <v>7.0647869475685098E-3</v>
       </c>
       <c r="E7" s="2">
-        <v>0.17594482649279614</v>
+        <v>0.18064311737684144</v>
       </c>
       <c r="F7" s="2">
-        <v>0.11232882141937019</v>
+        <v>0.11061830086065789</v>
       </c>
       <c r="G7" s="2">
-        <v>5.7204859390792527E-2</v>
+        <v>5.578964042452083E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>7.3326859430428669E-4</v>
+        <v>7.3921537567981418E-4</v>
       </c>
       <c r="I7" s="2">
-        <v>4.092431479022573E-3</v>
+        <v>3.2947885316014572E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>8.9676767276402631E-3</v>
+        <v>7.6984001267226361E-3</v>
       </c>
       <c r="K7" s="2">
-        <v>4.9465903010364853E-2</v>
+        <v>5.134378795078938E-2</v>
       </c>
       <c r="L7" s="2">
-        <v>3.7257971818704293E-2</v>
+        <v>3.4415755847721635E-2</v>
       </c>
       <c r="M7" s="2">
-        <v>4.1271131017261542E-2</v>
+        <v>4.0350599292465282E-2</v>
       </c>
       <c r="N7" s="2">
-        <v>2.4514952733902771E-2</v>
+        <v>2.333808543217699E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>2.8458748687052855E-2</v>
+        <v>2.7942341200696975E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>3.3393448146019542E-3</v>
+        <v>3.0624636992449441E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
+      <c r="A8" s="1">
+        <v>41398</v>
       </c>
       <c r="B8" s="2">
-        <v>0.17442598876783552</v>
+        <v>0.17335856834261479</v>
       </c>
       <c r="C8" s="2">
-        <v>0.17442598876783552</v>
+        <v>0.17335856834261479</v>
       </c>
       <c r="D8" s="2">
-        <v>7.0449088130817008E-3</v>
+        <v>6.2526011217027685E-3</v>
       </c>
       <c r="E8" s="2">
-        <v>0.17704550415748843</v>
+        <v>0.17594482649279614</v>
       </c>
       <c r="F8" s="2">
-        <v>0.1122323430771368</v>
+        <v>0.11232882141937019</v>
       </c>
       <c r="G8" s="2">
-        <v>5.6815701216487074E-2</v>
+        <v>5.7204859390792527E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>7.1441328808715841E-4</v>
+        <v>7.3326859430428669E-4</v>
       </c>
       <c r="I8" s="2">
-        <v>3.929273084479371E-3</v>
+        <v>4.092431479022573E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>9.0194677621003756E-3</v>
+        <v>8.9676767276402631E-3</v>
       </c>
       <c r="K8" s="2">
-        <v>4.9244904844118989E-2</v>
+        <v>4.9465903010364853E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>3.6752594709372706E-2</v>
+        <v>3.7257971818704293E-2</v>
       </c>
       <c r="M8" s="2">
-        <v>4.1257367387033402E-2</v>
+        <v>4.1271131017261542E-2</v>
       </c>
       <c r="N8" s="2">
-        <v>2.4587723998333037E-2</v>
+        <v>2.4514952733902771E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>2.8110178404873887E-2</v>
+        <v>2.8458748687052855E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>3.2843166438451311E-3</v>
+        <v>3.3393448146019542E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41384</v>
+        <v>41391</v>
       </c>
       <c r="B9" s="2">
-        <v>0.17549377028163934</v>
+        <v>0.17442598876783552</v>
       </c>
       <c r="C9" s="2">
-        <v>0.17549377028163934</v>
+        <v>0.17442598876783552</v>
       </c>
       <c r="D9" s="2">
-        <v>7.0710308080605749E-3</v>
+        <v>7.0449088130817008E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>0.17588437963222628</v>
+        <v>0.17704550415748843</v>
       </c>
       <c r="F9" s="2">
-        <v>0.11233524297904732</v>
+        <v>0.1122323430771368</v>
       </c>
       <c r="G9" s="2">
-        <v>5.6448058971996312E-2</v>
+        <v>5.6815701216487074E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>7.211249549296903E-4</v>
+        <v>7.1441328808715841E-4</v>
       </c>
       <c r="I9" s="2">
-        <v>3.9361403789912267E-3</v>
+        <v>3.929273084479371E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>9.384640038459997E-3</v>
+        <v>9.0194677621003756E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>4.9557309402668163E-2</v>
+        <v>4.9244904844118989E-2</v>
       </c>
       <c r="L9" s="2">
-        <v>3.675734145266616E-2</v>
+        <v>3.6752594709372706E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>4.0543247466047032E-2</v>
+        <v>4.1257367387033402E-2</v>
       </c>
       <c r="N9" s="2">
-        <v>2.3887264132045991E-2</v>
+        <v>2.4587723998333037E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>2.8173951364128039E-2</v>
+        <v>2.8110178404873887E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>2.9445935659629021E-3</v>
+        <v>3.2843166438451311E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>41384</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7.0710308080605749E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.17588437963222628</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.11233524297904732</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.6448058971996312E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7.211249549296903E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.9361403789912267E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9.384640038459997E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.9557309402668163E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.675734145266616E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4.0543247466047032E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.3887264132045991E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2.8173951364128039E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2.9445935659629021E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>41377</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.17502285352647493</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>0.17502285352647493</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>6.851035189408018E-3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>0.17436989562719118</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>0.1131123991682321</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>5.7420113112399168E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>7.4336745456919846E-4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <v>3.9077018895597058E-3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J11" s="2">
         <v>9.2418656514008466E-3</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="2">
         <v>4.939375370428039E-2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L11" s="2">
         <v>3.6555596853747478E-2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M11" s="2">
         <v>4.0845027976734609E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N11" s="2">
         <v>2.4852582197354013E-2</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O11" s="2">
         <v>2.7916461570916252E-2</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P11" s="2">
         <v>3.073924879705064E-3</v>
       </c>
     </row>
@@ -8345,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>10191</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8353,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>16980</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8361,7 +8382,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>16980</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8369,7 +8390,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>651</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8377,7 +8398,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17965</v>
+        <v>17780</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8385,7 +8406,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11290</v>
+        <v>11238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8393,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5734</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8401,7 +8422,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8409,7 +8430,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8417,7 +8438,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>861</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8425,7 +8446,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>5027</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8433,7 +8454,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3465</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8441,7 +8462,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>4337</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8449,7 +8470,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>2612</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8457,7 +8478,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2725</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8465,7 +8486,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/1_5K_Limits.xlsx
+++ b/1_5K_Limits.xlsx
@@ -231,11 +231,95 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="10"/>
+          <c:idx val="11"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6/22/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5754</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4172</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -258,7 +342,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -316,10 +400,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,7 +426,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -400,10 +484,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -426,7 +510,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -484,10 +568,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +594,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -568,10 +652,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -594,7 +678,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -652,10 +736,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -676,7 +760,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -734,10 +818,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -758,7 +842,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -816,10 +900,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,7 +924,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -898,10 +982,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="9"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -978,7 +1062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:f>Sheet1!$L$2:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1036,10 +1120,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="10"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Sheet1!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1116,7 +1200,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$17</c:f>
+              <c:f>Sheet1!$M$2:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1181,8 +1265,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1940375984"/>
-        <c:axId val="-1828282336"/>
+        <c:axId val="-1161202384"/>
+        <c:axId val="-1161201296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1338,11 +1422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1940375984"/>
-        <c:axId val="-1828282336"/>
+        <c:axId val="-1161202384"/>
+        <c:axId val="-1161201296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1940375984"/>
+        <c:axId val="-1161202384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1828282336"/>
+        <c:crossAx val="-1161201296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1828282336"/>
+        <c:axId val="-1161201296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1940375984"/>
+        <c:crossAx val="-1161202384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,8 +1961,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.8924539512774899E-2"/>
-                  <c:y val="3.6182717595598587E-2"/>
+                  <c:x val="7.0655283335403246E-2"/>
+                  <c:y val="3.271982375608619E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1898,8 +1982,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1301247771836024E-2"/>
-                  <c:y val="0.12302123982503525"/>
+                  <c:x val="-2.2792026882388138E-2"/>
+                  <c:y val="8.8343524141433052E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1919,8 +2003,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.9821746880570411E-2"/>
-                  <c:y val="1.4473087038239367E-2"/>
+                  <c:x val="-8.8888904841313648E-2"/>
+                  <c:y val="6.8711629887781248E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1940,8 +2024,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.4171122994652427E-2"/>
-                  <c:y val="-5.789234815295774E-2"/>
+                  <c:x val="-3.4188040323582178E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1961,8 +2045,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9417706476530018E-2"/>
-                  <c:y val="-0.15558568566107392"/>
+                  <c:x val="-6.8376080647164356E-2"/>
+                  <c:y val="-8.5071541765824474E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1979,11 +2063,53 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6636957813428423E-2"/>
-                  <c:y val="-4.3419261114718305E-2"/>
+                  <c:x val="-8.2051296776597213E-2"/>
+                  <c:y val="-1.6359911878043171E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.507122957062697E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0512824194149303E-2"/>
+                  <c:y val="3.2719823756086337E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2003,8 +2129,8 @@
               <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.8431372549019523E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="7.7492891400119598E-2"/>
+                  <c:y val="9.8159471268258868E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2143,52 +2269,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.10219795745367941</c:v>
+                  <c:v>0.10218978102189781</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17189076817502927</c:v>
+                  <c:v>0.1767757739914958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17189076817502927</c:v>
+                  <c:v>0.1767757739914958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0347959472005809E-3</c:v>
+                  <c:v>6.1740074287250672E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17942921729302064</c:v>
+                  <c:v>0.1757500921122076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11340976062648851</c:v>
+                  <c:v>0.11193873791338466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8410366124409641E-2</c:v>
+                  <c:v>5.7298772169167803E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0192548338917369E-3</c:v>
+                  <c:v>9.7589149679847844E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9559197513421868E-3</c:v>
+                  <c:v>4.2222244351281107E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0017357607072215E-3</c:v>
+                  <c:v>8.593820017725377E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8328825737698297E-2</c:v>
+                  <c:v>4.7509982971689187E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4503289872038108E-2</c:v>
+                  <c:v>3.4534609294868603E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.337383441650184E-2</c:v>
+                  <c:v>4.1545095149420938E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5420821055181043E-2</c:v>
+                  <c:v>2.4805568556377649E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.793363742784483E-2</c:v>
+                  <c:v>2.7633662281793647E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1990473499374319E-3</c:v>
+                  <c:v>3.2762071678234632E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,38 +2484,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$11</c:f>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2402,34 +2531,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.1767757739914958</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.17189076817502927</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17037074198565194</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17080948405073987</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17128560431100848</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17330156697698337</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.1743281060246053</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.17335856834261479</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17442598876783552</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17549377028163934</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17502285352647493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,38 +2593,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$11</c:f>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2503,38 +2635,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$2:$C$11</c:f>
+              <c:f>Sheet6!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.1767757739914958</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.17189076817502927</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17037074198565194</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17080948405073987</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17128560431100848</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17330156697698337</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.1743281060246053</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.17335856834261479</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17442598876783552</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17549377028163934</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.17502285352647493</c:v>
                 </c:pt>
               </c:numCache>
@@ -2570,38 +2705,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$11</c:f>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2609,38 +2747,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$D$2:$D$11</c:f>
+              <c:f>Sheet6!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>6.1740074287250672E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.0347959472005809E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.531881804043546E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.0013781448359808E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.4546692722212357E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.7066195069217767E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.0647869475685098E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6.2526011217027685E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.0449088130817008E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7.0710308080605749E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>6.851035189408018E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2674,40 +2815,85 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$E$2:$E$11</c:f>
+              <c:f>Sheet6!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.1757500921122076</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.17942921729302064</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1802538503988361</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17874639117182547</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17971417855944416</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.18138309596028507</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.18064311737684144</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.17594482649279614</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17704550415748843</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17588437963222628</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.17436989562719118</c:v>
                 </c:pt>
               </c:numCache>
@@ -2741,40 +2927,85 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$F$2:$F$11</c:f>
+              <c:f>Sheet6!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.11193873791338466</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.11340976062648851</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.11327948627903477</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.11349073021557404</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.11260140936815302</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.11038109132127751</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.11061830086065789</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.11232882141937019</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.1122323430771368</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.11233524297904732</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.1131123991682321</c:v>
                 </c:pt>
               </c:numCache>
@@ -2808,40 +3039,85 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$G$2:$G$11</c:f>
+              <c:f>Sheet6!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>5.7298772169167803E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5.8410366124409641E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.7532734661114734E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.7670834632679135E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.7638025305461797E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.6087910242550824E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.578964042452083E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.7204859390792527E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5.6815701216487074E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5.6448058971996312E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5.7420113112399168E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2877,40 +3153,85 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$H$2:$H$11</c:f>
+              <c:f>Sheet6!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>9.7589149679847844E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0192548338917369E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9.7326042241509053E-4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.8523171946202055E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.4877913977221141E-4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.9270248428300043E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.3921537567981418E-4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.3326859430428669E-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.1441328808715841E-4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7.211249549296903E-4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7.4336745456919846E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2946,40 +3267,85 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$I$2:$I$11</c:f>
+              <c:f>Sheet6!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>4.2222244351281107E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.9559197513421868E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.1940500677268852E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.134434507941937E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.0761137758828286E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.1591431480179261E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.2947885316014572E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.092431479022573E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.929273084479371E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.9361403789912267E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.9077018895597058E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3015,6 +3381,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet6!$J$2:$J$12</c:f>
@@ -3022,33 +3430,36 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>8.593820017725377E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.0017357607072215E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8.6389404505092058E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.5907714593246084E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.3496180493871017E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.4308084677630962E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.6984001267226361E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8.9676767276402631E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9.0194677621003756E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9.384640038459997E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9.2418656514008466E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3084,6 +3495,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet6!$K$2:$K$12</c:f>
@@ -3091,33 +3544,36 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>4.7509982971689187E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.8328825737698297E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.0438970551347009E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.0136305565894435E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.0018752097274036E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.1795253938433441E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.134378795078938E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.9465903010364853E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.9244904844118989E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.9557309402668163E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4.939375370428039E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3153,6 +3609,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet6!$L$2:$L$12</c:f>
@@ -3160,33 +3658,36 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>3.4534609294868603E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.4503289872038108E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.4766467666683391E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.5006890724179902E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.4898639979471388E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.3638052456469947E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.4415755847721635E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.7257971818704293E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.6752594709372706E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.675734145266616E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.6555596853747478E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3222,6 +3723,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet6!$M$2:$M$12</c:f>
@@ -3229,33 +3772,36 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>4.1545095149420938E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.337383441650184E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.3515777855816985E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.3487008218571759E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.3198910404453131E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.1520167088235603E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.0350599292465282E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.1271131017261542E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.1257367387033402E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.0543247466047032E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4.0845027976734609E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3292,6 +3838,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet6!$N$2:$N$12</c:f>
@@ -3299,33 +3887,36 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2.4805568556377649E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.5420821055181043E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.6207796116991922E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.5742136023901255E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.5966719962101023E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.394021767650794E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.333808543217699E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.4514952733902771E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.4587723998333037E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.3887264132045991E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.4852582197354013E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3362,6 +3953,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet6!$O$2:$O$12</c:f>
@@ -3369,33 +4002,36 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2.7633662281793647E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.793363742784483E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.7341594341042493E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.693921073544649E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.6983281024851462E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.8043955121275412E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.7942341200696975E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.8458748687052855E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.8110178404873887E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.8173951364128039E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.7916461570916252E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3432,6 +4068,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet6!$P$2:$P$12</c:f>
@@ -3439,33 +4117,36 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>3.2762071678234632E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.1990473499374319E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.3311593839361864E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.5006890724179904E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.3260298849213401E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.0961701949012901E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.0624636992449441E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.3393448146019542E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.2843166438451311E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.9445935659629021E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.073924879705064E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3482,11 +4163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1778708448"/>
-        <c:axId val="-1778702464"/>
+        <c:axId val="-1330020160"/>
+        <c:axId val="-1330019072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1778708448"/>
+        <c:axId val="-1330020160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,14 +4210,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1778702464"/>
+        <c:crossAx val="-1330019072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1778702464"/>
+        <c:axId val="-1330019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,7 +4268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1778708448"/>
+        <c:crossAx val="-1330020160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5330,13 +6011,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>101599</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
@@ -5360,13 +6041,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -5395,16 +6076,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342898</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5689,19 +6370,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5709,37 +6390,40 @@
         <v>17</v>
       </c>
       <c r="C1" s="1">
+        <v>41447</v>
+      </c>
+      <c r="D1" s="1">
         <v>41440</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>41433</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>41426</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>41419</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>41412</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>41405</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>41398</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>41391</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>41384</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>41377</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5747,37 +6431,40 @@
         <v>1500</v>
       </c>
       <c r="C2">
+        <v>10262</v>
+      </c>
+      <c r="D2">
         <v>10127</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10191</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10244</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10472</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10054</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9947</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10440</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10190</v>
-      </c>
-      <c r="K2">
-        <v>10121</v>
       </c>
       <c r="L2">
         <v>10121</v>
       </c>
+      <c r="M2">
+        <v>10121</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5785,37 +6472,40 @@
         <v>1500</v>
       </c>
       <c r="C3">
+        <v>17752</v>
+      </c>
+      <c r="D3">
         <v>17033</v>
-      </c>
-      <c r="D3">
-        <v>16980</v>
       </c>
       <c r="E3">
         <v>16980</v>
       </c>
       <c r="F3">
+        <v>16980</v>
+      </c>
+      <c r="G3">
         <v>17355</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>16512</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>16508</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>17495</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>17579</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>17522</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>17423</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5823,37 +6513,40 @@
         <v>1500</v>
       </c>
       <c r="C4">
+        <v>17752</v>
+      </c>
+      <c r="D4">
         <v>17033</v>
-      </c>
-      <c r="D4">
-        <v>16980</v>
       </c>
       <c r="E4">
         <v>16980</v>
       </c>
       <c r="F4">
+        <v>16980</v>
+      </c>
+      <c r="G4">
         <v>17355</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>16512</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>16508</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>17495</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>17579</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>17522</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17423</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5861,37 +6554,40 @@
         <v>1500</v>
       </c>
       <c r="C5">
+        <v>620</v>
+      </c>
+      <c r="D5">
         <v>598</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>651</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>696</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>654</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>639</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>669</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>631</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>710</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>706</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5899,37 +6595,40 @@
         <v>1500</v>
       </c>
       <c r="C6">
+        <v>17649</v>
+      </c>
+      <c r="D6">
         <v>17780</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>17965</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>17769</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>18209</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17282</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>17106</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17756</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17843</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>17561</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>17358</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5937,37 +6636,40 @@
         <v>1500</v>
       </c>
       <c r="C7">
+        <v>11241</v>
+      </c>
+      <c r="D7">
         <v>11238</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>11290</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11282</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>11409</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10517</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10475</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>11336</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11311</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11216</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>11260</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5975,37 +6677,40 @@
         <v>1500</v>
       </c>
       <c r="C8">
+        <v>5754</v>
+      </c>
+      <c r="D8">
         <v>5788</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5734</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5733</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5840</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5344</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5283</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5773</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5726</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5636</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5716</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6013,37 +6718,40 @@
         <v>1500</v>
       </c>
       <c r="C9">
+        <v>98</v>
+      </c>
+      <c r="D9">
         <v>101</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>97</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>88</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>86</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>66</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>70</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>74</v>
-      </c>
-      <c r="J9">
-        <v>72</v>
       </c>
       <c r="K9">
         <v>72</v>
       </c>
       <c r="L9">
+        <v>72</v>
+      </c>
+      <c r="M9">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6051,37 +6759,40 @@
         <v>1500</v>
       </c>
       <c r="C10">
+        <v>424</v>
+      </c>
+      <c r="D10">
         <v>392</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>418</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>411</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>413</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>301</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>312</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>413</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>396</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>393</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6089,37 +6800,40 @@
         <v>1500</v>
       </c>
       <c r="C11">
+        <v>863</v>
+      </c>
+      <c r="D11">
         <v>892</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>861</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>854</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>846</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>708</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>729</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>905</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>909</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>937</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>920</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6127,37 +6841,40 @@
         <v>1500</v>
       </c>
       <c r="C12">
+        <v>4771</v>
+      </c>
+      <c r="D12">
         <v>4789</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5027</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4984</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5068</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4935</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4862</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4992</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4963</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4948</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4917</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6165,37 +6882,40 @@
         <v>1500</v>
       </c>
       <c r="C13">
+        <v>3468</v>
+      </c>
+      <c r="D13">
         <v>3419</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3465</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3480</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3536</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3205</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3259</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3760</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3704</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3670</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3639</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6203,37 +6923,40 @@
         <v>1500</v>
       </c>
       <c r="C14">
+        <v>4172</v>
+      </c>
+      <c r="D14">
         <v>4298</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4337</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4323</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4377</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3956</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3821</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4165</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4158</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4048</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4066</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6241,37 +6964,40 @@
         <v>1500</v>
       </c>
       <c r="C15">
+        <v>2491</v>
+      </c>
+      <c r="D15">
         <v>2519</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2612</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2559</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2631</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2281</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2210</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2474</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2478</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2385</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2474</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6279,37 +7005,40 @@
         <v>1500</v>
       </c>
       <c r="C16">
+        <v>2775</v>
+      </c>
+      <c r="D16">
         <v>2768</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2725</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2678</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2734</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2672</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2646</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2872</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2833</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2813</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2779</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -6317,82 +7046,89 @@
         <v>1500</v>
       </c>
       <c r="C17">
+        <v>329</v>
+      </c>
+      <c r="D17">
         <v>317</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>332</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>348</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>337</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>295</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>290</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>337</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>331</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>294</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:L18" si="0">SUM(C2:C17)</f>
-        <v>99092</v>
+        <f t="shared" ref="C18:M18" si="0">SUM(C2:C17)</f>
+        <v>100421</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>99665</v>
+        <v>99092</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>99409</v>
+        <v>99665</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>101322</v>
+        <v>99409</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>95279</v>
+        <v>101322</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>94695</v>
+        <v>95279</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>100918</v>
+        <v>94695</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>100782</v>
+        <v>100918</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>99844</v>
+        <v>100782</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
+        <v>99844</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
         <v>99547</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -6400,47 +7136,51 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:L19" si="1">C2/C18</f>
+        <f t="shared" ref="C19" si="1">C2/C18</f>
+        <v>0.10218978102189781</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:M19" si="2">D2/D18</f>
         <v>0.10219795745367941</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10225254602919781</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10304901970646521</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10335366455458835</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10552167843911041</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10504250488410159</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10345032600725342</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="1"/>
+      <c r="K19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10110932507789089</v>
       </c>
-      <c r="K19" s="2">
-        <f t="shared" si="1"/>
+      <c r="L19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10136813428949161</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="1"/>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
         <v>0.10167056767155214</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -6448,47 +7188,51 @@
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20" si="2">C3/C18</f>
+        <f t="shared" ref="C20:D20" si="3">C3/C18</f>
+        <v>0.1767757739914958</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17189076817502927</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:L20" si="3">D3/D18</f>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:M20" si="4">E3/E18</f>
         <v>0.17037074198565194</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
         <v>0.17080948405073987</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="3"/>
+      <c r="G20" s="2">
+        <f t="shared" si="4"/>
         <v>0.17128560431100848</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
+      <c r="H20" s="2">
+        <f t="shared" si="4"/>
         <v>0.17330156697698337</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="3"/>
+      <c r="I20" s="2">
+        <f t="shared" si="4"/>
         <v>0.1743281060246053</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="3"/>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
         <v>0.17335856834261479</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="3"/>
+      <c r="K20" s="2">
+        <f t="shared" si="4"/>
         <v>0.17442598876783552</v>
       </c>
-      <c r="K20" s="2">
-        <f t="shared" si="3"/>
+      <c r="L20" s="2">
+        <f t="shared" si="4"/>
         <v>0.17549377028163934</v>
       </c>
-      <c r="L20" s="2">
-        <f t="shared" si="3"/>
+      <c r="M20" s="2">
+        <f t="shared" si="4"/>
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -6496,47 +7240,51 @@
         <v>9</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21" si="4">C4/C18</f>
+        <f t="shared" ref="C21:D21" si="5">C4/C18</f>
+        <v>0.1767757739914958</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17189076817502927</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" ref="D21:L21" si="5">D4/D18</f>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:M21" si="6">E4/E18</f>
         <v>0.17037074198565194</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="5"/>
+      <c r="F21" s="2">
+        <f t="shared" si="6"/>
         <v>0.17080948405073987</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="5"/>
+      <c r="G21" s="2">
+        <f t="shared" si="6"/>
         <v>0.17128560431100848</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="5"/>
+      <c r="H21" s="2">
+        <f t="shared" si="6"/>
         <v>0.17330156697698337</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="5"/>
+      <c r="I21" s="2">
+        <f t="shared" si="6"/>
         <v>0.1743281060246053</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="5"/>
+      <c r="J21" s="2">
+        <f t="shared" si="6"/>
         <v>0.17335856834261479</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="5"/>
+      <c r="K21" s="2">
+        <f t="shared" si="6"/>
         <v>0.17442598876783552</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="5"/>
+      <c r="L21" s="2">
+        <f t="shared" si="6"/>
         <v>0.17549377028163934</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="5"/>
+      <c r="M21" s="2">
+        <f t="shared" si="6"/>
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6544,47 +7292,51 @@
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22" si="6">C5/C18</f>
+        <f t="shared" ref="C22:D22" si="7">C5/C18</f>
+        <v>6.1740074287250672E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="7"/>
         <v>6.0347959472005809E-3</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:L22" si="7">D5/D18</f>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:M22" si="8">E5/E18</f>
         <v>6.531881804043546E-3</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="7"/>
+      <c r="F22" s="2">
+        <f t="shared" si="8"/>
         <v>7.0013781448359808E-3</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="7"/>
+      <c r="G22" s="2">
+        <f t="shared" si="8"/>
         <v>6.4546692722212357E-3</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="7"/>
+      <c r="H22" s="2">
+        <f t="shared" si="8"/>
         <v>6.7066195069217767E-3</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="7"/>
+      <c r="I22" s="2">
+        <f t="shared" si="8"/>
         <v>7.0647869475685098E-3</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="7"/>
+      <c r="J22" s="2">
+        <f t="shared" si="8"/>
         <v>6.2526011217027685E-3</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="7"/>
+      <c r="K22" s="2">
+        <f t="shared" si="8"/>
         <v>7.0449088130817008E-3</v>
       </c>
-      <c r="K22" s="2">
-        <f t="shared" si="7"/>
+      <c r="L22" s="2">
+        <f t="shared" si="8"/>
         <v>7.0710308080605749E-3</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" si="7"/>
+      <c r="M22" s="2">
+        <f t="shared" si="8"/>
         <v>6.851035189408018E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -6592,47 +7344,51 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23" si="8">C6/C18</f>
+        <f t="shared" ref="C23:D23" si="9">C6/C18</f>
+        <v>0.1757500921122076</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17942921729302064</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" ref="D23:L23" si="9">D6/D18</f>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:M23" si="10">E6/E18</f>
         <v>0.1802538503988361</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="9"/>
+      <c r="F23" s="2">
+        <f t="shared" si="10"/>
         <v>0.17874639117182547</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="9"/>
+      <c r="G23" s="2">
+        <f t="shared" si="10"/>
         <v>0.17971417855944416</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="9"/>
+      <c r="H23" s="2">
+        <f t="shared" si="10"/>
         <v>0.18138309596028507</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="9"/>
+      <c r="I23" s="2">
+        <f t="shared" si="10"/>
         <v>0.18064311737684144</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="9"/>
+      <c r="J23" s="2">
+        <f t="shared" si="10"/>
         <v>0.17594482649279614</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="9"/>
+      <c r="K23" s="2">
+        <f t="shared" si="10"/>
         <v>0.17704550415748843</v>
       </c>
-      <c r="K23" s="2">
-        <f t="shared" si="9"/>
+      <c r="L23" s="2">
+        <f t="shared" si="10"/>
         <v>0.17588437963222628</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" si="9"/>
+      <c r="M23" s="2">
+        <f t="shared" si="10"/>
         <v>0.17436989562719118</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -6640,47 +7396,51 @@
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24" si="10">C7/C18</f>
+        <f t="shared" ref="C24:D24" si="11">C7/C18</f>
+        <v>0.11193873791338466</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11340976062648851</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:L24" si="11">D7/D18</f>
+      <c r="E24" s="2">
+        <f t="shared" ref="E24:M24" si="12">E7/E18</f>
         <v>0.11327948627903477</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="11"/>
+      <c r="F24" s="2">
+        <f t="shared" si="12"/>
         <v>0.11349073021557404</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="11"/>
+      <c r="G24" s="2">
+        <f t="shared" si="12"/>
         <v>0.11260140936815302</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="11"/>
+      <c r="H24" s="2">
+        <f t="shared" si="12"/>
         <v>0.11038109132127751</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="11"/>
+      <c r="I24" s="2">
+        <f t="shared" si="12"/>
         <v>0.11061830086065789</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="11"/>
+      <c r="J24" s="2">
+        <f t="shared" si="12"/>
         <v>0.11232882141937019</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="11"/>
+      <c r="K24" s="2">
+        <f t="shared" si="12"/>
         <v>0.1122323430771368</v>
       </c>
-      <c r="K24" s="2">
-        <f t="shared" si="11"/>
+      <c r="L24" s="2">
+        <f t="shared" si="12"/>
         <v>0.11233524297904732</v>
       </c>
-      <c r="L24" s="2">
-        <f t="shared" si="11"/>
+      <c r="M24" s="2">
+        <f t="shared" si="12"/>
         <v>0.1131123991682321</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -6688,47 +7448,51 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25" si="12">C8/C18</f>
+        <f t="shared" ref="C25:D25" si="13">C8/C18</f>
+        <v>5.7298772169167803E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="13"/>
         <v>5.8410366124409641E-2</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:L25" si="13">D8/D18</f>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:M25" si="14">E8/E18</f>
         <v>5.7532734661114734E-2</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="13"/>
+      <c r="F25" s="2">
+        <f t="shared" si="14"/>
         <v>5.7670834632679135E-2</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="13"/>
+      <c r="G25" s="2">
+        <f t="shared" si="14"/>
         <v>5.7638025305461797E-2</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="13"/>
+      <c r="H25" s="2">
+        <f t="shared" si="14"/>
         <v>5.6087910242550824E-2</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="13"/>
+      <c r="I25" s="2">
+        <f t="shared" si="14"/>
         <v>5.578964042452083E-2</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="13"/>
+      <c r="J25" s="2">
+        <f t="shared" si="14"/>
         <v>5.7204859390792527E-2</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="13"/>
+      <c r="K25" s="2">
+        <f t="shared" si="14"/>
         <v>5.6815701216487074E-2</v>
       </c>
-      <c r="K25" s="2">
-        <f t="shared" si="13"/>
+      <c r="L25" s="2">
+        <f t="shared" si="14"/>
         <v>5.6448058971996312E-2</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="13"/>
+      <c r="M25" s="2">
+        <f t="shared" si="14"/>
         <v>5.7420113112399168E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -6736,47 +7500,51 @@
         <v>14</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26" si="14">C9/C18</f>
+        <f t="shared" ref="C26:D26" si="15">C9/C18</f>
+        <v>9.7589149679847844E-4</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="15"/>
         <v>1.0192548338917369E-3</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" ref="D26:L26" si="15">D9/D18</f>
+      <c r="E26" s="2">
+        <f t="shared" ref="E26:M26" si="16">E9/E18</f>
         <v>9.7326042241509053E-4</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="15"/>
+      <c r="F26" s="2">
+        <f t="shared" si="16"/>
         <v>8.8523171946202055E-4</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="15"/>
+      <c r="G26" s="2">
+        <f t="shared" si="16"/>
         <v>8.4877913977221141E-4</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" si="15"/>
+      <c r="H26" s="2">
+        <f t="shared" si="16"/>
         <v>6.9270248428300043E-4</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="15"/>
+      <c r="I26" s="2">
+        <f t="shared" si="16"/>
         <v>7.3921537567981418E-4</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="15"/>
+      <c r="J26" s="2">
+        <f t="shared" si="16"/>
         <v>7.3326859430428669E-4</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="15"/>
+      <c r="K26" s="2">
+        <f t="shared" si="16"/>
         <v>7.1441328808715841E-4</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="15"/>
+      <c r="L26" s="2">
+        <f t="shared" si="16"/>
         <v>7.211249549296903E-4</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" si="15"/>
+      <c r="M26" s="2">
+        <f t="shared" si="16"/>
         <v>7.4336745456919846E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6784,47 +7552,51 @@
         <v>13</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27" si="16">C10/C18</f>
+        <f t="shared" ref="C27:D27" si="17">C10/C18</f>
+        <v>4.2222244351281107E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="17"/>
         <v>3.9559197513421868E-3</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" ref="D27:L27" si="17">D10/D18</f>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:M27" si="18">E10/E18</f>
         <v>4.1940500677268852E-3</v>
       </c>
-      <c r="E27" s="2">
-        <f t="shared" si="17"/>
+      <c r="F27" s="2">
+        <f t="shared" si="18"/>
         <v>4.134434507941937E-3</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="17"/>
+      <c r="G27" s="2">
+        <f t="shared" si="18"/>
         <v>4.0761137758828286E-3</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" si="17"/>
+      <c r="H27" s="2">
+        <f t="shared" si="18"/>
         <v>3.1591431480179261E-3</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="17"/>
+      <c r="I27" s="2">
+        <f t="shared" si="18"/>
         <v>3.2947885316014572E-3</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="17"/>
+      <c r="J27" s="2">
+        <f t="shared" si="18"/>
         <v>4.092431479022573E-3</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="17"/>
+      <c r="K27" s="2">
+        <f t="shared" si="18"/>
         <v>3.929273084479371E-3</v>
       </c>
-      <c r="K27" s="2">
-        <f t="shared" si="17"/>
+      <c r="L27" s="2">
+        <f t="shared" si="18"/>
         <v>3.9361403789912267E-3</v>
       </c>
-      <c r="L27" s="2">
-        <f t="shared" si="17"/>
+      <c r="M27" s="2">
+        <f t="shared" si="18"/>
         <v>3.9077018895597058E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6832,47 +7604,51 @@
         <v>10</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28" si="18">C11/C18</f>
+        <f t="shared" ref="C28:D28" si="19">C11/C18</f>
+        <v>8.593820017725377E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="19"/>
         <v>9.0017357607072215E-3</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:L28" si="19">D11/D18</f>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:M28" si="20">E11/E18</f>
         <v>8.6389404505092058E-3</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="19"/>
+      <c r="F28" s="2">
+        <f t="shared" si="20"/>
         <v>8.5907714593246084E-3</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="19"/>
+      <c r="G28" s="2">
+        <f t="shared" si="20"/>
         <v>8.3496180493871017E-3</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="19"/>
+      <c r="H28" s="2">
+        <f t="shared" si="20"/>
         <v>7.4308084677630962E-3</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="19"/>
+      <c r="I28" s="2">
+        <f t="shared" si="20"/>
         <v>7.6984001267226361E-3</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="19"/>
+      <c r="J28" s="2">
+        <f t="shared" si="20"/>
         <v>8.9676767276402631E-3</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="19"/>
+      <c r="K28" s="2">
+        <f t="shared" si="20"/>
         <v>9.0194677621003756E-3</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" si="19"/>
+      <c r="L28" s="2">
+        <f t="shared" si="20"/>
         <v>9.384640038459997E-3</v>
       </c>
-      <c r="L28" s="2">
-        <f t="shared" si="19"/>
+      <c r="M28" s="2">
+        <f t="shared" si="20"/>
         <v>9.2418656514008466E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -6880,47 +7656,51 @@
         <v>6</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29" si="20">C12/C18</f>
+        <f t="shared" ref="C29:D29" si="21">C12/C18</f>
+        <v>4.7509982971689187E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="21"/>
         <v>4.8328825737698297E-2</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" ref="D29:L29" si="21">D12/D18</f>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:M29" si="22">E12/E18</f>
         <v>5.0438970551347009E-2</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="21"/>
+      <c r="F29" s="2">
+        <f t="shared" si="22"/>
         <v>5.0136305565894435E-2</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="21"/>
+      <c r="G29" s="2">
+        <f t="shared" si="22"/>
         <v>5.0018752097274036E-2</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="21"/>
+      <c r="H29" s="2">
+        <f t="shared" si="22"/>
         <v>5.1795253938433441E-2</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="21"/>
+      <c r="I29" s="2">
+        <f t="shared" si="22"/>
         <v>5.134378795078938E-2</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="21"/>
+      <c r="J29" s="2">
+        <f t="shared" si="22"/>
         <v>4.9465903010364853E-2</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="21"/>
+      <c r="K29" s="2">
+        <f t="shared" si="22"/>
         <v>4.9244904844118989E-2</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="21"/>
+      <c r="L29" s="2">
+        <f t="shared" si="22"/>
         <v>4.9557309402668163E-2</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" si="21"/>
+      <c r="M29" s="2">
+        <f t="shared" si="22"/>
         <v>4.939375370428039E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -6928,47 +7708,51 @@
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30" si="22">C13/C18</f>
+        <f t="shared" ref="C30:D30" si="23">C13/C18</f>
+        <v>3.4534609294868603E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="23"/>
         <v>3.4503289872038108E-2</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" ref="D30:L30" si="23">D13/D18</f>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:M30" si="24">E13/E18</f>
         <v>3.4766467666683391E-2</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" si="23"/>
+      <c r="F30" s="2">
+        <f t="shared" si="24"/>
         <v>3.5006890724179902E-2</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" si="23"/>
+      <c r="G30" s="2">
+        <f t="shared" si="24"/>
         <v>3.4898639979471388E-2</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="23"/>
+      <c r="H30" s="2">
+        <f t="shared" si="24"/>
         <v>3.3638052456469947E-2</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="23"/>
+      <c r="I30" s="2">
+        <f t="shared" si="24"/>
         <v>3.4415755847721635E-2</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="23"/>
+      <c r="J30" s="2">
+        <f t="shared" si="24"/>
         <v>3.7257971818704293E-2</v>
       </c>
-      <c r="J30" s="2">
-        <f t="shared" si="23"/>
+      <c r="K30" s="2">
+        <f t="shared" si="24"/>
         <v>3.6752594709372706E-2</v>
       </c>
-      <c r="K30" s="2">
-        <f t="shared" si="23"/>
+      <c r="L30" s="2">
+        <f t="shared" si="24"/>
         <v>3.675734145266616E-2</v>
       </c>
-      <c r="L30" s="2">
-        <f t="shared" si="23"/>
+      <c r="M30" s="2">
+        <f t="shared" si="24"/>
         <v>3.6555596853747478E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -6976,47 +7760,51 @@
         <v>7</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ref="C31" si="24">C14/C18</f>
+        <f t="shared" ref="C31:D31" si="25">C14/C18</f>
+        <v>4.1545095149420938E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="25"/>
         <v>4.337383441650184E-2</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" ref="D31:L31" si="25">D14/D18</f>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:M31" si="26">E14/E18</f>
         <v>4.3515777855816985E-2</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" si="25"/>
+      <c r="F31" s="2">
+        <f t="shared" si="26"/>
         <v>4.3487008218571759E-2</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="25"/>
+      <c r="G31" s="2">
+        <f t="shared" si="26"/>
         <v>4.3198910404453131E-2</v>
       </c>
-      <c r="G31" s="2">
-        <f t="shared" si="25"/>
+      <c r="H31" s="2">
+        <f t="shared" si="26"/>
         <v>4.1520167088235603E-2</v>
       </c>
-      <c r="H31" s="2">
-        <f t="shared" si="25"/>
+      <c r="I31" s="2">
+        <f t="shared" si="26"/>
         <v>4.0350599292465282E-2</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="25"/>
+      <c r="J31" s="2">
+        <f t="shared" si="26"/>
         <v>4.1271131017261542E-2</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="25"/>
+      <c r="K31" s="2">
+        <f t="shared" si="26"/>
         <v>4.1257367387033402E-2</v>
       </c>
-      <c r="K31" s="2">
-        <f t="shared" si="25"/>
+      <c r="L31" s="2">
+        <f t="shared" si="26"/>
         <v>4.0543247466047032E-2</v>
       </c>
-      <c r="L31" s="2">
-        <f t="shared" si="25"/>
+      <c r="M31" s="2">
+        <f t="shared" si="26"/>
         <v>4.0845027976734609E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -7024,47 +7812,51 @@
         <v>8</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32" si="26">C15/C18</f>
+        <f t="shared" ref="C32:D32" si="27">C15/C18</f>
+        <v>2.4805568556377649E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="27"/>
         <v>2.5420821055181043E-2</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" ref="D32:L32" si="27">D15/D18</f>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:M32" si="28">E15/E18</f>
         <v>2.6207796116991922E-2</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" si="27"/>
+      <c r="F32" s="2">
+        <f t="shared" si="28"/>
         <v>2.5742136023901255E-2</v>
       </c>
-      <c r="F32" s="2">
-        <f t="shared" si="27"/>
+      <c r="G32" s="2">
+        <f t="shared" si="28"/>
         <v>2.5966719962101023E-2</v>
       </c>
-      <c r="G32" s="2">
-        <f t="shared" si="27"/>
+      <c r="H32" s="2">
+        <f t="shared" si="28"/>
         <v>2.394021767650794E-2</v>
       </c>
-      <c r="H32" s="2">
-        <f t="shared" si="27"/>
+      <c r="I32" s="2">
+        <f t="shared" si="28"/>
         <v>2.333808543217699E-2</v>
       </c>
-      <c r="I32" s="2">
-        <f t="shared" si="27"/>
+      <c r="J32" s="2">
+        <f t="shared" si="28"/>
         <v>2.4514952733902771E-2</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="27"/>
+      <c r="K32" s="2">
+        <f t="shared" si="28"/>
         <v>2.4587723998333037E-2</v>
       </c>
-      <c r="K32" s="2">
-        <f t="shared" si="27"/>
+      <c r="L32" s="2">
+        <f t="shared" si="28"/>
         <v>2.3887264132045991E-2</v>
       </c>
-      <c r="L32" s="2">
-        <f t="shared" si="27"/>
+      <c r="M32" s="2">
+        <f t="shared" si="28"/>
         <v>2.4852582197354013E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -7072,47 +7864,51 @@
         <v>15</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ref="C33" si="28">C16/C18</f>
+        <f t="shared" ref="C33:D33" si="29">C16/C18</f>
+        <v>2.7633662281793647E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="29"/>
         <v>2.793363742784483E-2</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" ref="D33:L33" si="29">D16/D18</f>
+      <c r="E33" s="2">
+        <f t="shared" ref="E33:M33" si="30">E16/E18</f>
         <v>2.7341594341042493E-2</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" si="29"/>
+      <c r="F33" s="2">
+        <f t="shared" si="30"/>
         <v>2.693921073544649E-2</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="29"/>
+      <c r="G33" s="2">
+        <f t="shared" si="30"/>
         <v>2.6983281024851462E-2</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="29"/>
+      <c r="H33" s="2">
+        <f t="shared" si="30"/>
         <v>2.8043955121275412E-2</v>
       </c>
-      <c r="H33" s="2">
-        <f t="shared" si="29"/>
+      <c r="I33" s="2">
+        <f t="shared" si="30"/>
         <v>2.7942341200696975E-2</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" si="29"/>
+      <c r="J33" s="2">
+        <f t="shared" si="30"/>
         <v>2.8458748687052855E-2</v>
       </c>
-      <c r="J33" s="2">
-        <f t="shared" si="29"/>
+      <c r="K33" s="2">
+        <f t="shared" si="30"/>
         <v>2.8110178404873887E-2</v>
       </c>
-      <c r="K33" s="2">
-        <f t="shared" si="29"/>
+      <c r="L33" s="2">
+        <f t="shared" si="30"/>
         <v>2.8173951364128039E-2</v>
       </c>
-      <c r="L33" s="2">
-        <f t="shared" si="29"/>
+      <c r="M33" s="2">
+        <f t="shared" si="30"/>
         <v>2.7916461570916252E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -7120,43 +7916,47 @@
         <v>12</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34" si="30">C17/C18</f>
+        <f t="shared" ref="C34:D34" si="31">C17/C18</f>
+        <v>3.2762071678234632E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="31"/>
         <v>3.1990473499374319E-3</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" ref="D34:L34" si="31">D17/D18</f>
+      <c r="E34" s="2">
+        <f t="shared" ref="E34:M34" si="32">E17/E18</f>
         <v>3.3311593839361864E-3</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" si="31"/>
+      <c r="F34" s="2">
+        <f t="shared" si="32"/>
         <v>3.5006890724179904E-3</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="31"/>
+      <c r="G34" s="2">
+        <f t="shared" si="32"/>
         <v>3.3260298849213401E-3</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" si="31"/>
+      <c r="H34" s="2">
+        <f t="shared" si="32"/>
         <v>3.0961701949012901E-3</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" si="31"/>
+      <c r="I34" s="2">
+        <f t="shared" si="32"/>
         <v>3.0624636992449441E-3</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="31"/>
+      <c r="J34" s="2">
+        <f t="shared" si="32"/>
         <v>3.3393448146019542E-3</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" si="31"/>
+      <c r="K34" s="2">
+        <f t="shared" si="32"/>
         <v>3.2843166438451311E-3</v>
       </c>
-      <c r="K34" s="2">
-        <f t="shared" si="31"/>
+      <c r="L34" s="2">
+        <f t="shared" si="32"/>
         <v>2.9445935659629021E-3</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" si="31"/>
+      <c r="M34" s="2">
+        <f t="shared" si="32"/>
         <v>3.073924879705064E-3</v>
       </c>
     </row>
@@ -7172,610 +7972,658 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:K17"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="12.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="12.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>0.10225254602919781</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>0.10304901970646521</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>0.10335366455458835</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>0.10552167843911041</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>0.10504250488410159</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>0.10345032600725342</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>0.10110932507789089</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>0.10136813428949161</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>0.10167056767155214</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
+        <v>41447</v>
+      </c>
+      <c r="C2" s="1">
         <v>41440</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>41433</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>41426</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>41419</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>41412</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>41405</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>41398</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>41384</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>41377</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>0.1767757739914958</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.17189076817502927</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>0.17037074198565194</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.17080948405073987</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.17128560431100848</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0.17330156697698337</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.1743281060246053</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.17335856834261479</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0.17442598876783552</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0.17549377028163934</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
+        <v>0.1767757739914958</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.17189076817502927</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.17037074198565194</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.17080948405073987</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.17128560431100848</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0.17330156697698337</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.1743281060246053</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.17335856834261479</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0.17442598876783552</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>0.17549377028163934</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
+        <v>6.1740074287250672E-3</v>
+      </c>
+      <c r="C5" s="2">
         <v>6.0347959472005809E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>6.531881804043546E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>7.0013781448359808E-3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>6.4546692722212357E-3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>6.7066195069217767E-3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>7.0647869475685098E-3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>6.2526011217027685E-3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>7.0449088130817008E-3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>7.0710308080605749E-3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>6.851035189408018E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
+        <v>0.1757500921122076</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.17942921729302064</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>0.1802538503988361</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.17874639117182547</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.17971417855944416</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0.18138309596028507</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.18064311737684144</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.17594482649279614</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0.17704550415748843</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>0.17588437963222628</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>0.17436989562719118</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
+        <v>0.11193873791338466</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.11340976062648851</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>0.11327948627903477</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.11349073021557404</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.11260140936815302</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>0.11038109132127751</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.11061830086065789</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.11232882141937019</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0.1122323430771368</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>0.11233524297904732</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>0.1131123991682321</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2">
+        <v>5.7298772169167803E-2</v>
+      </c>
+      <c r="C8" s="2">
         <v>5.8410366124409641E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>5.7532734661114734E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>5.7670834632679135E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>5.7638025305461797E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>5.6087910242550824E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>5.578964042452083E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>5.7204859390792527E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>5.6815701216487074E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>5.6448058971996312E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>5.7420113112399168E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
+        <v>9.7589149679847844E-4</v>
+      </c>
+      <c r="C9" s="2">
         <v>1.0192548338917369E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>9.7326042241509053E-4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>8.8523171946202055E-4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>8.4877913977221141E-4</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>6.9270248428300043E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>7.3921537567981418E-4</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>7.3326859430428669E-4</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>7.1441328808715841E-4</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>7.211249549296903E-4</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>7.4336745456919846E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
+        <v>4.2222244351281107E-3</v>
+      </c>
+      <c r="C10" s="2">
         <v>3.9559197513421868E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>4.1940500677268852E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>4.134434507941937E-3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>4.0761137758828286E-3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>3.1591431480179261E-3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>3.2947885316014572E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>4.092431479022573E-3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>3.929273084479371E-3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>3.9361403789912267E-3</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>3.9077018895597058E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
+        <v>8.593820017725377E-3</v>
+      </c>
+      <c r="C11" s="2">
         <v>9.0017357607072215E-3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>8.6389404505092058E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>8.5907714593246084E-3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>8.3496180493871017E-3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>7.4308084677630962E-3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>7.6984001267226361E-3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>8.9676767276402631E-3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>9.0194677621003756E-3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>9.384640038459997E-3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>9.2418656514008466E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
+        <v>4.7509982971689187E-2</v>
+      </c>
+      <c r="C12" s="2">
         <v>4.8328825737698297E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>5.0438970551347009E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>5.0136305565894435E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>5.0018752097274036E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>5.1795253938433441E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>5.134378795078938E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>4.9465903010364853E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>4.9244904844118989E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>4.9557309402668163E-2</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>4.939375370428039E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
+        <v>3.4534609294868603E-2</v>
+      </c>
+      <c r="C13" s="2">
         <v>3.4503289872038108E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>3.4766467666683391E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>3.5006890724179902E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>3.4898639979471388E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>3.3638052456469947E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>3.4415755847721635E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>3.7257971818704293E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>3.6752594709372706E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>3.675734145266616E-2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>3.6555596853747478E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2">
+        <v>4.1545095149420938E-2</v>
+      </c>
+      <c r="C14" s="2">
         <v>4.337383441650184E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>4.3515777855816985E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>4.3487008218571759E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>4.3198910404453131E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>4.1520167088235603E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>4.0350599292465282E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>4.1271131017261542E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>4.1257367387033402E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>4.0543247466047032E-2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>4.0845027976734609E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2">
+        <v>2.4805568556377649E-2</v>
+      </c>
+      <c r="C15" s="2">
         <v>2.5420821055181043E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>2.6207796116991922E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>2.5742136023901255E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>2.5966719962101023E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>2.394021767650794E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>2.333808543217699E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>2.4514952733902771E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>2.4587723998333037E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>2.3887264132045991E-2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>2.4852582197354013E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
+        <v>2.7633662281793647E-2</v>
+      </c>
+      <c r="C16" s="2">
         <v>2.793363742784483E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>2.7341594341042493E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>2.693921073544649E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>2.6983281024851462E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>2.8043955121275412E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>2.7942341200696975E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>2.8458748687052855E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>2.8110178404873887E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>2.8173951364128039E-2</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>2.7916461570916252E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
+        <v>3.2762071678234632E-3</v>
+      </c>
+      <c r="C17" s="2">
         <v>3.1990473499374319E-3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>3.3311593839361864E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>3.5006890724179904E-3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>3.3260298849213401E-3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>3.0961701949012901E-3</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>3.0624636992449441E-3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>3.3393448146019542E-3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>3.2843166438451311E-3</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>2.9445935659629021E-3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>3.073924879705064E-3</v>
       </c>
     </row>
@@ -7787,10 +8635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7847,505 +8695,558 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41440</v>
+        <v>41447</v>
       </c>
       <c r="B2" s="2">
-        <v>0.17189076817502927</v>
+        <v>0.1767757739914958</v>
       </c>
       <c r="C2" s="2">
-        <v>0.17189076817502927</v>
+        <v>0.1767757739914958</v>
       </c>
       <c r="D2" s="2">
-        <v>6.0347959472005809E-3</v>
+        <v>6.1740074287250672E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>0.17942921729302064</v>
+        <v>0.1757500921122076</v>
       </c>
       <c r="F2" s="2">
-        <v>0.11340976062648851</v>
+        <v>0.11193873791338466</v>
       </c>
       <c r="G2" s="2">
-        <v>5.8410366124409641E-2</v>
+        <v>5.7298772169167803E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>1.0192548338917369E-3</v>
+        <v>9.7589149679847844E-4</v>
       </c>
       <c r="I2" s="2">
-        <v>3.9559197513421868E-3</v>
+        <v>4.2222244351281107E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>9.0017357607072215E-3</v>
+        <v>8.593820017725377E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>4.8328825737698297E-2</v>
+        <v>4.7509982971689187E-2</v>
       </c>
       <c r="L2" s="2">
-        <v>3.4503289872038108E-2</v>
+        <v>3.4534609294868603E-2</v>
       </c>
       <c r="M2" s="2">
-        <v>4.337383441650184E-2</v>
+        <v>4.1545095149420938E-2</v>
       </c>
       <c r="N2" s="2">
-        <v>2.5420821055181043E-2</v>
+        <v>2.4805568556377649E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>2.793363742784483E-2</v>
+        <v>2.7633662281793647E-2</v>
       </c>
       <c r="P2" s="2">
-        <v>3.1990473499374319E-3</v>
+        <v>3.2762071678234632E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41433</v>
+        <v>41440</v>
       </c>
       <c r="B3" s="2">
-        <v>0.17037074198565194</v>
+        <v>0.17189076817502927</v>
       </c>
       <c r="C3" s="2">
-        <v>0.17037074198565194</v>
+        <v>0.17189076817502927</v>
       </c>
       <c r="D3" s="2">
-        <v>6.531881804043546E-3</v>
+        <v>6.0347959472005809E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>0.1802538503988361</v>
+        <v>0.17942921729302064</v>
       </c>
       <c r="F3" s="2">
-        <v>0.11327948627903477</v>
+        <v>0.11340976062648851</v>
       </c>
       <c r="G3" s="2">
-        <v>5.7532734661114734E-2</v>
+        <v>5.8410366124409641E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>9.7326042241509053E-4</v>
+        <v>1.0192548338917369E-3</v>
       </c>
       <c r="I3" s="2">
-        <v>4.1940500677268852E-3</v>
+        <v>3.9559197513421868E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>8.6389404505092058E-3</v>
+        <v>9.0017357607072215E-3</v>
       </c>
       <c r="K3" s="2">
-        <v>5.0438970551347009E-2</v>
+        <v>4.8328825737698297E-2</v>
       </c>
       <c r="L3" s="2">
-        <v>3.4766467666683391E-2</v>
+        <v>3.4503289872038108E-2</v>
       </c>
       <c r="M3" s="2">
-        <v>4.3515777855816985E-2</v>
+        <v>4.337383441650184E-2</v>
       </c>
       <c r="N3" s="2">
-        <v>2.6207796116991922E-2</v>
+        <v>2.5420821055181043E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>2.7341594341042493E-2</v>
+        <v>2.793363742784483E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>3.3311593839361864E-3</v>
+        <v>3.1990473499374319E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41426</v>
+        <v>41433</v>
       </c>
       <c r="B4" s="2">
-        <v>0.17080948405073987</v>
+        <v>0.17037074198565194</v>
       </c>
       <c r="C4" s="2">
-        <v>0.17080948405073987</v>
+        <v>0.17037074198565194</v>
       </c>
       <c r="D4" s="2">
-        <v>7.0013781448359808E-3</v>
+        <v>6.531881804043546E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>0.17874639117182547</v>
+        <v>0.1802538503988361</v>
       </c>
       <c r="F4" s="2">
-        <v>0.11349073021557404</v>
+        <v>0.11327948627903477</v>
       </c>
       <c r="G4" s="2">
-        <v>5.7670834632679135E-2</v>
+        <v>5.7532734661114734E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>8.8523171946202055E-4</v>
+        <v>9.7326042241509053E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>4.134434507941937E-3</v>
+        <v>4.1940500677268852E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>8.5907714593246084E-3</v>
+        <v>8.6389404505092058E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>5.0136305565894435E-2</v>
+        <v>5.0438970551347009E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>3.5006890724179902E-2</v>
+        <v>3.4766467666683391E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>4.3487008218571759E-2</v>
+        <v>4.3515777855816985E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>2.5742136023901255E-2</v>
+        <v>2.6207796116991922E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>2.693921073544649E-2</v>
+        <v>2.7341594341042493E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>3.5006890724179904E-3</v>
+        <v>3.3311593839361864E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41419</v>
+        <v>41426</v>
       </c>
       <c r="B5" s="2">
-        <v>0.17128560431100848</v>
+        <v>0.17080948405073987</v>
       </c>
       <c r="C5" s="2">
-        <v>0.17128560431100848</v>
+        <v>0.17080948405073987</v>
       </c>
       <c r="D5" s="2">
-        <v>6.4546692722212357E-3</v>
+        <v>7.0013781448359808E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.17971417855944416</v>
+        <v>0.17874639117182547</v>
       </c>
       <c r="F5" s="2">
-        <v>0.11260140936815302</v>
+        <v>0.11349073021557404</v>
       </c>
       <c r="G5" s="2">
-        <v>5.7638025305461797E-2</v>
+        <v>5.7670834632679135E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>8.4877913977221141E-4</v>
+        <v>8.8523171946202055E-4</v>
       </c>
       <c r="I5" s="2">
-        <v>4.0761137758828286E-3</v>
+        <v>4.134434507941937E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>8.3496180493871017E-3</v>
+        <v>8.5907714593246084E-3</v>
       </c>
       <c r="K5" s="2">
-        <v>5.0018752097274036E-2</v>
+        <v>5.0136305565894435E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>3.4898639979471388E-2</v>
+        <v>3.5006890724179902E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>4.3198910404453131E-2</v>
+        <v>4.3487008218571759E-2</v>
       </c>
       <c r="N5" s="2">
-        <v>2.5966719962101023E-2</v>
+        <v>2.5742136023901255E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>2.6983281024851462E-2</v>
+        <v>2.693921073544649E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>3.3260298849213401E-3</v>
+        <v>3.5006890724179904E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41412</v>
+        <v>41419</v>
       </c>
       <c r="B6" s="2">
-        <v>0.17330156697698337</v>
+        <v>0.17128560431100848</v>
       </c>
       <c r="C6" s="2">
-        <v>0.17330156697698337</v>
+        <v>0.17128560431100848</v>
       </c>
       <c r="D6" s="2">
-        <v>6.7066195069217767E-3</v>
+        <v>6.4546692722212357E-3</v>
       </c>
       <c r="E6" s="2">
-        <v>0.18138309596028507</v>
+        <v>0.17971417855944416</v>
       </c>
       <c r="F6" s="2">
-        <v>0.11038109132127751</v>
+        <v>0.11260140936815302</v>
       </c>
       <c r="G6" s="2">
-        <v>5.6087910242550824E-2</v>
+        <v>5.7638025305461797E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>6.9270248428300043E-4</v>
+        <v>8.4877913977221141E-4</v>
       </c>
       <c r="I6" s="2">
-        <v>3.1591431480179261E-3</v>
+        <v>4.0761137758828286E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>7.4308084677630962E-3</v>
+        <v>8.3496180493871017E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>5.1795253938433441E-2</v>
+        <v>5.0018752097274036E-2</v>
       </c>
       <c r="L6" s="2">
-        <v>3.3638052456469947E-2</v>
+        <v>3.4898639979471388E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>4.1520167088235603E-2</v>
+        <v>4.3198910404453131E-2</v>
       </c>
       <c r="N6" s="2">
-        <v>2.394021767650794E-2</v>
+        <v>2.5966719962101023E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>2.8043955121275412E-2</v>
+        <v>2.6983281024851462E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>3.0961701949012901E-3</v>
+        <v>3.3260298849213401E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41405</v>
+        <v>41412</v>
       </c>
       <c r="B7" s="2">
-        <v>0.1743281060246053</v>
+        <v>0.17330156697698337</v>
       </c>
       <c r="C7" s="2">
-        <v>0.1743281060246053</v>
+        <v>0.17330156697698337</v>
       </c>
       <c r="D7" s="2">
-        <v>7.0647869475685098E-3</v>
+        <v>6.7066195069217767E-3</v>
       </c>
       <c r="E7" s="2">
-        <v>0.18064311737684144</v>
+        <v>0.18138309596028507</v>
       </c>
       <c r="F7" s="2">
-        <v>0.11061830086065789</v>
+        <v>0.11038109132127751</v>
       </c>
       <c r="G7" s="2">
-        <v>5.578964042452083E-2</v>
+        <v>5.6087910242550824E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>7.3921537567981418E-4</v>
+        <v>6.9270248428300043E-4</v>
       </c>
       <c r="I7" s="2">
-        <v>3.2947885316014572E-3</v>
+        <v>3.1591431480179261E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>7.6984001267226361E-3</v>
+        <v>7.4308084677630962E-3</v>
       </c>
       <c r="K7" s="2">
-        <v>5.134378795078938E-2</v>
+        <v>5.1795253938433441E-2</v>
       </c>
       <c r="L7" s="2">
-        <v>3.4415755847721635E-2</v>
+        <v>3.3638052456469947E-2</v>
       </c>
       <c r="M7" s="2">
-        <v>4.0350599292465282E-2</v>
+        <v>4.1520167088235603E-2</v>
       </c>
       <c r="N7" s="2">
-        <v>2.333808543217699E-2</v>
+        <v>2.394021767650794E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>2.7942341200696975E-2</v>
+        <v>2.8043955121275412E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>3.0624636992449441E-3</v>
+        <v>3.0961701949012901E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41398</v>
+        <v>41405</v>
       </c>
       <c r="B8" s="2">
-        <v>0.17335856834261479</v>
+        <v>0.1743281060246053</v>
       </c>
       <c r="C8" s="2">
-        <v>0.17335856834261479</v>
+        <v>0.1743281060246053</v>
       </c>
       <c r="D8" s="2">
-        <v>6.2526011217027685E-3</v>
+        <v>7.0647869475685098E-3</v>
       </c>
       <c r="E8" s="2">
-        <v>0.17594482649279614</v>
+        <v>0.18064311737684144</v>
       </c>
       <c r="F8" s="2">
-        <v>0.11232882141937019</v>
+        <v>0.11061830086065789</v>
       </c>
       <c r="G8" s="2">
-        <v>5.7204859390792527E-2</v>
+        <v>5.578964042452083E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>7.3326859430428669E-4</v>
+        <v>7.3921537567981418E-4</v>
       </c>
       <c r="I8" s="2">
-        <v>4.092431479022573E-3</v>
+        <v>3.2947885316014572E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>8.9676767276402631E-3</v>
+        <v>7.6984001267226361E-3</v>
       </c>
       <c r="K8" s="2">
-        <v>4.9465903010364853E-2</v>
+        <v>5.134378795078938E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>3.7257971818704293E-2</v>
+        <v>3.4415755847721635E-2</v>
       </c>
       <c r="M8" s="2">
-        <v>4.1271131017261542E-2</v>
+        <v>4.0350599292465282E-2</v>
       </c>
       <c r="N8" s="2">
-        <v>2.4514952733902771E-2</v>
+        <v>2.333808543217699E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>2.8458748687052855E-2</v>
+        <v>2.7942341200696975E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>3.3393448146019542E-3</v>
+        <v>3.0624636992449441E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41391</v>
+        <v>41398</v>
       </c>
       <c r="B9" s="2">
-        <v>0.17442598876783552</v>
+        <v>0.17335856834261479</v>
       </c>
       <c r="C9" s="2">
-        <v>0.17442598876783552</v>
+        <v>0.17335856834261479</v>
       </c>
       <c r="D9" s="2">
-        <v>7.0449088130817008E-3</v>
+        <v>6.2526011217027685E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>0.17704550415748843</v>
+        <v>0.17594482649279614</v>
       </c>
       <c r="F9" s="2">
-        <v>0.1122323430771368</v>
+        <v>0.11232882141937019</v>
       </c>
       <c r="G9" s="2">
-        <v>5.6815701216487074E-2</v>
+        <v>5.7204859390792527E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>7.1441328808715841E-4</v>
+        <v>7.3326859430428669E-4</v>
       </c>
       <c r="I9" s="2">
-        <v>3.929273084479371E-3</v>
+        <v>4.092431479022573E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>9.0194677621003756E-3</v>
+        <v>8.9676767276402631E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>4.9244904844118989E-2</v>
+        <v>4.9465903010364853E-2</v>
       </c>
       <c r="L9" s="2">
-        <v>3.6752594709372706E-2</v>
+        <v>3.7257971818704293E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>4.1257367387033402E-2</v>
+        <v>4.1271131017261542E-2</v>
       </c>
       <c r="N9" s="2">
-        <v>2.4587723998333037E-2</v>
+        <v>2.4514952733902771E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>2.8110178404873887E-2</v>
+        <v>2.8458748687052855E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>3.2843166438451311E-3</v>
+        <v>3.3393448146019542E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41384</v>
+        <v>41391</v>
       </c>
       <c r="B10" s="2">
-        <v>0.17549377028163934</v>
+        <v>0.17442598876783552</v>
       </c>
       <c r="C10" s="2">
-        <v>0.17549377028163934</v>
+        <v>0.17442598876783552</v>
       </c>
       <c r="D10" s="2">
-        <v>7.0710308080605749E-3</v>
+        <v>7.0449088130817008E-3</v>
       </c>
       <c r="E10" s="2">
-        <v>0.17588437963222628</v>
+        <v>0.17704550415748843</v>
       </c>
       <c r="F10" s="2">
-        <v>0.11233524297904732</v>
+        <v>0.1122323430771368</v>
       </c>
       <c r="G10" s="2">
-        <v>5.6448058971996312E-2</v>
+        <v>5.6815701216487074E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>7.211249549296903E-4</v>
+        <v>7.1441328808715841E-4</v>
       </c>
       <c r="I10" s="2">
-        <v>3.9361403789912267E-3</v>
+        <v>3.929273084479371E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>9.384640038459997E-3</v>
+        <v>9.0194677621003756E-3</v>
       </c>
       <c r="K10" s="2">
-        <v>4.9557309402668163E-2</v>
+        <v>4.9244904844118989E-2</v>
       </c>
       <c r="L10" s="2">
-        <v>3.675734145266616E-2</v>
+        <v>3.6752594709372706E-2</v>
       </c>
       <c r="M10" s="2">
-        <v>4.0543247466047032E-2</v>
+        <v>4.1257367387033402E-2</v>
       </c>
       <c r="N10" s="2">
-        <v>2.3887264132045991E-2</v>
+        <v>2.4587723998333037E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>2.8173951364128039E-2</v>
+        <v>2.8110178404873887E-2</v>
       </c>
       <c r="P10" s="2">
-        <v>2.9445935659629021E-3</v>
+        <v>3.2843166438451311E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>41384</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.0710308080605749E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.17588437963222628</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.11233524297904732</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.6448058971996312E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7.211249549296903E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.9361403789912267E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.384640038459997E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4.9557309402668163E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.675734145266616E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4.0543247466047032E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2.3887264132045991E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2.8173951364128039E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2.9445935659629021E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>41377</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.17502285352647493</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>0.17502285352647493</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>6.851035189408018E-3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>0.17436989562719118</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>0.1131123991682321</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>5.7420113112399168E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>7.4336745456919846E-4</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="2">
         <v>3.9077018895597058E-3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <v>9.2418656514008466E-3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="2">
         <v>4.939375370428039E-2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L12" s="2">
         <v>3.6555596853747478E-2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M12" s="2">
         <v>4.0845027976734609E-2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N12" s="2">
         <v>2.4852582197354013E-2</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O12" s="2">
         <v>2.7916461570916252E-2</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P12" s="2">
         <v>3.073924879705064E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:P12">
+    <sortCondition descending="1" ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8356,7 +9257,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+      <selection activeCell="B16" sqref="B1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8366,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>10127</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8374,7 +9275,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>17033</v>
+        <v>17752</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8382,7 +9283,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>17033</v>
+        <v>17752</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +9291,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>598</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8398,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17780</v>
+        <v>17649</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8406,7 +9307,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11238</v>
+        <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8414,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5788</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8422,7 +9323,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8430,7 +9331,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>392</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8438,7 +9339,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>892</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8446,7 +9347,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>4789</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8454,7 +9355,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3419</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8462,7 +9363,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>4298</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8470,7 +9371,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>2519</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8478,7 +9379,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2768</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8486,7 +9387,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/1_5K_Limits.xlsx
+++ b/1_5K_Limits.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DiceLimiter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DiceLimiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,11 +231,96 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="11"/>
+          <c:idx val="12"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6/29/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2485</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2847</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -258,7 +343,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -316,10 +401,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,7 +427,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -400,10 +485,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -426,7 +511,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -484,10 +569,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +595,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -568,10 +653,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -594,7 +679,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -652,10 +737,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -678,7 +763,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -736,10 +821,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -760,7 +845,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -818,10 +903,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -842,7 +927,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -900,10 +985,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="9"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -924,7 +1009,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:f>Sheet1!$L$2:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -982,10 +1067,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="10"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Sheet1!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,7 +1147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$17</c:f>
+              <c:f>Sheet1!$M$2:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1120,10 +1205,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="11"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1200,7 +1285,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$17</c:f>
+              <c:f>Sheet1!$N$2:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1265,8 +1350,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1161202384"/>
-        <c:axId val="-1161201296"/>
+        <c:axId val="959024256"/>
+        <c:axId val="959024800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1422,11 +1507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1161202384"/>
-        <c:axId val="-1161201296"/>
+        <c:axId val="959024256"/>
+        <c:axId val="959024800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1161202384"/>
+        <c:axId val="959024256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1161201296"/>
+        <c:crossAx val="959024800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1477,7 +1562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1161201296"/>
+        <c:axId val="959024800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1161202384"/>
+        <c:crossAx val="959024256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1961,29 +2046,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0655283335403246E-2"/>
-                  <c:y val="3.271982375608619E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.2792026882388138E-2"/>
-                  <c:y val="8.8343524141433052E-2"/>
+                  <c:x val="6.8376080647164258E-2"/>
+                  <c:y val="4.2535770882912209E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2003,8 +2067,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8888904841313648E-2"/>
-                  <c:y val="6.8711629887781248E-2"/>
+                  <c:x val="-0.11623933710017939"/>
+                  <c:y val="2.617585900486907E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2024,8 +2088,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4188040323582178E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="-0.12079774247665702"/>
+                  <c:y val="-6.2167665136564042E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2045,50 +2109,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8376080647164356E-2"/>
-                  <c:y val="-8.5071541765824474E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.2051296776597213E-2"/>
-                  <c:y val="-1.6359911878043171E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.507122957062697E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="-7.5213688711880777E-2"/>
+                  <c:y val="-0.13742325977556266"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2108,8 +2130,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0512824194149303E-2"/>
-                  <c:y val="3.2719823756086337E-3"/>
+                  <c:x val="1.3675216129432869E-2"/>
+                  <c:y val="-1.499641264836763E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2129,8 +2151,8 @@
               <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.7492891400119598E-2"/>
-                  <c:y val="9.8159471268258868E-3"/>
+                  <c:x val="8.4330499464836034E-2"/>
+                  <c:y val="-1.499641264836763E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2269,52 +2291,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.10218978102189781</c:v>
+                  <c:v>0.10187825744911004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1767757739914958</c:v>
+                  <c:v>0.17692988494443898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1767757739914958</c:v>
+                  <c:v>0.17692988494443898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1740074287250672E-3</c:v>
+                  <c:v>6.4018094207886718E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1757500921122076</c:v>
+                  <c:v>0.1761235126364441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11193873791338466</c:v>
+                  <c:v>0.11198741272494837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7298772169167803E-2</c:v>
+                  <c:v>5.6868915330907661E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7589149679847844E-4</c:v>
+                  <c:v>1.052217523846986E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2222244351281107E-3</c:v>
+                  <c:v>4.3760448421673714E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.593820017725377E-3</c:v>
+                  <c:v>8.4472416166781403E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7509982971689187E-2</c:v>
+                  <c:v>4.7349788573114365E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4534609294868603E-2</c:v>
+                  <c:v>3.4556003540171111E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1545095149420938E-2</c:v>
+                  <c:v>4.1370832923591304E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4805568556377649E-2</c:v>
+                  <c:v>2.4437014455698691E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7633662281793647E-2</c:v>
+                  <c:v>2.7996853181237093E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2762071678234632E-3</c:v>
+                  <c:v>3.2943258924181336E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,41 +2506,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2526,39 +2551,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$B$11</c:f>
+              <c:f>Sheet6!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0.17692988494443898</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1767757739914958</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17189076817502927</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17037074198565194</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17080948405073987</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17128560431100848</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.17330156697698337</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.1743281060246053</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17335856834261479</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17442598876783552</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.17549377028163934</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17502285352647493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,41 +2624,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2635,41 +2669,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$2:$C$12</c:f>
+              <c:f>Sheet6!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0.17692988494443898</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1767757739914958</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17189076817502927</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17037074198565194</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17080948405073987</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17128560431100848</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.17330156697698337</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.1743281060246053</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17335856834261479</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17442598876783552</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.17549377028163934</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.17502285352647493</c:v>
                 </c:pt>
               </c:numCache>
@@ -2705,41 +2742,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2747,41 +2787,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$D$2:$D$12</c:f>
+              <c:f>Sheet6!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>6.4018094207886718E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.1740074287250672E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.0347959472005809E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.531881804043546E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7.0013781448359808E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.4546692722212357E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.7066195069217767E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.0647869475685098E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>6.2526011217027685E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7.0449088130817008E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7.0710308080605749E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6.851035189408018E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2817,41 +2860,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2859,41 +2905,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$E$2:$E$12</c:f>
+              <c:f>Sheet6!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0.1761235126364441</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1757500921122076</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17942921729302064</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.1802538503988361</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17874639117182547</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17971417855944416</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.18138309596028507</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.18064311737684144</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.17594482649279614</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17704550415748843</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.17588437963222628</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.17436989562719118</c:v>
                 </c:pt>
               </c:numCache>
@@ -2929,41 +2978,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2971,41 +3023,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$F$2:$F$12</c:f>
+              <c:f>Sheet6!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0.11198741272494837</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.11193873791338466</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.11340976062648851</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.11327948627903477</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.11349073021557404</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.11260140936815302</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.11038109132127751</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.11061830086065789</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.11232882141937019</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.1122323430771368</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.11233524297904732</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.1131123991682321</c:v>
                 </c:pt>
               </c:numCache>
@@ -3041,41 +3096,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3083,41 +3141,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$G$2:$G$12</c:f>
+              <c:f>Sheet6!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>5.6868915330907661E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5.7298772169167803E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.8410366124409641E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.7532734661114734E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.7670834632679135E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.7638025305461797E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.6087910242550824E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.578964042452083E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5.7204859390792527E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5.6815701216487074E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5.6448058971996312E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>5.7420113112399168E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3155,41 +3216,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3197,41 +3261,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$H$2:$H$12</c:f>
+              <c:f>Sheet6!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>1.052217523846986E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.7589149679847844E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.0192548338917369E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>9.7326042241509053E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.8523171946202055E-4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8.4877913977221141E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.9270248428300043E-4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.3921537567981418E-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.3326859430428669E-4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7.1441328808715841E-4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7.211249549296903E-4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>7.4336745456919846E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3269,41 +3336,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3311,41 +3381,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$I$2:$I$12</c:f>
+              <c:f>Sheet6!$I$2:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4.3760448421673714E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.2222244351281107E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.9559197513421868E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.1940500677268852E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.134434507941937E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.0761137758828286E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.1591431480179261E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.2947885316014572E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.092431479022573E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.929273084479371E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.9361403789912267E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3.9077018895597058E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3383,41 +3456,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3425,41 +3501,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$J$2:$J$12</c:f>
+              <c:f>Sheet6!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>8.4472416166781403E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.593820017725377E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9.0017357607072215E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.6389404505092058E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.5907714593246084E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8.3496180493871017E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.4308084677630962E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.6984001267226361E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8.9676767276402631E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9.0194677621003756E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9.384640038459997E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>9.2418656514008466E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3497,41 +3576,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3539,41 +3621,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$K$2:$K$12</c:f>
+              <c:f>Sheet6!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4.7349788573114365E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.7509982971689187E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.8328825737698297E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.0438970551347009E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.0136305565894435E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.0018752097274036E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.1795253938433441E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.134378795078938E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.9465903010364853E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.9244904844118989E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4.9557309402668163E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>4.939375370428039E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3611,41 +3696,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3653,41 +3741,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$L$2:$L$12</c:f>
+              <c:f>Sheet6!$L$2:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>3.4556003540171111E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.4534609294868603E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.4503289872038108E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.4766467666683391E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.5006890724179902E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.4898639979471388E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.3638052456469947E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.4415755847721635E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.7257971818704293E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.6752594709372706E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.675734145266616E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3.6555596853747478E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3725,41 +3816,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3767,41 +3861,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$M$2:$M$12</c:f>
+              <c:f>Sheet6!$M$2:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4.1370832923591304E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.1545095149420938E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.337383441650184E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.3515777855816985E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.3487008218571759E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.3198910404453131E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.1520167088235603E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.0350599292465282E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.1271131017261542E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.1257367387033402E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4.0543247466047032E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>4.0845027976734609E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3840,41 +3937,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3882,41 +3982,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$N$2:$N$12</c:f>
+              <c:f>Sheet6!$N$2:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2.4437014455698691E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.4805568556377649E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.5420821055181043E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.6207796116991922E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.5742136023901255E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.5966719962101023E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.394021767650794E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.333808543217699E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.4514952733902771E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.4587723998333037E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.3887264132045991E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.4852582197354013E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3955,41 +4058,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3997,41 +4103,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$O$2:$O$12</c:f>
+              <c:f>Sheet6!$O$2:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2.7996853181237093E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.7633662281793647E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.793363742784483E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.7341594341042493E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.693921073544649E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.6983281024851462E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.8043955121275412E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.7942341200696975E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.8458748687052855E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.8110178404873887E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.8173951364128039E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.7916461570916252E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4070,41 +4179,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>41454</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -4112,41 +4224,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$P$2:$P$12</c:f>
+              <c:f>Sheet6!$P$2:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>3.2943258924181336E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.2762071678234632E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.1990473499374319E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.3311593839361864E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.5006890724179904E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.3260298849213401E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.0961701949012901E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.0624636992449441E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.3393448146019542E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.2843166438451311E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.9445935659629021E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3.073924879705064E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -4163,11 +4278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1330020160"/>
-        <c:axId val="-1330019072"/>
+        <c:axId val="1435730736"/>
+        <c:axId val="1435736176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1330020160"/>
+        <c:axId val="1435730736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,14 +4325,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1330019072"/>
+        <c:crossAx val="1435736176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1330019072"/>
+        <c:axId val="1435736176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,7 +4383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1330020160"/>
+        <c:crossAx val="1435730736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6011,16 +6126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>101599</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>644524</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6041,16 +6156,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6077,15 +6192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123823</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6370,10 +6485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,7 +6497,7 @@
     <col min="12" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6390,40 +6505,43 @@
         <v>17</v>
       </c>
       <c r="C1" s="1">
+        <v>41454</v>
+      </c>
+      <c r="D1" s="1">
         <v>41447</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>41440</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>41433</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>41426</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>41419</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>41412</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>41405</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>41398</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>41391</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>41384</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>41377</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6431,40 +6549,43 @@
         <v>1500</v>
       </c>
       <c r="C2">
+        <v>10360</v>
+      </c>
+      <c r="D2">
         <v>10262</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10127</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10191</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10244</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10472</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10054</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>9947</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10440</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10190</v>
-      </c>
-      <c r="L2">
-        <v>10121</v>
       </c>
       <c r="M2">
         <v>10121</v>
       </c>
+      <c r="N2">
+        <v>10121</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6472,40 +6593,43 @@
         <v>1500</v>
       </c>
       <c r="C3">
+        <v>17992</v>
+      </c>
+      <c r="D3">
         <v>17752</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>17033</v>
-      </c>
-      <c r="E3">
-        <v>16980</v>
       </c>
       <c r="F3">
         <v>16980</v>
       </c>
       <c r="G3">
+        <v>16980</v>
+      </c>
+      <c r="H3">
         <v>17355</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>16512</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>16508</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>17495</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>17579</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>17522</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>17423</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6513,40 +6637,43 @@
         <v>1500</v>
       </c>
       <c r="C4">
+        <v>17992</v>
+      </c>
+      <c r="D4">
         <v>17752</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>17033</v>
-      </c>
-      <c r="E4">
-        <v>16980</v>
       </c>
       <c r="F4">
         <v>16980</v>
       </c>
       <c r="G4">
+        <v>16980</v>
+      </c>
+      <c r="H4">
         <v>17355</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>16512</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16508</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>17495</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>17579</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17522</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>17423</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6554,40 +6681,43 @@
         <v>1500</v>
       </c>
       <c r="C5">
+        <v>651</v>
+      </c>
+      <c r="D5">
         <v>620</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>598</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>651</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>696</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>654</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>639</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>669</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>631</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>710</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>706</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6595,40 +6725,43 @@
         <v>1500</v>
       </c>
       <c r="C6">
+        <v>17910</v>
+      </c>
+      <c r="D6">
         <v>17649</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>17780</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>17965</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>17769</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>18209</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>17282</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17106</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17756</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>17843</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>17561</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>17358</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6636,40 +6769,43 @@
         <v>1500</v>
       </c>
       <c r="C7">
+        <v>11388</v>
+      </c>
+      <c r="D7">
         <v>11241</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>11238</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11290</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>11282</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11409</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10517</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>10475</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11336</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11311</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>11216</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>11260</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6677,40 +6813,43 @@
         <v>1500</v>
       </c>
       <c r="C8">
+        <v>5783</v>
+      </c>
+      <c r="D8">
         <v>5754</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5788</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5734</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5733</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5840</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5344</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5283</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5773</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5726</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5636</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5716</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6718,40 +6857,43 @@
         <v>1500</v>
       </c>
       <c r="C9">
+        <v>107</v>
+      </c>
+      <c r="D9">
         <v>98</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>101</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>97</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>88</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>86</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>66</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>70</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>74</v>
-      </c>
-      <c r="K9">
-        <v>72</v>
       </c>
       <c r="L9">
         <v>72</v>
       </c>
       <c r="M9">
+        <v>72</v>
+      </c>
+      <c r="N9">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6759,40 +6901,43 @@
         <v>1500</v>
       </c>
       <c r="C10">
+        <v>445</v>
+      </c>
+      <c r="D10">
         <v>424</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>392</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>418</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>411</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>413</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>301</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>312</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>413</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>396</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>393</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6800,40 +6945,43 @@
         <v>1500</v>
       </c>
       <c r="C11">
+        <v>859</v>
+      </c>
+      <c r="D11">
         <v>863</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>892</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>861</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>854</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>846</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>708</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>729</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>905</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>909</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>937</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>920</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6841,40 +6989,43 @@
         <v>1500</v>
       </c>
       <c r="C12">
+        <v>4815</v>
+      </c>
+      <c r="D12">
         <v>4771</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4789</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5027</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4984</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5068</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4935</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4862</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4992</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4963</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4948</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4917</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6882,40 +7033,43 @@
         <v>1500</v>
       </c>
       <c r="C13">
+        <v>3514</v>
+      </c>
+      <c r="D13">
         <v>3468</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3419</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3465</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3480</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3536</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3205</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3259</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3760</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3704</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3670</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3639</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6923,40 +7077,43 @@
         <v>1500</v>
       </c>
       <c r="C14">
+        <v>4207</v>
+      </c>
+      <c r="D14">
         <v>4172</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4298</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4337</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4323</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4377</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3956</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3821</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4165</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4158</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4048</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4066</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6964,40 +7121,43 @@
         <v>1500</v>
       </c>
       <c r="C15">
+        <v>2485</v>
+      </c>
+      <c r="D15">
         <v>2491</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2519</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2612</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2559</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2631</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2281</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2210</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2474</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2478</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2385</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2474</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -7005,40 +7165,43 @@
         <v>1500</v>
       </c>
       <c r="C16">
+        <v>2847</v>
+      </c>
+      <c r="D16">
         <v>2775</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2768</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2725</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2678</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2734</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2672</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2646</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2872</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2833</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2813</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2779</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -7046,89 +7209,96 @@
         <v>1500</v>
       </c>
       <c r="C17">
+        <v>335</v>
+      </c>
+      <c r="D17">
         <v>329</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>317</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>332</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>348</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>337</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>295</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>290</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>337</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>331</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>294</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:M18" si="0">SUM(C2:C17)</f>
+        <f>SUM(C2:C17)</f>
+        <v>101690</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D2:D17)</f>
         <v>100421</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
+      <c r="E18">
+        <f>SUM(E2:E17)</f>
         <v>99092</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
+      <c r="F18">
+        <f>SUM(F2:F17)</f>
         <v>99665</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
+      <c r="G18">
+        <f>SUM(G2:G17)</f>
         <v>99409</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
+      <c r="H18">
+        <f>SUM(H2:H17)</f>
         <v>101322</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
+      <c r="I18">
+        <f>SUM(I2:I17)</f>
         <v>95279</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
+      <c r="J18">
+        <f>SUM(J2:J17)</f>
         <v>94695</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
+      <c r="K18">
+        <f>SUM(K2:K17)</f>
         <v>100918</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
+      <c r="L18">
+        <f>SUM(L2:L17)</f>
         <v>100782</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
+      <c r="M18">
+        <f>SUM(M2:M17)</f>
         <v>99844</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
+      <c r="N18">
+        <f>SUM(N2:N17)</f>
         <v>99547</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -7136,51 +7306,55 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19" si="1">C2/C18</f>
+        <f>C2/C18</f>
+        <v>0.10187825744911004</v>
+      </c>
+      <c r="D19" s="2">
+        <f>D2/D18</f>
         <v>0.10218978102189781</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:M19" si="2">D2/D18</f>
+      <c r="E19" s="2">
+        <f>E2/E18</f>
         <v>0.10219795745367941</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="2"/>
+      <c r="F19" s="2">
+        <f>F2/F18</f>
         <v>0.10225254602919781</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
+      <c r="G19" s="2">
+        <f>G2/G18</f>
         <v>0.10304901970646521</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
+      <c r="H19" s="2">
+        <f>H2/H18</f>
         <v>0.10335366455458835</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="2"/>
+      <c r="I19" s="2">
+        <f>I2/I18</f>
         <v>0.10552167843911041</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="2"/>
+      <c r="J19" s="2">
+        <f>J2/J18</f>
         <v>0.10504250488410159</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="2"/>
+      <c r="K19" s="2">
+        <f>K2/K18</f>
         <v>0.10345032600725342</v>
       </c>
-      <c r="K19" s="2">
-        <f t="shared" si="2"/>
+      <c r="L19" s="2">
+        <f>L2/L18</f>
         <v>0.10110932507789089</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="2"/>
+      <c r="M19" s="2">
+        <f>M2/M18</f>
         <v>0.10136813428949161</v>
       </c>
-      <c r="M19" s="2">
-        <f t="shared" si="2"/>
+      <c r="N19" s="2">
+        <f>N2/N18</f>
         <v>0.10167056767155214</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -7188,51 +7362,55 @@
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:D20" si="3">C3/C18</f>
+        <f>C3/C18</f>
+        <v>0.17692988494443898</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D3/D18</f>
         <v>0.1767757739914958</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="3"/>
+      <c r="E20" s="2">
+        <f>E3/E18</f>
         <v>0.17189076817502927</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20:M20" si="4">E3/E18</f>
+      <c r="F20" s="2">
+        <f>F3/F18</f>
         <v>0.17037074198565194</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="4"/>
+      <c r="G20" s="2">
+        <f>G3/G18</f>
         <v>0.17080948405073987</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="4"/>
+      <c r="H20" s="2">
+        <f>H3/H18</f>
         <v>0.17128560431100848</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="4"/>
+      <c r="I20" s="2">
+        <f>I3/I18</f>
         <v>0.17330156697698337</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="4"/>
+      <c r="J20" s="2">
+        <f>J3/J18</f>
         <v>0.1743281060246053</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="4"/>
+      <c r="K20" s="2">
+        <f>K3/K18</f>
         <v>0.17335856834261479</v>
       </c>
-      <c r="K20" s="2">
-        <f t="shared" si="4"/>
+      <c r="L20" s="2">
+        <f>L3/L18</f>
         <v>0.17442598876783552</v>
       </c>
-      <c r="L20" s="2">
-        <f t="shared" si="4"/>
+      <c r="M20" s="2">
+        <f>M3/M18</f>
         <v>0.17549377028163934</v>
       </c>
-      <c r="M20" s="2">
-        <f t="shared" si="4"/>
+      <c r="N20" s="2">
+        <f>N3/N18</f>
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -7240,51 +7418,55 @@
         <v>9</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:D21" si="5">C4/C18</f>
+        <f>C4/C18</f>
+        <v>0.17692988494443898</v>
+      </c>
+      <c r="D21" s="2">
+        <f>D4/D18</f>
         <v>0.1767757739914958</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="5"/>
+      <c r="E21" s="2">
+        <f>E4/E18</f>
         <v>0.17189076817502927</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" ref="E21:M21" si="6">E4/E18</f>
+      <c r="F21" s="2">
+        <f>F4/F18</f>
         <v>0.17037074198565194</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="6"/>
+      <c r="G21" s="2">
+        <f>G4/G18</f>
         <v>0.17080948405073987</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="6"/>
+      <c r="H21" s="2">
+        <f>H4/H18</f>
         <v>0.17128560431100848</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="6"/>
+      <c r="I21" s="2">
+        <f>I4/I18</f>
         <v>0.17330156697698337</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="6"/>
+      <c r="J21" s="2">
+        <f>J4/J18</f>
         <v>0.1743281060246053</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="6"/>
+      <c r="K21" s="2">
+        <f>K4/K18</f>
         <v>0.17335856834261479</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="6"/>
+      <c r="L21" s="2">
+        <f>L4/L18</f>
         <v>0.17442598876783552</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="6"/>
+      <c r="M21" s="2">
+        <f>M4/M18</f>
         <v>0.17549377028163934</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" si="6"/>
+      <c r="N21" s="2">
+        <f>N4/N18</f>
         <v>0.17502285352647493</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -7292,51 +7474,55 @@
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:D22" si="7">C5/C18</f>
+        <f>C5/C18</f>
+        <v>6.4018094207886718E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <f>D5/D18</f>
         <v>6.1740074287250672E-3</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="7"/>
+      <c r="E22" s="2">
+        <f>E5/E18</f>
         <v>6.0347959472005809E-3</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22:M22" si="8">E5/E18</f>
+      <c r="F22" s="2">
+        <f>F5/F18</f>
         <v>6.531881804043546E-3</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="8"/>
+      <c r="G22" s="2">
+        <f>G5/G18</f>
         <v>7.0013781448359808E-3</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="8"/>
+      <c r="H22" s="2">
+        <f>H5/H18</f>
         <v>6.4546692722212357E-3</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="8"/>
+      <c r="I22" s="2">
+        <f>I5/I18</f>
         <v>6.7066195069217767E-3</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="8"/>
+      <c r="J22" s="2">
+        <f>J5/J18</f>
         <v>7.0647869475685098E-3</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="8"/>
+      <c r="K22" s="2">
+        <f>K5/K18</f>
         <v>6.2526011217027685E-3</v>
       </c>
-      <c r="K22" s="2">
-        <f t="shared" si="8"/>
+      <c r="L22" s="2">
+        <f>L5/L18</f>
         <v>7.0449088130817008E-3</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" si="8"/>
+      <c r="M22" s="2">
+        <f>M5/M18</f>
         <v>7.0710308080605749E-3</v>
       </c>
-      <c r="M22" s="2">
-        <f t="shared" si="8"/>
+      <c r="N22" s="2">
+        <f>N5/N18</f>
         <v>6.851035189408018E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -7344,51 +7530,55 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23:D23" si="9">C6/C18</f>
+        <f>C6/C18</f>
+        <v>0.1761235126364441</v>
+      </c>
+      <c r="D23" s="2">
+        <f>D6/D18</f>
         <v>0.1757500921122076</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="9"/>
+      <c r="E23" s="2">
+        <f>E6/E18</f>
         <v>0.17942921729302064</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" ref="E23:M23" si="10">E6/E18</f>
+      <c r="F23" s="2">
+        <f>F6/F18</f>
         <v>0.1802538503988361</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="10"/>
+      <c r="G23" s="2">
+        <f>G6/G18</f>
         <v>0.17874639117182547</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="10"/>
+      <c r="H23" s="2">
+        <f>H6/H18</f>
         <v>0.17971417855944416</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="10"/>
+      <c r="I23" s="2">
+        <f>I6/I18</f>
         <v>0.18138309596028507</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="10"/>
+      <c r="J23" s="2">
+        <f>J6/J18</f>
         <v>0.18064311737684144</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="10"/>
+      <c r="K23" s="2">
+        <f>K6/K18</f>
         <v>0.17594482649279614</v>
       </c>
-      <c r="K23" s="2">
-        <f t="shared" si="10"/>
+      <c r="L23" s="2">
+        <f>L6/L18</f>
         <v>0.17704550415748843</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" si="10"/>
+      <c r="M23" s="2">
+        <f>M6/M18</f>
         <v>0.17588437963222628</v>
       </c>
-      <c r="M23" s="2">
-        <f t="shared" si="10"/>
+      <c r="N23" s="2">
+        <f>N6/N18</f>
         <v>0.17436989562719118</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -7396,51 +7586,55 @@
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:D24" si="11">C7/C18</f>
+        <f>C7/C18</f>
+        <v>0.11198741272494837</v>
+      </c>
+      <c r="D24" s="2">
+        <f>D7/D18</f>
         <v>0.11193873791338466</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="11"/>
+      <c r="E24" s="2">
+        <f>E7/E18</f>
         <v>0.11340976062648851</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" ref="E24:M24" si="12">E7/E18</f>
+      <c r="F24" s="2">
+        <f>F7/F18</f>
         <v>0.11327948627903477</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="12"/>
+      <c r="G24" s="2">
+        <f>G7/G18</f>
         <v>0.11349073021557404</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="12"/>
+      <c r="H24" s="2">
+        <f>H7/H18</f>
         <v>0.11260140936815302</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="12"/>
+      <c r="I24" s="2">
+        <f>I7/I18</f>
         <v>0.11038109132127751</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="12"/>
+      <c r="J24" s="2">
+        <f>J7/J18</f>
         <v>0.11061830086065789</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="12"/>
+      <c r="K24" s="2">
+        <f>K7/K18</f>
         <v>0.11232882141937019</v>
       </c>
-      <c r="K24" s="2">
-        <f t="shared" si="12"/>
+      <c r="L24" s="2">
+        <f>L7/L18</f>
         <v>0.1122323430771368</v>
       </c>
-      <c r="L24" s="2">
-        <f t="shared" si="12"/>
+      <c r="M24" s="2">
+        <f>M7/M18</f>
         <v>0.11233524297904732</v>
       </c>
-      <c r="M24" s="2">
-        <f t="shared" si="12"/>
+      <c r="N24" s="2">
+        <f>N7/N18</f>
         <v>0.1131123991682321</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -7448,51 +7642,55 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:D25" si="13">C8/C18</f>
+        <f>C8/C18</f>
+        <v>5.6868915330907661E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f>D8/D18</f>
         <v>5.7298772169167803E-2</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="13"/>
+      <c r="E25" s="2">
+        <f>E8/E18</f>
         <v>5.8410366124409641E-2</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" ref="E25:M25" si="14">E8/E18</f>
+      <c r="F25" s="2">
+        <f>F8/F18</f>
         <v>5.7532734661114734E-2</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="14"/>
+      <c r="G25" s="2">
+        <f>G8/G18</f>
         <v>5.7670834632679135E-2</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="14"/>
+      <c r="H25" s="2">
+        <f>H8/H18</f>
         <v>5.7638025305461797E-2</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="14"/>
+      <c r="I25" s="2">
+        <f>I8/I18</f>
         <v>5.6087910242550824E-2</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="14"/>
+      <c r="J25" s="2">
+        <f>J8/J18</f>
         <v>5.578964042452083E-2</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="14"/>
+      <c r="K25" s="2">
+        <f>K8/K18</f>
         <v>5.7204859390792527E-2</v>
       </c>
-      <c r="K25" s="2">
-        <f t="shared" si="14"/>
+      <c r="L25" s="2">
+        <f>L8/L18</f>
         <v>5.6815701216487074E-2</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="14"/>
+      <c r="M25" s="2">
+        <f>M8/M18</f>
         <v>5.6448058971996312E-2</v>
       </c>
-      <c r="M25" s="2">
-        <f t="shared" si="14"/>
+      <c r="N25" s="2">
+        <f>N8/N18</f>
         <v>5.7420113112399168E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -7500,51 +7698,55 @@
         <v>14</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26:D26" si="15">C9/C18</f>
+        <f>C9/C18</f>
+        <v>1.052217523846986E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <f>D9/D18</f>
         <v>9.7589149679847844E-4</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="15"/>
+      <c r="E26" s="2">
+        <f>E9/E18</f>
         <v>1.0192548338917369E-3</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" ref="E26:M26" si="16">E9/E18</f>
+      <c r="F26" s="2">
+        <f>F9/F18</f>
         <v>9.7326042241509053E-4</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="16"/>
+      <c r="G26" s="2">
+        <f>G9/G18</f>
         <v>8.8523171946202055E-4</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" si="16"/>
+      <c r="H26" s="2">
+        <f>H9/H18</f>
         <v>8.4877913977221141E-4</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="16"/>
+      <c r="I26" s="2">
+        <f>I9/I18</f>
         <v>6.9270248428300043E-4</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="16"/>
+      <c r="J26" s="2">
+        <f>J9/J18</f>
         <v>7.3921537567981418E-4</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="16"/>
+      <c r="K26" s="2">
+        <f>K9/K18</f>
         <v>7.3326859430428669E-4</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="16"/>
+      <c r="L26" s="2">
+        <f>L9/L18</f>
         <v>7.1441328808715841E-4</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" si="16"/>
+      <c r="M26" s="2">
+        <f>M9/M18</f>
         <v>7.211249549296903E-4</v>
       </c>
-      <c r="M26" s="2">
-        <f t="shared" si="16"/>
+      <c r="N26" s="2">
+        <f>N9/N18</f>
         <v>7.4336745456919846E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -7552,51 +7754,55 @@
         <v>13</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:D27" si="17">C10/C18</f>
+        <f>C10/C18</f>
+        <v>4.3760448421673714E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D10/D18</f>
         <v>4.2222244351281107E-3</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="17"/>
+      <c r="E27" s="2">
+        <f>E10/E18</f>
         <v>3.9559197513421868E-3</v>
       </c>
-      <c r="E27" s="2">
-        <f t="shared" ref="E27:M27" si="18">E10/E18</f>
+      <c r="F27" s="2">
+        <f>F10/F18</f>
         <v>4.1940500677268852E-3</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="18"/>
+      <c r="G27" s="2">
+        <f>G10/G18</f>
         <v>4.134434507941937E-3</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" si="18"/>
+      <c r="H27" s="2">
+        <f>H10/H18</f>
         <v>4.0761137758828286E-3</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="18"/>
+      <c r="I27" s="2">
+        <f>I10/I18</f>
         <v>3.1591431480179261E-3</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="18"/>
+      <c r="J27" s="2">
+        <f>J10/J18</f>
         <v>3.2947885316014572E-3</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="18"/>
+      <c r="K27" s="2">
+        <f>K10/K18</f>
         <v>4.092431479022573E-3</v>
       </c>
-      <c r="K27" s="2">
-        <f t="shared" si="18"/>
+      <c r="L27" s="2">
+        <f>L10/L18</f>
         <v>3.929273084479371E-3</v>
       </c>
-      <c r="L27" s="2">
-        <f t="shared" si="18"/>
+      <c r="M27" s="2">
+        <f>M10/M18</f>
         <v>3.9361403789912267E-3</v>
       </c>
-      <c r="M27" s="2">
-        <f t="shared" si="18"/>
+      <c r="N27" s="2">
+        <f>N10/N18</f>
         <v>3.9077018895597058E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7604,51 +7810,55 @@
         <v>10</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:D28" si="19">C11/C18</f>
+        <f>C11/C18</f>
+        <v>8.4472416166781403E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f>D11/D18</f>
         <v>8.593820017725377E-3</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="19"/>
+      <c r="E28" s="2">
+        <f>E11/E18</f>
         <v>9.0017357607072215E-3</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" ref="E28:M28" si="20">E11/E18</f>
+      <c r="F28" s="2">
+        <f>F11/F18</f>
         <v>8.6389404505092058E-3</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="20"/>
+      <c r="G28" s="2">
+        <f>G11/G18</f>
         <v>8.5907714593246084E-3</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="20"/>
+      <c r="H28" s="2">
+        <f>H11/H18</f>
         <v>8.3496180493871017E-3</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="20"/>
+      <c r="I28" s="2">
+        <f>I11/I18</f>
         <v>7.4308084677630962E-3</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="20"/>
+      <c r="J28" s="2">
+        <f>J11/J18</f>
         <v>7.6984001267226361E-3</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="20"/>
+      <c r="K28" s="2">
+        <f>K11/K18</f>
         <v>8.9676767276402631E-3</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" si="20"/>
+      <c r="L28" s="2">
+        <f>L11/L18</f>
         <v>9.0194677621003756E-3</v>
       </c>
-      <c r="L28" s="2">
-        <f t="shared" si="20"/>
+      <c r="M28" s="2">
+        <f>M11/M18</f>
         <v>9.384640038459997E-3</v>
       </c>
-      <c r="M28" s="2">
-        <f t="shared" si="20"/>
+      <c r="N28" s="2">
+        <f>N11/N18</f>
         <v>9.2418656514008466E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7656,51 +7866,55 @@
         <v>6</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:D29" si="21">C12/C18</f>
+        <f>C12/C18</f>
+        <v>4.7349788573114365E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <f>D12/D18</f>
         <v>4.7509982971689187E-2</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="21"/>
+      <c r="E29" s="2">
+        <f>E12/E18</f>
         <v>4.8328825737698297E-2</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" ref="E29:M29" si="22">E12/E18</f>
+      <c r="F29" s="2">
+        <f>F12/F18</f>
         <v>5.0438970551347009E-2</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="22"/>
+      <c r="G29" s="2">
+        <f>G12/G18</f>
         <v>5.0136305565894435E-2</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="22"/>
+      <c r="H29" s="2">
+        <f>H12/H18</f>
         <v>5.0018752097274036E-2</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="22"/>
+      <c r="I29" s="2">
+        <f>I12/I18</f>
         <v>5.1795253938433441E-2</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="22"/>
+      <c r="J29" s="2">
+        <f>J12/J18</f>
         <v>5.134378795078938E-2</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="22"/>
+      <c r="K29" s="2">
+        <f>K12/K18</f>
         <v>4.9465903010364853E-2</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="22"/>
+      <c r="L29" s="2">
+        <f>L12/L18</f>
         <v>4.9244904844118989E-2</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" si="22"/>
+      <c r="M29" s="2">
+        <f>M12/M18</f>
         <v>4.9557309402668163E-2</v>
       </c>
-      <c r="M29" s="2">
-        <f t="shared" si="22"/>
+      <c r="N29" s="2">
+        <f>N12/N18</f>
         <v>4.939375370428039E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7708,51 +7922,55 @@
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:D30" si="23">C13/C18</f>
+        <f>C13/C18</f>
+        <v>3.4556003540171111E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <f>D13/D18</f>
         <v>3.4534609294868603E-2</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="23"/>
+      <c r="E30" s="2">
+        <f>E13/E18</f>
         <v>3.4503289872038108E-2</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" ref="E30:M30" si="24">E13/E18</f>
+      <c r="F30" s="2">
+        <f>F13/F18</f>
         <v>3.4766467666683391E-2</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" si="24"/>
+      <c r="G30" s="2">
+        <f>G13/G18</f>
         <v>3.5006890724179902E-2</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="24"/>
+      <c r="H30" s="2">
+        <f>H13/H18</f>
         <v>3.4898639979471388E-2</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="24"/>
+      <c r="I30" s="2">
+        <f>I13/I18</f>
         <v>3.3638052456469947E-2</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="24"/>
+      <c r="J30" s="2">
+        <f>J13/J18</f>
         <v>3.4415755847721635E-2</v>
       </c>
-      <c r="J30" s="2">
-        <f t="shared" si="24"/>
+      <c r="K30" s="2">
+        <f>K13/K18</f>
         <v>3.7257971818704293E-2</v>
       </c>
-      <c r="K30" s="2">
-        <f t="shared" si="24"/>
+      <c r="L30" s="2">
+        <f>L13/L18</f>
         <v>3.6752594709372706E-2</v>
       </c>
-      <c r="L30" s="2">
-        <f t="shared" si="24"/>
+      <c r="M30" s="2">
+        <f>M13/M18</f>
         <v>3.675734145266616E-2</v>
       </c>
-      <c r="M30" s="2">
-        <f t="shared" si="24"/>
+      <c r="N30" s="2">
+        <f>N13/N18</f>
         <v>3.6555596853747478E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -7760,51 +7978,55 @@
         <v>7</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ref="C31:D31" si="25">C14/C18</f>
+        <f>C14/C18</f>
+        <v>4.1370832923591304E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f>D14/D18</f>
         <v>4.1545095149420938E-2</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="25"/>
+      <c r="E31" s="2">
+        <f>E14/E18</f>
         <v>4.337383441650184E-2</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" ref="E31:M31" si="26">E14/E18</f>
+      <c r="F31" s="2">
+        <f>F14/F18</f>
         <v>4.3515777855816985E-2</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="26"/>
+      <c r="G31" s="2">
+        <f>G14/G18</f>
         <v>4.3487008218571759E-2</v>
       </c>
-      <c r="G31" s="2">
-        <f t="shared" si="26"/>
+      <c r="H31" s="2">
+        <f>H14/H18</f>
         <v>4.3198910404453131E-2</v>
       </c>
-      <c r="H31" s="2">
-        <f t="shared" si="26"/>
+      <c r="I31" s="2">
+        <f>I14/I18</f>
         <v>4.1520167088235603E-2</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="26"/>
+      <c r="J31" s="2">
+        <f>J14/J18</f>
         <v>4.0350599292465282E-2</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="26"/>
+      <c r="K31" s="2">
+        <f>K14/K18</f>
         <v>4.1271131017261542E-2</v>
       </c>
-      <c r="K31" s="2">
-        <f t="shared" si="26"/>
+      <c r="L31" s="2">
+        <f>L14/L18</f>
         <v>4.1257367387033402E-2</v>
       </c>
-      <c r="L31" s="2">
-        <f t="shared" si="26"/>
+      <c r="M31" s="2">
+        <f>M14/M18</f>
         <v>4.0543247466047032E-2</v>
       </c>
-      <c r="M31" s="2">
-        <f t="shared" si="26"/>
+      <c r="N31" s="2">
+        <f>N14/N18</f>
         <v>4.0845027976734609E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -7812,51 +8034,55 @@
         <v>8</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:D32" si="27">C15/C18</f>
+        <f>C15/C18</f>
+        <v>2.4437014455698691E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <f>D15/D18</f>
         <v>2.4805568556377649E-2</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="27"/>
+      <c r="E32" s="2">
+        <f>E15/E18</f>
         <v>2.5420821055181043E-2</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" ref="E32:M32" si="28">E15/E18</f>
+      <c r="F32" s="2">
+        <f>F15/F18</f>
         <v>2.6207796116991922E-2</v>
       </c>
-      <c r="F32" s="2">
-        <f t="shared" si="28"/>
+      <c r="G32" s="2">
+        <f>G15/G18</f>
         <v>2.5742136023901255E-2</v>
       </c>
-      <c r="G32" s="2">
-        <f t="shared" si="28"/>
+      <c r="H32" s="2">
+        <f>H15/H18</f>
         <v>2.5966719962101023E-2</v>
       </c>
-      <c r="H32" s="2">
-        <f t="shared" si="28"/>
+      <c r="I32" s="2">
+        <f>I15/I18</f>
         <v>2.394021767650794E-2</v>
       </c>
-      <c r="I32" s="2">
-        <f t="shared" si="28"/>
+      <c r="J32" s="2">
+        <f>J15/J18</f>
         <v>2.333808543217699E-2</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="28"/>
+      <c r="K32" s="2">
+        <f>K15/K18</f>
         <v>2.4514952733902771E-2</v>
       </c>
-      <c r="K32" s="2">
-        <f t="shared" si="28"/>
+      <c r="L32" s="2">
+        <f>L15/L18</f>
         <v>2.4587723998333037E-2</v>
       </c>
-      <c r="L32" s="2">
-        <f t="shared" si="28"/>
+      <c r="M32" s="2">
+        <f>M15/M18</f>
         <v>2.3887264132045991E-2</v>
       </c>
-      <c r="M32" s="2">
-        <f t="shared" si="28"/>
+      <c r="N32" s="2">
+        <f>N15/N18</f>
         <v>2.4852582197354013E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -7864,51 +8090,55 @@
         <v>15</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ref="C33:D33" si="29">C16/C18</f>
+        <f>C16/C18</f>
+        <v>2.7996853181237093E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <f>D16/D18</f>
         <v>2.7633662281793647E-2</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="29"/>
+      <c r="E33" s="2">
+        <f>E16/E18</f>
         <v>2.793363742784483E-2</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" ref="E33:M33" si="30">E16/E18</f>
+      <c r="F33" s="2">
+        <f>F16/F18</f>
         <v>2.7341594341042493E-2</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="30"/>
+      <c r="G33" s="2">
+        <f>G16/G18</f>
         <v>2.693921073544649E-2</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="30"/>
+      <c r="H33" s="2">
+        <f>H16/H18</f>
         <v>2.6983281024851462E-2</v>
       </c>
-      <c r="H33" s="2">
-        <f t="shared" si="30"/>
+      <c r="I33" s="2">
+        <f>I16/I18</f>
         <v>2.8043955121275412E-2</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" si="30"/>
+      <c r="J33" s="2">
+        <f>J16/J18</f>
         <v>2.7942341200696975E-2</v>
       </c>
-      <c r="J33" s="2">
-        <f t="shared" si="30"/>
+      <c r="K33" s="2">
+        <f>K16/K18</f>
         <v>2.8458748687052855E-2</v>
       </c>
-      <c r="K33" s="2">
-        <f t="shared" si="30"/>
+      <c r="L33" s="2">
+        <f>L16/L18</f>
         <v>2.8110178404873887E-2</v>
       </c>
-      <c r="L33" s="2">
-        <f t="shared" si="30"/>
+      <c r="M33" s="2">
+        <f>M16/M18</f>
         <v>2.8173951364128039E-2</v>
       </c>
-      <c r="M33" s="2">
-        <f t="shared" si="30"/>
+      <c r="N33" s="2">
+        <f>N16/N18</f>
         <v>2.7916461570916252E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -7916,47 +8146,51 @@
         <v>12</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34:D34" si="31">C17/C18</f>
+        <f>C17/C18</f>
+        <v>3.2943258924181336E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <f>D17/D18</f>
         <v>3.2762071678234632E-3</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="31"/>
+      <c r="E34" s="2">
+        <f>E17/E18</f>
         <v>3.1990473499374319E-3</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:M34" si="32">E17/E18</f>
+      <c r="F34" s="2">
+        <f>F17/F18</f>
         <v>3.3311593839361864E-3</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="32"/>
+      <c r="G34" s="2">
+        <f>G17/G18</f>
         <v>3.5006890724179904E-3</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" si="32"/>
+      <c r="H34" s="2">
+        <f>H17/H18</f>
         <v>3.3260298849213401E-3</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" si="32"/>
+      <c r="I34" s="2">
+        <f>I17/I18</f>
         <v>3.0961701949012901E-3</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="32"/>
+      <c r="J34" s="2">
+        <f>J17/J18</f>
         <v>3.0624636992449441E-3</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" si="32"/>
+      <c r="K34" s="2">
+        <f>K17/K18</f>
         <v>3.3393448146019542E-3</v>
       </c>
-      <c r="K34" s="2">
-        <f t="shared" si="32"/>
+      <c r="L34" s="2">
+        <f>L17/L18</f>
         <v>3.2843166438451311E-3</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" si="32"/>
+      <c r="M34" s="2">
+        <f>M17/M18</f>
         <v>2.9445935659629021E-3</v>
       </c>
-      <c r="M34" s="2">
-        <f t="shared" si="32"/>
+      <c r="N34" s="2">
+        <f>N17/N18</f>
         <v>3.073924879705064E-3</v>
       </c>
     </row>
@@ -7974,7 +8208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
@@ -8635,10 +8869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8695,556 +8929,726 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="B2" s="2">
-        <v>0.1767757739914958</v>
+        <v>0.17692988494443898</v>
       </c>
       <c r="C2" s="2">
-        <v>0.1767757739914958</v>
+        <v>0.17692988494443898</v>
       </c>
       <c r="D2" s="2">
-        <v>6.1740074287250672E-3</v>
+        <v>6.4018094207886718E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>0.1757500921122076</v>
+        <v>0.1761235126364441</v>
       </c>
       <c r="F2" s="2">
-        <v>0.11193873791338466</v>
+        <v>0.11198741272494837</v>
       </c>
       <c r="G2" s="2">
-        <v>5.7298772169167803E-2</v>
+        <v>5.6868915330907661E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>9.7589149679847844E-4</v>
+        <v>1.052217523846986E-3</v>
       </c>
       <c r="I2" s="2">
-        <v>4.2222244351281107E-3</v>
+        <v>4.3760448421673714E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>8.593820017725377E-3</v>
+        <v>8.4472416166781403E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>4.7509982971689187E-2</v>
+        <v>4.7349788573114365E-2</v>
       </c>
       <c r="L2" s="2">
-        <v>3.4534609294868603E-2</v>
+        <v>3.4556003540171111E-2</v>
       </c>
       <c r="M2" s="2">
-        <v>4.1545095149420938E-2</v>
+        <v>4.1370832923591304E-2</v>
       </c>
       <c r="N2" s="2">
-        <v>2.4805568556377649E-2</v>
+        <v>2.4437014455698691E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>2.7633662281793647E-2</v>
+        <v>2.7996853181237093E-2</v>
       </c>
       <c r="P2" s="2">
-        <v>3.2762071678234632E-3</v>
+        <v>3.2943258924181336E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41440</v>
+        <v>41447</v>
       </c>
       <c r="B3" s="2">
-        <v>0.17189076817502927</v>
+        <v>0.1767757739914958</v>
       </c>
       <c r="C3" s="2">
-        <v>0.17189076817502927</v>
+        <v>0.1767757739914958</v>
       </c>
       <c r="D3" s="2">
-        <v>6.0347959472005809E-3</v>
+        <v>6.1740074287250672E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>0.17942921729302064</v>
+        <v>0.1757500921122076</v>
       </c>
       <c r="F3" s="2">
-        <v>0.11340976062648851</v>
+        <v>0.11193873791338466</v>
       </c>
       <c r="G3" s="2">
-        <v>5.8410366124409641E-2</v>
+        <v>5.7298772169167803E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>1.0192548338917369E-3</v>
+        <v>9.7589149679847844E-4</v>
       </c>
       <c r="I3" s="2">
-        <v>3.9559197513421868E-3</v>
+        <v>4.2222244351281107E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>9.0017357607072215E-3</v>
+        <v>8.593820017725377E-3</v>
       </c>
       <c r="K3" s="2">
-        <v>4.8328825737698297E-2</v>
+        <v>4.7509982971689187E-2</v>
       </c>
       <c r="L3" s="2">
-        <v>3.4503289872038108E-2</v>
+        <v>3.4534609294868603E-2</v>
       </c>
       <c r="M3" s="2">
-        <v>4.337383441650184E-2</v>
+        <v>4.1545095149420938E-2</v>
       </c>
       <c r="N3" s="2">
-        <v>2.5420821055181043E-2</v>
+        <v>2.4805568556377649E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>2.793363742784483E-2</v>
+        <v>2.7633662281793647E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>3.1990473499374319E-3</v>
+        <v>3.2762071678234632E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41433</v>
+        <v>41440</v>
       </c>
       <c r="B4" s="2">
-        <v>0.17037074198565194</v>
+        <v>0.17189076817502927</v>
       </c>
       <c r="C4" s="2">
-        <v>0.17037074198565194</v>
+        <v>0.17189076817502927</v>
       </c>
       <c r="D4" s="2">
-        <v>6.531881804043546E-3</v>
+        <v>6.0347959472005809E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>0.1802538503988361</v>
+        <v>0.17942921729302064</v>
       </c>
       <c r="F4" s="2">
-        <v>0.11327948627903477</v>
+        <v>0.11340976062648851</v>
       </c>
       <c r="G4" s="2">
-        <v>5.7532734661114734E-2</v>
+        <v>5.8410366124409641E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>9.7326042241509053E-4</v>
+        <v>1.0192548338917369E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>4.1940500677268852E-3</v>
+        <v>3.9559197513421868E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>8.6389404505092058E-3</v>
+        <v>9.0017357607072215E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>5.0438970551347009E-2</v>
+        <v>4.8328825737698297E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>3.4766467666683391E-2</v>
+        <v>3.4503289872038108E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>4.3515777855816985E-2</v>
+        <v>4.337383441650184E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>2.6207796116991922E-2</v>
+        <v>2.5420821055181043E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>2.7341594341042493E-2</v>
+        <v>2.793363742784483E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>3.3311593839361864E-3</v>
+        <v>3.1990473499374319E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41426</v>
+        <v>41433</v>
       </c>
       <c r="B5" s="2">
-        <v>0.17080948405073987</v>
+        <v>0.17037074198565194</v>
       </c>
       <c r="C5" s="2">
-        <v>0.17080948405073987</v>
+        <v>0.17037074198565194</v>
       </c>
       <c r="D5" s="2">
-        <v>7.0013781448359808E-3</v>
+        <v>6.531881804043546E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.17874639117182547</v>
+        <v>0.1802538503988361</v>
       </c>
       <c r="F5" s="2">
-        <v>0.11349073021557404</v>
+        <v>0.11327948627903477</v>
       </c>
       <c r="G5" s="2">
-        <v>5.7670834632679135E-2</v>
+        <v>5.7532734661114734E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>8.8523171946202055E-4</v>
+        <v>9.7326042241509053E-4</v>
       </c>
       <c r="I5" s="2">
-        <v>4.134434507941937E-3</v>
+        <v>4.1940500677268852E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>8.5907714593246084E-3</v>
+        <v>8.6389404505092058E-3</v>
       </c>
       <c r="K5" s="2">
-        <v>5.0136305565894435E-2</v>
+        <v>5.0438970551347009E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>3.5006890724179902E-2</v>
+        <v>3.4766467666683391E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>4.3487008218571759E-2</v>
+        <v>4.3515777855816985E-2</v>
       </c>
       <c r="N5" s="2">
-        <v>2.5742136023901255E-2</v>
+        <v>2.6207796116991922E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>2.693921073544649E-2</v>
+        <v>2.7341594341042493E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>3.5006890724179904E-3</v>
+        <v>3.3311593839361864E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41419</v>
+        <v>41426</v>
       </c>
       <c r="B6" s="2">
-        <v>0.17128560431100848</v>
+        <v>0.17080948405073987</v>
       </c>
       <c r="C6" s="2">
-        <v>0.17128560431100848</v>
+        <v>0.17080948405073987</v>
       </c>
       <c r="D6" s="2">
-        <v>6.4546692722212357E-3</v>
+        <v>7.0013781448359808E-3</v>
       </c>
       <c r="E6" s="2">
-        <v>0.17971417855944416</v>
+        <v>0.17874639117182547</v>
       </c>
       <c r="F6" s="2">
-        <v>0.11260140936815302</v>
+        <v>0.11349073021557404</v>
       </c>
       <c r="G6" s="2">
-        <v>5.7638025305461797E-2</v>
+        <v>5.7670834632679135E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>8.4877913977221141E-4</v>
+        <v>8.8523171946202055E-4</v>
       </c>
       <c r="I6" s="2">
-        <v>4.0761137758828286E-3</v>
+        <v>4.134434507941937E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>8.3496180493871017E-3</v>
+        <v>8.5907714593246084E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>5.0018752097274036E-2</v>
+        <v>5.0136305565894435E-2</v>
       </c>
       <c r="L6" s="2">
-        <v>3.4898639979471388E-2</v>
+        <v>3.5006890724179902E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>4.3198910404453131E-2</v>
+        <v>4.3487008218571759E-2</v>
       </c>
       <c r="N6" s="2">
-        <v>2.5966719962101023E-2</v>
+        <v>2.5742136023901255E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>2.6983281024851462E-2</v>
+        <v>2.693921073544649E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>3.3260298849213401E-3</v>
+        <v>3.5006890724179904E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41412</v>
+        <v>41419</v>
       </c>
       <c r="B7" s="2">
-        <v>0.17330156697698337</v>
+        <v>0.17128560431100848</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17330156697698337</v>
+        <v>0.17128560431100848</v>
       </c>
       <c r="D7" s="2">
-        <v>6.7066195069217767E-3</v>
+        <v>6.4546692722212357E-3</v>
       </c>
       <c r="E7" s="2">
-        <v>0.18138309596028507</v>
+        <v>0.17971417855944416</v>
       </c>
       <c r="F7" s="2">
-        <v>0.11038109132127751</v>
+        <v>0.11260140936815302</v>
       </c>
       <c r="G7" s="2">
-        <v>5.6087910242550824E-2</v>
+        <v>5.7638025305461797E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>6.9270248428300043E-4</v>
+        <v>8.4877913977221141E-4</v>
       </c>
       <c r="I7" s="2">
-        <v>3.1591431480179261E-3</v>
+        <v>4.0761137758828286E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>7.4308084677630962E-3</v>
+        <v>8.3496180493871017E-3</v>
       </c>
       <c r="K7" s="2">
-        <v>5.1795253938433441E-2</v>
+        <v>5.0018752097274036E-2</v>
       </c>
       <c r="L7" s="2">
-        <v>3.3638052456469947E-2</v>
+        <v>3.4898639979471388E-2</v>
       </c>
       <c r="M7" s="2">
-        <v>4.1520167088235603E-2</v>
+        <v>4.3198910404453131E-2</v>
       </c>
       <c r="N7" s="2">
-        <v>2.394021767650794E-2</v>
+        <v>2.5966719962101023E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>2.8043955121275412E-2</v>
+        <v>2.6983281024851462E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>3.0961701949012901E-3</v>
+        <v>3.3260298849213401E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41405</v>
+        <v>41412</v>
       </c>
       <c r="B8" s="2">
-        <v>0.1743281060246053</v>
+        <v>0.17330156697698337</v>
       </c>
       <c r="C8" s="2">
-        <v>0.1743281060246053</v>
+        <v>0.17330156697698337</v>
       </c>
       <c r="D8" s="2">
-        <v>7.0647869475685098E-3</v>
+        <v>6.7066195069217767E-3</v>
       </c>
       <c r="E8" s="2">
-        <v>0.18064311737684144</v>
+        <v>0.18138309596028507</v>
       </c>
       <c r="F8" s="2">
-        <v>0.11061830086065789</v>
+        <v>0.11038109132127751</v>
       </c>
       <c r="G8" s="2">
-        <v>5.578964042452083E-2</v>
+        <v>5.6087910242550824E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>7.3921537567981418E-4</v>
+        <v>6.9270248428300043E-4</v>
       </c>
       <c r="I8" s="2">
-        <v>3.2947885316014572E-3</v>
+        <v>3.1591431480179261E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>7.6984001267226361E-3</v>
+        <v>7.4308084677630962E-3</v>
       </c>
       <c r="K8" s="2">
-        <v>5.134378795078938E-2</v>
+        <v>5.1795253938433441E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>3.4415755847721635E-2</v>
+        <v>3.3638052456469947E-2</v>
       </c>
       <c r="M8" s="2">
-        <v>4.0350599292465282E-2</v>
+        <v>4.1520167088235603E-2</v>
       </c>
       <c r="N8" s="2">
-        <v>2.333808543217699E-2</v>
+        <v>2.394021767650794E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>2.7942341200696975E-2</v>
+        <v>2.8043955121275412E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>3.0624636992449441E-3</v>
+        <v>3.0961701949012901E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41398</v>
+        <v>41405</v>
       </c>
       <c r="B9" s="2">
-        <v>0.17335856834261479</v>
+        <v>0.1743281060246053</v>
       </c>
       <c r="C9" s="2">
-        <v>0.17335856834261479</v>
+        <v>0.1743281060246053</v>
       </c>
       <c r="D9" s="2">
-        <v>6.2526011217027685E-3</v>
+        <v>7.0647869475685098E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>0.17594482649279614</v>
+        <v>0.18064311737684144</v>
       </c>
       <c r="F9" s="2">
-        <v>0.11232882141937019</v>
+        <v>0.11061830086065789</v>
       </c>
       <c r="G9" s="2">
-        <v>5.7204859390792527E-2</v>
+        <v>5.578964042452083E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>7.3326859430428669E-4</v>
+        <v>7.3921537567981418E-4</v>
       </c>
       <c r="I9" s="2">
-        <v>4.092431479022573E-3</v>
+        <v>3.2947885316014572E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>8.9676767276402631E-3</v>
+        <v>7.6984001267226361E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>4.9465903010364853E-2</v>
+        <v>5.134378795078938E-2</v>
       </c>
       <c r="L9" s="2">
-        <v>3.7257971818704293E-2</v>
+        <v>3.4415755847721635E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>4.1271131017261542E-2</v>
+        <v>4.0350599292465282E-2</v>
       </c>
       <c r="N9" s="2">
-        <v>2.4514952733902771E-2</v>
+        <v>2.333808543217699E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>2.8458748687052855E-2</v>
+        <v>2.7942341200696975E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>3.3393448146019542E-3</v>
+        <v>3.0624636992449441E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41391</v>
+        <v>41398</v>
       </c>
       <c r="B10" s="2">
-        <v>0.17442598876783552</v>
+        <v>0.17335856834261479</v>
       </c>
       <c r="C10" s="2">
-        <v>0.17442598876783552</v>
+        <v>0.17335856834261479</v>
       </c>
       <c r="D10" s="2">
-        <v>7.0449088130817008E-3</v>
+        <v>6.2526011217027685E-3</v>
       </c>
       <c r="E10" s="2">
-        <v>0.17704550415748843</v>
+        <v>0.17594482649279614</v>
       </c>
       <c r="F10" s="2">
-        <v>0.1122323430771368</v>
+        <v>0.11232882141937019</v>
       </c>
       <c r="G10" s="2">
-        <v>5.6815701216487074E-2</v>
+        <v>5.7204859390792527E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>7.1441328808715841E-4</v>
+        <v>7.3326859430428669E-4</v>
       </c>
       <c r="I10" s="2">
-        <v>3.929273084479371E-3</v>
+        <v>4.092431479022573E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>9.0194677621003756E-3</v>
+        <v>8.9676767276402631E-3</v>
       </c>
       <c r="K10" s="2">
-        <v>4.9244904844118989E-2</v>
+        <v>4.9465903010364853E-2</v>
       </c>
       <c r="L10" s="2">
-        <v>3.6752594709372706E-2</v>
+        <v>3.7257971818704293E-2</v>
       </c>
       <c r="M10" s="2">
-        <v>4.1257367387033402E-2</v>
+        <v>4.1271131017261542E-2</v>
       </c>
       <c r="N10" s="2">
-        <v>2.4587723998333037E-2</v>
+        <v>2.4514952733902771E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>2.8110178404873887E-2</v>
+        <v>2.8458748687052855E-2</v>
       </c>
       <c r="P10" s="2">
-        <v>3.2843166438451311E-3</v>
+        <v>3.3393448146019542E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41384</v>
+        <v>41391</v>
       </c>
       <c r="B11" s="2">
-        <v>0.17549377028163934</v>
+        <v>0.17442598876783552</v>
       </c>
       <c r="C11" s="2">
-        <v>0.17549377028163934</v>
+        <v>0.17442598876783552</v>
       </c>
       <c r="D11" s="2">
-        <v>7.0710308080605749E-3</v>
+        <v>7.0449088130817008E-3</v>
       </c>
       <c r="E11" s="2">
-        <v>0.17588437963222628</v>
+        <v>0.17704550415748843</v>
       </c>
       <c r="F11" s="2">
-        <v>0.11233524297904732</v>
+        <v>0.1122323430771368</v>
       </c>
       <c r="G11" s="2">
-        <v>5.6448058971996312E-2</v>
+        <v>5.6815701216487074E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>7.211249549296903E-4</v>
+        <v>7.1441328808715841E-4</v>
       </c>
       <c r="I11" s="2">
-        <v>3.9361403789912267E-3</v>
+        <v>3.929273084479371E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>9.384640038459997E-3</v>
+        <v>9.0194677621003756E-3</v>
       </c>
       <c r="K11" s="2">
-        <v>4.9557309402668163E-2</v>
+        <v>4.9244904844118989E-2</v>
       </c>
       <c r="L11" s="2">
-        <v>3.675734145266616E-2</v>
+        <v>3.6752594709372706E-2</v>
       </c>
       <c r="M11" s="2">
-        <v>4.0543247466047032E-2</v>
+        <v>4.1257367387033402E-2</v>
       </c>
       <c r="N11" s="2">
-        <v>2.3887264132045991E-2</v>
+        <v>2.4587723998333037E-2</v>
       </c>
       <c r="O11" s="2">
-        <v>2.8173951364128039E-2</v>
+        <v>2.8110178404873887E-2</v>
       </c>
       <c r="P11" s="2">
-        <v>2.9445935659629021E-3</v>
+        <v>3.2843166438451311E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>41384</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7.0710308080605749E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.17588437963222628</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.11233524297904732</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.6448058971996312E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7.211249549296903E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.9361403789912267E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9.384640038459997E-3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4.9557309402668163E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3.675734145266616E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4.0543247466047032E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2.3887264132045991E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2.8173951364128039E-2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2.9445935659629021E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>41377</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>0.17502285352647493</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>0.17502285352647493</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>6.851035189408018E-3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>0.17436989562719118</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>0.1131123991682321</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>5.7420113112399168E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>7.4336745456919846E-4</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I13" s="2">
         <v>3.9077018895597058E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J13" s="2">
         <v>9.2418656514008466E-3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="2">
         <v>4.939375370428039E-2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L13" s="2">
         <v>3.6555596853747478E-2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M13" s="2">
         <v>4.0845027976734609E-2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N13" s="2">
         <v>2.4852582197354013E-2</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O13" s="2">
         <v>2.7916461570916252E-2</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P13" s="2">
         <v>3.073924879705064E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>0.17692988494443898</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.17692988494443898</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.17692988494443898</v>
+      </c>
+      <c r="F38" s="2">
+        <v>6.4018094207886718E-3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.1761235126364441</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.11198741272494837</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5.6868915330907661E-2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1.052217523846986E-3</v>
+      </c>
+      <c r="K38" s="2">
+        <v>4.3760448421673714E-3</v>
+      </c>
+      <c r="L38" s="2">
+        <v>8.4472416166781403E-3</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4.7349788573114365E-2</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3.4556003540171111E-2</v>
+      </c>
+      <c r="O38" s="2">
+        <v>4.1370832923591304E-2</v>
+      </c>
+      <c r="P38" s="2">
+        <v>2.4437014455698691E-2</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>2.7996853181237093E-2</v>
+      </c>
+      <c r="R38" s="2">
+        <v>3.2943258924181336E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>0.17692988494443898</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>6.4018094207886718E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>0.1761235126364441</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>0.11198741272494837</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>5.6868915330907661E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>1.052217523846986E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>4.3760448421673714E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>8.4472416166781403E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>4.7349788573114365E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>3.4556003540171111E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>4.1370832923591304E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>2.4437014455698691E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>2.7996853181237093E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>3.2943258924181336E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P12">
+  <sortState ref="A3:P13">
     <sortCondition descending="1" ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9257,7 +9661,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B1:B16"/>
+      <selection activeCell="B1" sqref="B1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9267,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>10262</v>
+        <v>10360</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9275,7 +9679,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>17752</v>
+        <v>17992</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9283,7 +9687,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>17752</v>
+        <v>17992</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9291,7 +9695,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>620</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9299,7 +9703,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17649</v>
+        <v>17910</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9307,7 +9711,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11241</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9315,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5754</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9323,7 +9727,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9331,7 +9735,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9339,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9347,7 +9751,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>4771</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9355,7 +9759,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3468</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9363,7 +9767,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>4172</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9371,7 +9775,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>2491</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9379,7 +9783,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2775</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9387,7 +9791,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/1_5K_Limits.xlsx
+++ b/1_5K_Limits.xlsx
@@ -231,11 +231,96 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="12"/>
+          <c:idx val="13"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7/8/2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -259,7 +344,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -317,10 +402,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -343,7 +428,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -401,10 +486,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -427,7 +512,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -485,10 +570,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -511,7 +596,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -569,10 +654,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -595,7 +680,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -653,10 +738,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -679,7 +764,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -737,10 +822,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -763,7 +848,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -821,10 +906,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -845,7 +930,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -903,10 +988,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="9"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -927,7 +1012,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:f>Sheet1!$L$2:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -985,10 +1070,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="10"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Sheet1!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1009,7 +1094,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$17</c:f>
+              <c:f>Sheet1!$M$2:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1067,10 +1152,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="11"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1147,7 +1232,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$17</c:f>
+              <c:f>Sheet1!$N$2:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1205,10 +1290,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="12"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1285,7 +1370,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$17</c:f>
+              <c:f>Sheet1!$O$2:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1350,8 +1435,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="959024256"/>
-        <c:axId val="959024800"/>
+        <c:axId val="-1126274768"/>
+        <c:axId val="-1126633072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1507,11 +1592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="959024256"/>
-        <c:axId val="959024800"/>
+        <c:axId val="-1126274768"/>
+        <c:axId val="-1126633072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="959024256"/>
+        <c:axId val="-1126274768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959024800"/>
+        <c:crossAx val="-1126633072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1562,7 +1647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="959024800"/>
+        <c:axId val="-1126633072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959024256"/>
+        <c:crossAx val="-1126274768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2023,31 +2108,34 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.8376080647164258E-2"/>
-                  <c:y val="4.2535770882912209E-2"/>
+                  <c:x val="-1.8233621505910493E-2"/>
+                  <c:y val="8.5071541765824363E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7492891400119598E-2"/>
+                  <c:y val="6.8711629887781192E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2067,8 +2155,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11623933710017939"/>
-                  <c:y val="2.617585900486907E-2"/>
+                  <c:x val="-6.1538472582447934E-2"/>
+                  <c:y val="-1.9631894253651801E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2088,29 +2176,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12079774247665702"/>
-                  <c:y val="-6.2167665136564042E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.5213688711880777E-2"/>
-                  <c:y val="-0.13742325977556266"/>
+                  <c:x val="-5.0142459141253842E-2"/>
+                  <c:y val="-0.11124740077069357"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2130,29 +2197,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3675216129432869E-2"/>
-                  <c:y val="-1.499641264836763E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.4330499464836034E-2"/>
-                  <c:y val="-1.499641264836763E-17"/>
+                  <c:x val="8.2051296776597213E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2230,55 +2276,52 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$19:$B$34</c:f>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>.NET</c:v>
+                  <c:v>C#</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C#</c:v>
+                  <c:v>c++</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>c++</c:v>
+                  <c:v>cobol</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cobol</c:v>
+                  <c:v>java</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>java</c:v>
+                  <c:v>javascript</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>javascript</c:v>
+                  <c:v>jquery</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jquery</c:v>
+                  <c:v>knockout.js</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>knockout.js</c:v>
+                  <c:v>node.js</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>node.js</c:v>
+                  <c:v>objective-c</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>objective-c</c:v>
+                  <c:v>perl</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>perl</c:v>
+                  <c:v>php</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>php</c:v>
+                  <c:v>python</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>python</c:v>
+                  <c:v>ruby</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>ruby</c:v>
+                  <c:v>VB</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>VB</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>wordpress</c:v>
                 </c:pt>
               </c:strCache>
@@ -2286,57 +2329,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$C$34</c:f>
+              <c:f>Sheet1!$C$20:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.10187825744911004</c:v>
+                  <c:v>0.17817280282651463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17692988494443898</c:v>
+                  <c:v>0.17817280282651463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17692988494443898</c:v>
+                  <c:v>6.4339342353555229E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4018094207886718E-3</c:v>
+                  <c:v>0.17579395350704621</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1761235126364441</c:v>
+                  <c:v>0.11040069056891637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11198741272494837</c:v>
+                  <c:v>5.6951860922632193E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6868915330907661E-2</c:v>
+                  <c:v>1.0338459067731963E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.052217523846986E-3</c:v>
+                  <c:v>4.5569518609226319E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3760448421673714E-3</c:v>
+                  <c:v>8.8127835548239448E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4472416166781403E-3</c:v>
+                  <c:v>4.8620869635042356E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7349788573114365E-2</c:v>
+                  <c:v>3.4397960412735379E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4556003540171111E-2</c:v>
+                  <c:v>4.2227084755289676E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1370832923591304E-2</c:v>
+                  <c:v>2.4250210784116915E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4437014455698691E-2</c:v>
+                  <c:v>2.6408238647769703E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7996853181237093E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2943258924181336E-3</c:v>
+                  <c:v>3.0513510258160358E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,44 +2546,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2551,44 +2594,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$B$13</c:f>
+              <c:f>Sheet6!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.17817280282651463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.17692988494443898</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1767757739914958</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17189076817502927</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17037074198565194</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17080948405073987</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.17128560431100848</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.17330156697698337</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.1743281060246053</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17335856834261479</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.17442598876783552</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.17549377028163934</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.17502285352647493</c:v>
                 </c:pt>
               </c:numCache>
@@ -2624,44 +2670,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2669,44 +2718,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$2:$C$13</c:f>
+              <c:f>Sheet6!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.17817280282651463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.17692988494443898</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1767757739914958</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17189076817502927</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.17037074198565194</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17080948405073987</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.17128560431100848</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.17330156697698337</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.1743281060246053</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17335856834261479</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.17442598876783552</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.17549377028163934</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.17502285352647493</c:v>
                 </c:pt>
               </c:numCache>
@@ -2742,44 +2794,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2787,44 +2842,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$D$2:$D$13</c:f>
+              <c:f>Sheet6!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>6.4339342353555229E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.4018094207886718E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.1740074287250672E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.0347959472005809E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.531881804043546E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.0013781448359808E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.4546692722212357E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6.7066195069217767E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.0647869475685098E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6.2526011217027685E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7.0449088130817008E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>7.0710308080605749E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6.851035189408018E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2860,44 +2918,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -2905,44 +2966,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$E$2:$E$13</c:f>
+              <c:f>Sheet6!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.17579395350704621</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1761235126364441</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1757500921122076</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.17942921729302064</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.1802538503988361</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17874639117182547</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.17971417855944416</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.18138309596028507</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.18064311737684144</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.17594482649279614</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.17704550415748843</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.17588437963222628</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.17436989562719118</c:v>
                 </c:pt>
               </c:numCache>
@@ -2978,44 +3042,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3023,44 +3090,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$F$2:$F$13</c:f>
+              <c:f>Sheet6!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.11040069056891637</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.11198741272494837</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.11193873791338466</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.11340976062648851</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.11327948627903477</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.11349073021557404</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.11260140936815302</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.11038109132127751</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.11061830086065789</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.11232882141937019</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.1122323430771368</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.11233524297904732</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.1131123991682321</c:v>
                 </c:pt>
               </c:numCache>
@@ -3096,44 +3166,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3141,44 +3214,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$G$2:$G$13</c:f>
+              <c:f>Sheet6!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>5.6951860922632193E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5.6868915330907661E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.7298772169167803E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.8410366124409641E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.7532734661114734E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.7670834632679135E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.7638025305461797E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.6087910242550824E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5.578964042452083E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5.7204859390792527E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5.6815701216487074E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>5.6448058971996312E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5.7420113112399168E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3216,44 +3292,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3261,44 +3340,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$H$2:$H$13</c:f>
+              <c:f>Sheet6!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>1.0338459067731963E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.052217523846986E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9.7589149679847844E-4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.0192548338917369E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.7326042241509053E-4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8.8523171946202055E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8.4877913977221141E-4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6.9270248428300043E-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.3921537567981418E-4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7.3326859430428669E-4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7.1441328808715841E-4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>7.211249549296903E-4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7.4336745456919846E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3336,44 +3418,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3381,44 +3466,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$I$2:$I$13</c:f>
+              <c:f>Sheet6!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>4.5569518609226319E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.3760448421673714E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.2222244351281107E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.9559197513421868E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.1940500677268852E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.134434507941937E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.0761137758828286E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.1591431480179261E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.2947885316014572E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.092431479022573E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.929273084479371E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3.9361403789912267E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3.9077018895597058E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3456,44 +3544,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3501,44 +3592,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$J$2:$J$13</c:f>
+              <c:f>Sheet6!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>8.8127835548239448E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.4472416166781403E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8.593820017725377E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>9.0017357607072215E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.6389404505092058E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8.5907714593246084E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8.3496180493871017E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.4308084677630962E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.6984001267226361E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8.9676767276402631E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9.0194677621003756E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>9.384640038459997E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>9.2418656514008466E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3576,44 +3670,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3621,44 +3718,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$K$2:$K$13</c:f>
+              <c:f>Sheet6!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>4.8620869635042356E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.7349788573114365E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.7509982971689187E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.8328825737698297E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.0438970551347009E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.0136305565894435E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.0018752097274036E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.1795253938433441E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5.134378795078938E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.9465903010364853E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4.9244904844118989E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>4.9557309402668163E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>4.939375370428039E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3696,44 +3796,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3741,44 +3844,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$L$2:$L$13</c:f>
+              <c:f>Sheet6!$L$2:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>3.4397960412735379E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.4556003540171111E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.4534609294868603E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.4503289872038108E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.4766467666683391E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.5006890724179902E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.4898639979471388E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.3638052456469947E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.4415755847721635E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.7257971818704293E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.6752594709372706E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3.675734145266616E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3.6555596853747478E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3816,44 +3922,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3861,44 +3970,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$M$2:$M$13</c:f>
+              <c:f>Sheet6!$M$2:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>4.2227084755289676E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.1370832923591304E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.1545095149420938E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.337383441650184E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.3515777855816985E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.3487008218571759E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.3198910404453131E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.1520167088235603E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.0350599292465282E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.1271131017261542E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4.1257367387033402E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>4.0543247466047032E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>4.0845027976734609E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3937,44 +4049,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -3982,44 +4097,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$N$2:$N$13</c:f>
+              <c:f>Sheet6!$N$2:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>2.4250210784116915E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.4437014455698691E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.4805568556377649E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.5420821055181043E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.6207796116991922E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.5742136023901255E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.5966719962101023E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.394021767650794E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.333808543217699E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.4514952733902771E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.4587723998333037E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.3887264132045991E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2.4852582197354013E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4058,44 +4176,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -4103,44 +4224,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$O$2:$O$13</c:f>
+              <c:f>Sheet6!$O$2:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>2.6408238647769703E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.7996853181237093E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.7633662281793647E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.793363742784483E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.7341594341042493E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.693921073544649E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.6983281024851462E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.8043955121275412E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.7942341200696975E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.8458748687052855E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.8110178404873887E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.8173951364128039E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2.7916461570916252E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4179,44 +4303,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Sheet6!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>41463</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41447</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41440</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41419</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>41412</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41398</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41391</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41377</c:v>
                 </c:pt>
               </c:numCache>
@@ -4224,44 +4351,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$P$2:$P$13</c:f>
+              <c:f>Sheet6!$P$2:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>3.0513510258160358E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.2943258924181336E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.2762071678234632E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.1990473499374319E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.3311593839361864E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.5006890724179904E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.3260298849213401E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.0961701949012901E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.0624636992449441E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.3393448146019542E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.2843166438451311E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.9445935659629021E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3.073924879705064E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -4278,11 +4408,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1435730736"/>
-        <c:axId val="1435736176"/>
+        <c:axId val="-921654960"/>
+        <c:axId val="-921650608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1435730736"/>
+        <c:axId val="-921654960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4325,14 +4455,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1435736176"/>
+        <c:crossAx val="-921650608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1435736176"/>
+        <c:axId val="-921650608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,7 +4513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1435730736"/>
+        <c:crossAx val="-921654960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6127,14 +6257,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>168274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>644524</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549274</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6156,16 +6286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6193,13 +6323,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6485,19 +6615,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C34"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6505,43 +6635,46 @@
         <v>17</v>
       </c>
       <c r="C1" s="1">
+        <v>41463</v>
+      </c>
+      <c r="D1" s="1">
         <v>41454</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>41447</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>41440</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>41433</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>41426</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>41419</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>41412</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>41405</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>41398</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>41391</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>41384</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>41377</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6549,43 +6682,46 @@
         <v>1500</v>
       </c>
       <c r="C2">
+        <v>10034</v>
+      </c>
+      <c r="D2">
         <v>10360</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10262</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10127</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10191</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10244</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10472</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10054</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9947</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10440</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10190</v>
-      </c>
-      <c r="M2">
-        <v>10121</v>
       </c>
       <c r="N2">
         <v>10121</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6593,43 +6729,46 @@
         <v>1500</v>
       </c>
       <c r="C3">
+        <v>17751</v>
+      </c>
+      <c r="D3">
         <v>17992</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>17752</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>17033</v>
-      </c>
-      <c r="F3">
-        <v>16980</v>
       </c>
       <c r="G3">
         <v>16980</v>
       </c>
       <c r="H3">
+        <v>16980</v>
+      </c>
+      <c r="I3">
         <v>17355</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>16512</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>16508</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>17495</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>17579</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>17522</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>17423</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6637,43 +6776,46 @@
         <v>1500</v>
       </c>
       <c r="C4">
+        <v>17751</v>
+      </c>
+      <c r="D4">
         <v>17992</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>17752</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>17033</v>
-      </c>
-      <c r="F4">
-        <v>16980</v>
       </c>
       <c r="G4">
         <v>16980</v>
       </c>
       <c r="H4">
+        <v>16980</v>
+      </c>
+      <c r="I4">
         <v>17355</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16512</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>16508</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>17495</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17579</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>17522</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17423</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6681,43 +6823,46 @@
         <v>1500</v>
       </c>
       <c r="C5">
+        <v>641</v>
+      </c>
+      <c r="D5">
         <v>651</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>620</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>598</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>651</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>696</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>654</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>639</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>669</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>631</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>710</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>706</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6725,43 +6870,46 @@
         <v>1500</v>
       </c>
       <c r="C6">
+        <v>17514</v>
+      </c>
+      <c r="D6">
         <v>17910</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>17649</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>17780</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>17965</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17769</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>18209</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17282</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17106</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>17756</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>17843</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>17561</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>17358</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6769,43 +6917,46 @@
         <v>1500</v>
       </c>
       <c r="C7">
+        <v>10999</v>
+      </c>
+      <c r="D7">
         <v>11388</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>11241</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11238</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>11290</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11282</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11409</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>10517</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10475</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11336</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>11311</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>11216</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>11260</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6813,43 +6964,46 @@
         <v>1500</v>
       </c>
       <c r="C8">
+        <v>5674</v>
+      </c>
+      <c r="D8">
         <v>5783</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5754</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5788</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5734</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5733</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5840</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5344</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5283</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5773</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5726</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5636</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>5716</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6857,43 +7011,46 @@
         <v>1500</v>
       </c>
       <c r="C9">
+        <v>103</v>
+      </c>
+      <c r="D9">
         <v>107</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>98</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>101</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>97</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>88</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>86</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>66</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>70</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>74</v>
-      </c>
-      <c r="L9">
-        <v>72</v>
       </c>
       <c r="M9">
         <v>72</v>
       </c>
       <c r="N9">
+        <v>72</v>
+      </c>
+      <c r="O9">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6901,43 +7058,46 @@
         <v>1500</v>
       </c>
       <c r="C10">
+        <v>454</v>
+      </c>
+      <c r="D10">
         <v>445</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>424</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>392</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>418</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>411</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>413</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>301</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>312</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>413</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>396</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>393</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6945,43 +7105,46 @@
         <v>1500</v>
       </c>
       <c r="C11">
+        <v>878</v>
+      </c>
+      <c r="D11">
         <v>859</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>863</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>892</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>861</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>854</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>846</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>708</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>729</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>905</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>909</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>937</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>920</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6989,43 +7152,46 @@
         <v>1500</v>
       </c>
       <c r="C12">
+        <v>4844</v>
+      </c>
+      <c r="D12">
         <v>4815</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4771</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4789</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5027</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4984</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5068</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4935</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4862</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4992</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4963</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4948</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4917</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7033,43 +7199,49 @@
         <v>1500</v>
       </c>
       <c r="C13">
+        <v>3427</v>
+      </c>
+      <c r="D13">
         <v>3514</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3468</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3419</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3465</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3480</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3536</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3205</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3259</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3760</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3704</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3670</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3639</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -7080,40 +7252,46 @@
         <v>4207</v>
       </c>
       <c r="D14">
+        <v>4207</v>
+      </c>
+      <c r="E14">
         <v>4172</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4298</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4337</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4323</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4377</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3956</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3821</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4165</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4158</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4048</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4066</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>17751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -7121,43 +7299,49 @@
         <v>1500</v>
       </c>
       <c r="C15">
+        <v>2416</v>
+      </c>
+      <c r="D15">
         <v>2485</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2491</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2519</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2612</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2559</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2631</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2281</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2210</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2474</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2478</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2385</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2474</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>17751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -7165,43 +7349,49 @@
         <v>1500</v>
       </c>
       <c r="C16">
+        <v>2631</v>
+      </c>
+      <c r="D16">
         <v>2847</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2775</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2768</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2725</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2678</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2734</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2672</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2646</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2872</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2833</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2813</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2779</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -7209,96 +7399,109 @@
         <v>1500</v>
       </c>
       <c r="C17">
+        <v>304</v>
+      </c>
+      <c r="D17">
         <v>335</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>329</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>317</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>332</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>348</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>337</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>295</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>290</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>337</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>331</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>294</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>306</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>17514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <f>SUM(C2:C17)</f>
+        <f t="shared" ref="C18:O18" si="0">SUM(C2:C17)</f>
+        <v>99628</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
         <v>101690</v>
       </c>
-      <c r="D18">
-        <f>SUM(D2:D17)</f>
+      <c r="E18">
+        <f t="shared" si="0"/>
         <v>100421</v>
       </c>
-      <c r="E18">
-        <f>SUM(E2:E17)</f>
+      <c r="F18">
+        <f t="shared" si="0"/>
         <v>99092</v>
       </c>
-      <c r="F18">
-        <f>SUM(F2:F17)</f>
+      <c r="G18">
+        <f t="shared" si="0"/>
         <v>99665</v>
       </c>
-      <c r="G18">
-        <f>SUM(G2:G17)</f>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>99409</v>
       </c>
-      <c r="H18">
-        <f>SUM(H2:H17)</f>
+      <c r="I18">
+        <f t="shared" si="0"/>
         <v>101322</v>
       </c>
-      <c r="I18">
-        <f>SUM(I2:I17)</f>
+      <c r="J18">
+        <f t="shared" si="0"/>
         <v>95279</v>
       </c>
-      <c r="J18">
-        <f>SUM(J2:J17)</f>
+      <c r="K18">
+        <f t="shared" si="0"/>
         <v>94695</v>
       </c>
-      <c r="K18">
-        <f>SUM(K2:K17)</f>
+      <c r="L18">
+        <f t="shared" si="0"/>
         <v>100918</v>
       </c>
-      <c r="L18">
-        <f>SUM(L2:L17)</f>
+      <c r="M18">
+        <f t="shared" si="0"/>
         <v>100782</v>
       </c>
-      <c r="M18">
-        <f>SUM(M2:M17)</f>
+      <c r="N18">
+        <f t="shared" si="0"/>
         <v>99844</v>
       </c>
-      <c r="N18">
-        <f>SUM(N2:N17)</f>
+      <c r="O18">
+        <f t="shared" si="0"/>
         <v>99547</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -7306,55 +7509,62 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <f>C2/C18</f>
+        <f t="shared" ref="C19:O19" si="1">C2/C18</f>
+        <v>0.10071465852973059</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10187825744911004</v>
       </c>
-      <c r="D19" s="2">
-        <f>D2/D18</f>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10218978102189781</v>
       </c>
-      <c r="E19" s="2">
-        <f>E2/E18</f>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10219795745367941</v>
       </c>
-      <c r="F19" s="2">
-        <f>F2/F18</f>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10225254602919781</v>
       </c>
-      <c r="G19" s="2">
-        <f>G2/G18</f>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10304901970646521</v>
       </c>
-      <c r="H19" s="2">
-        <f>H2/H18</f>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10335366455458835</v>
       </c>
-      <c r="I19" s="2">
-        <f>I2/I18</f>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10552167843911041</v>
       </c>
-      <c r="J19" s="2">
-        <f>J2/J18</f>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10504250488410159</v>
       </c>
-      <c r="K19" s="2">
-        <f>K2/K18</f>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10345032600725342</v>
       </c>
-      <c r="L19" s="2">
-        <f>L2/L18</f>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10110932507789089</v>
       </c>
-      <c r="M19" s="2">
-        <f>M2/M18</f>
+      <c r="N19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10136813428949161</v>
       </c>
-      <c r="N19" s="2">
-        <f>N2/N18</f>
+      <c r="O19" s="2">
+        <f t="shared" si="1"/>
         <v>0.10167056767155214</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -7362,55 +7572,62 @@
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <f>C3/C18</f>
+        <f t="shared" ref="C20" si="2">C3/C18</f>
+        <v>0.17817280282651463</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:O20" si="3">D3/D18</f>
         <v>0.17692988494443898</v>
       </c>
-      <c r="D20" s="2">
-        <f>D3/D18</f>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
         <v>0.1767757739914958</v>
       </c>
-      <c r="E20" s="2">
-        <f>E3/E18</f>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17189076817502927</v>
       </c>
-      <c r="F20" s="2">
-        <f>F3/F18</f>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17037074198565194</v>
       </c>
-      <c r="G20" s="2">
-        <f>G3/G18</f>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17080948405073987</v>
       </c>
-      <c r="H20" s="2">
-        <f>H3/H18</f>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17128560431100848</v>
       </c>
-      <c r="I20" s="2">
-        <f>I3/I18</f>
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17330156697698337</v>
       </c>
-      <c r="J20" s="2">
-        <f>J3/J18</f>
+      <c r="K20" s="2">
+        <f t="shared" si="3"/>
         <v>0.1743281060246053</v>
       </c>
-      <c r="K20" s="2">
-        <f>K3/K18</f>
+      <c r="L20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17335856834261479</v>
       </c>
-      <c r="L20" s="2">
-        <f>L3/L18</f>
+      <c r="M20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17442598876783552</v>
       </c>
-      <c r="M20" s="2">
-        <f>M3/M18</f>
+      <c r="N20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17549377028163934</v>
       </c>
-      <c r="N20" s="2">
-        <f>N3/N18</f>
+      <c r="O20" s="2">
+        <f t="shared" si="3"/>
         <v>0.17502285352647493</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -7418,55 +7635,62 @@
         <v>9</v>
       </c>
       <c r="C21" s="2">
-        <f>C4/C18</f>
+        <f t="shared" ref="C21" si="4">C4/C18</f>
+        <v>0.17817280282651463</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:O21" si="5">D4/D18</f>
         <v>0.17692988494443898</v>
       </c>
-      <c r="D21" s="2">
-        <f>D4/D18</f>
+      <c r="E21" s="2">
+        <f t="shared" si="5"/>
         <v>0.1767757739914958</v>
       </c>
-      <c r="E21" s="2">
-        <f>E4/E18</f>
+      <c r="F21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17189076817502927</v>
       </c>
-      <c r="F21" s="2">
-        <f>F4/F18</f>
+      <c r="G21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17037074198565194</v>
       </c>
-      <c r="G21" s="2">
-        <f>G4/G18</f>
+      <c r="H21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17080948405073987</v>
       </c>
-      <c r="H21" s="2">
-        <f>H4/H18</f>
+      <c r="I21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17128560431100848</v>
       </c>
-      <c r="I21" s="2">
-        <f>I4/I18</f>
+      <c r="J21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17330156697698337</v>
       </c>
-      <c r="J21" s="2">
-        <f>J4/J18</f>
+      <c r="K21" s="2">
+        <f t="shared" si="5"/>
         <v>0.1743281060246053</v>
       </c>
-      <c r="K21" s="2">
-        <f>K4/K18</f>
+      <c r="L21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17335856834261479</v>
       </c>
-      <c r="L21" s="2">
-        <f>L4/L18</f>
+      <c r="M21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17442598876783552</v>
       </c>
-      <c r="M21" s="2">
-        <f>M4/M18</f>
+      <c r="N21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17549377028163934</v>
       </c>
-      <c r="N21" s="2">
-        <f>N4/N18</f>
+      <c r="O21" s="2">
+        <f t="shared" si="5"/>
         <v>0.17502285352647493</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -7474,55 +7698,62 @@
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <f>C5/C18</f>
+        <f t="shared" ref="C22" si="6">C5/C18</f>
+        <v>6.4339342353555229E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:O22" si="7">D5/D18</f>
         <v>6.4018094207886718E-3</v>
       </c>
-      <c r="D22" s="2">
-        <f>D5/D18</f>
+      <c r="E22" s="2">
+        <f t="shared" si="7"/>
         <v>6.1740074287250672E-3</v>
       </c>
-      <c r="E22" s="2">
-        <f>E5/E18</f>
+      <c r="F22" s="2">
+        <f t="shared" si="7"/>
         <v>6.0347959472005809E-3</v>
       </c>
-      <c r="F22" s="2">
-        <f>F5/F18</f>
+      <c r="G22" s="2">
+        <f t="shared" si="7"/>
         <v>6.531881804043546E-3</v>
       </c>
-      <c r="G22" s="2">
-        <f>G5/G18</f>
+      <c r="H22" s="2">
+        <f t="shared" si="7"/>
         <v>7.0013781448359808E-3</v>
       </c>
-      <c r="H22" s="2">
-        <f>H5/H18</f>
+      <c r="I22" s="2">
+        <f t="shared" si="7"/>
         <v>6.4546692722212357E-3</v>
       </c>
-      <c r="I22" s="2">
-        <f>I5/I18</f>
+      <c r="J22" s="2">
+        <f t="shared" si="7"/>
         <v>6.7066195069217767E-3</v>
       </c>
-      <c r="J22" s="2">
-        <f>J5/J18</f>
+      <c r="K22" s="2">
+        <f t="shared" si="7"/>
         <v>7.0647869475685098E-3</v>
       </c>
-      <c r="K22" s="2">
-        <f>K5/K18</f>
+      <c r="L22" s="2">
+        <f t="shared" si="7"/>
         <v>6.2526011217027685E-3</v>
       </c>
-      <c r="L22" s="2">
-        <f>L5/L18</f>
+      <c r="M22" s="2">
+        <f t="shared" si="7"/>
         <v>7.0449088130817008E-3</v>
       </c>
-      <c r="M22" s="2">
-        <f>M5/M18</f>
+      <c r="N22" s="2">
+        <f t="shared" si="7"/>
         <v>7.0710308080605749E-3</v>
       </c>
-      <c r="N22" s="2">
-        <f>N5/N18</f>
+      <c r="O22" s="2">
+        <f t="shared" si="7"/>
         <v>6.851035189408018E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -7530,55 +7761,62 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <f>C6/C18</f>
+        <f t="shared" ref="C23" si="8">C6/C18</f>
+        <v>0.17579395350704621</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:O23" si="9">D6/D18</f>
         <v>0.1761235126364441</v>
       </c>
-      <c r="D23" s="2">
-        <f>D6/D18</f>
+      <c r="E23" s="2">
+        <f t="shared" si="9"/>
         <v>0.1757500921122076</v>
       </c>
-      <c r="E23" s="2">
-        <f>E6/E18</f>
+      <c r="F23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17942921729302064</v>
       </c>
-      <c r="F23" s="2">
-        <f>F6/F18</f>
+      <c r="G23" s="2">
+        <f t="shared" si="9"/>
         <v>0.1802538503988361</v>
       </c>
-      <c r="G23" s="2">
-        <f>G6/G18</f>
+      <c r="H23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17874639117182547</v>
       </c>
-      <c r="H23" s="2">
-        <f>H6/H18</f>
+      <c r="I23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17971417855944416</v>
       </c>
-      <c r="I23" s="2">
-        <f>I6/I18</f>
+      <c r="J23" s="2">
+        <f t="shared" si="9"/>
         <v>0.18138309596028507</v>
       </c>
-      <c r="J23" s="2">
-        <f>J6/J18</f>
+      <c r="K23" s="2">
+        <f t="shared" si="9"/>
         <v>0.18064311737684144</v>
       </c>
-      <c r="K23" s="2">
-        <f>K6/K18</f>
+      <c r="L23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17594482649279614</v>
       </c>
-      <c r="L23" s="2">
-        <f>L6/L18</f>
+      <c r="M23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17704550415748843</v>
       </c>
-      <c r="M23" s="2">
-        <f>M6/M18</f>
+      <c r="N23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17588437963222628</v>
       </c>
-      <c r="N23" s="2">
-        <f>N6/N18</f>
+      <c r="O23" s="2">
+        <f t="shared" si="9"/>
         <v>0.17436989562719118</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -7586,55 +7824,62 @@
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f>C7/C18</f>
+        <f t="shared" ref="C24" si="10">C7/C18</f>
+        <v>0.11040069056891637</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:O24" si="11">D7/D18</f>
         <v>0.11198741272494837</v>
       </c>
-      <c r="D24" s="2">
-        <f>D7/D18</f>
+      <c r="E24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11193873791338466</v>
       </c>
-      <c r="E24" s="2">
-        <f>E7/E18</f>
+      <c r="F24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11340976062648851</v>
       </c>
-      <c r="F24" s="2">
-        <f>F7/F18</f>
+      <c r="G24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11327948627903477</v>
       </c>
-      <c r="G24" s="2">
-        <f>G7/G18</f>
+      <c r="H24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11349073021557404</v>
       </c>
-      <c r="H24" s="2">
-        <f>H7/H18</f>
+      <c r="I24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11260140936815302</v>
       </c>
-      <c r="I24" s="2">
-        <f>I7/I18</f>
+      <c r="J24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11038109132127751</v>
       </c>
-      <c r="J24" s="2">
-        <f>J7/J18</f>
+      <c r="K24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11061830086065789</v>
       </c>
-      <c r="K24" s="2">
-        <f>K7/K18</f>
+      <c r="L24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11232882141937019</v>
       </c>
-      <c r="L24" s="2">
-        <f>L7/L18</f>
+      <c r="M24" s="2">
+        <f t="shared" si="11"/>
         <v>0.1122323430771368</v>
       </c>
-      <c r="M24" s="2">
-        <f>M7/M18</f>
+      <c r="N24" s="2">
+        <f t="shared" si="11"/>
         <v>0.11233524297904732</v>
       </c>
-      <c r="N24" s="2">
-        <f>N7/N18</f>
+      <c r="O24" s="2">
+        <f t="shared" si="11"/>
         <v>0.1131123991682321</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -7642,55 +7887,62 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <f>C8/C18</f>
+        <f t="shared" ref="C25" si="12">C8/C18</f>
+        <v>5.6951860922632193E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:O25" si="13">D8/D18</f>
         <v>5.6868915330907661E-2</v>
       </c>
-      <c r="D25" s="2">
-        <f>D8/D18</f>
+      <c r="E25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7298772169167803E-2</v>
       </c>
-      <c r="E25" s="2">
-        <f>E8/E18</f>
+      <c r="F25" s="2">
+        <f t="shared" si="13"/>
         <v>5.8410366124409641E-2</v>
       </c>
-      <c r="F25" s="2">
-        <f>F8/F18</f>
+      <c r="G25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7532734661114734E-2</v>
       </c>
-      <c r="G25" s="2">
-        <f>G8/G18</f>
+      <c r="H25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7670834632679135E-2</v>
       </c>
-      <c r="H25" s="2">
-        <f>H8/H18</f>
+      <c r="I25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7638025305461797E-2</v>
       </c>
-      <c r="I25" s="2">
-        <f>I8/I18</f>
+      <c r="J25" s="2">
+        <f t="shared" si="13"/>
         <v>5.6087910242550824E-2</v>
       </c>
-      <c r="J25" s="2">
-        <f>J8/J18</f>
+      <c r="K25" s="2">
+        <f t="shared" si="13"/>
         <v>5.578964042452083E-2</v>
       </c>
-      <c r="K25" s="2">
-        <f>K8/K18</f>
+      <c r="L25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7204859390792527E-2</v>
       </c>
-      <c r="L25" s="2">
-        <f>L8/L18</f>
+      <c r="M25" s="2">
+        <f t="shared" si="13"/>
         <v>5.6815701216487074E-2</v>
       </c>
-      <c r="M25" s="2">
-        <f>M8/M18</f>
+      <c r="N25" s="2">
+        <f t="shared" si="13"/>
         <v>5.6448058971996312E-2</v>
       </c>
-      <c r="N25" s="2">
-        <f>N8/N18</f>
+      <c r="O25" s="2">
+        <f t="shared" si="13"/>
         <v>5.7420113112399168E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -7698,55 +7950,62 @@
         <v>14</v>
       </c>
       <c r="C26" s="2">
-        <f>C9/C18</f>
+        <f t="shared" ref="C26" si="14">C9/C18</f>
+        <v>1.0338459067731963E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:O26" si="15">D9/D18</f>
         <v>1.052217523846986E-3</v>
       </c>
-      <c r="D26" s="2">
-        <f>D9/D18</f>
+      <c r="E26" s="2">
+        <f t="shared" si="15"/>
         <v>9.7589149679847844E-4</v>
       </c>
-      <c r="E26" s="2">
-        <f>E9/E18</f>
+      <c r="F26" s="2">
+        <f t="shared" si="15"/>
         <v>1.0192548338917369E-3</v>
       </c>
-      <c r="F26" s="2">
-        <f>F9/F18</f>
+      <c r="G26" s="2">
+        <f t="shared" si="15"/>
         <v>9.7326042241509053E-4</v>
       </c>
-      <c r="G26" s="2">
-        <f>G9/G18</f>
+      <c r="H26" s="2">
+        <f t="shared" si="15"/>
         <v>8.8523171946202055E-4</v>
       </c>
-      <c r="H26" s="2">
-        <f>H9/H18</f>
+      <c r="I26" s="2">
+        <f t="shared" si="15"/>
         <v>8.4877913977221141E-4</v>
       </c>
-      <c r="I26" s="2">
-        <f>I9/I18</f>
+      <c r="J26" s="2">
+        <f t="shared" si="15"/>
         <v>6.9270248428300043E-4</v>
       </c>
-      <c r="J26" s="2">
-        <f>J9/J18</f>
+      <c r="K26" s="2">
+        <f t="shared" si="15"/>
         <v>7.3921537567981418E-4</v>
       </c>
-      <c r="K26" s="2">
-        <f>K9/K18</f>
+      <c r="L26" s="2">
+        <f t="shared" si="15"/>
         <v>7.3326859430428669E-4</v>
       </c>
-      <c r="L26" s="2">
-        <f>L9/L18</f>
+      <c r="M26" s="2">
+        <f t="shared" si="15"/>
         <v>7.1441328808715841E-4</v>
       </c>
-      <c r="M26" s="2">
-        <f>M9/M18</f>
+      <c r="N26" s="2">
+        <f t="shared" si="15"/>
         <v>7.211249549296903E-4</v>
       </c>
-      <c r="N26" s="2">
-        <f>N9/N18</f>
+      <c r="O26" s="2">
+        <f t="shared" si="15"/>
         <v>7.4336745456919846E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -7754,55 +8013,62 @@
         <v>13</v>
       </c>
       <c r="C27" s="2">
-        <f>C10/C18</f>
+        <f t="shared" ref="C27" si="16">C10/C18</f>
+        <v>4.5569518609226319E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:O27" si="17">D10/D18</f>
         <v>4.3760448421673714E-3</v>
       </c>
-      <c r="D27" s="2">
-        <f>D10/D18</f>
+      <c r="E27" s="2">
+        <f t="shared" si="17"/>
         <v>4.2222244351281107E-3</v>
       </c>
-      <c r="E27" s="2">
-        <f>E10/E18</f>
+      <c r="F27" s="2">
+        <f t="shared" si="17"/>
         <v>3.9559197513421868E-3</v>
       </c>
-      <c r="F27" s="2">
-        <f>F10/F18</f>
+      <c r="G27" s="2">
+        <f t="shared" si="17"/>
         <v>4.1940500677268852E-3</v>
       </c>
-      <c r="G27" s="2">
-        <f>G10/G18</f>
+      <c r="H27" s="2">
+        <f t="shared" si="17"/>
         <v>4.134434507941937E-3</v>
       </c>
-      <c r="H27" s="2">
-        <f>H10/H18</f>
+      <c r="I27" s="2">
+        <f t="shared" si="17"/>
         <v>4.0761137758828286E-3</v>
       </c>
-      <c r="I27" s="2">
-        <f>I10/I18</f>
+      <c r="J27" s="2">
+        <f t="shared" si="17"/>
         <v>3.1591431480179261E-3</v>
       </c>
-      <c r="J27" s="2">
-        <f>J10/J18</f>
+      <c r="K27" s="2">
+        <f t="shared" si="17"/>
         <v>3.2947885316014572E-3</v>
       </c>
-      <c r="K27" s="2">
-        <f>K10/K18</f>
+      <c r="L27" s="2">
+        <f t="shared" si="17"/>
         <v>4.092431479022573E-3</v>
       </c>
-      <c r="L27" s="2">
-        <f>L10/L18</f>
+      <c r="M27" s="2">
+        <f t="shared" si="17"/>
         <v>3.929273084479371E-3</v>
       </c>
-      <c r="M27" s="2">
-        <f>M10/M18</f>
+      <c r="N27" s="2">
+        <f t="shared" si="17"/>
         <v>3.9361403789912267E-3</v>
       </c>
-      <c r="N27" s="2">
-        <f>N10/N18</f>
+      <c r="O27" s="2">
+        <f t="shared" si="17"/>
         <v>3.9077018895597058E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7810,55 +8076,62 @@
         <v>10</v>
       </c>
       <c r="C28" s="2">
-        <f>C11/C18</f>
+        <f t="shared" ref="C28" si="18">C11/C18</f>
+        <v>8.8127835548239448E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:O28" si="19">D11/D18</f>
         <v>8.4472416166781403E-3</v>
       </c>
-      <c r="D28" s="2">
-        <f>D11/D18</f>
+      <c r="E28" s="2">
+        <f t="shared" si="19"/>
         <v>8.593820017725377E-3</v>
       </c>
-      <c r="E28" s="2">
-        <f>E11/E18</f>
+      <c r="F28" s="2">
+        <f t="shared" si="19"/>
         <v>9.0017357607072215E-3</v>
       </c>
-      <c r="F28" s="2">
-        <f>F11/F18</f>
+      <c r="G28" s="2">
+        <f t="shared" si="19"/>
         <v>8.6389404505092058E-3</v>
       </c>
-      <c r="G28" s="2">
-        <f>G11/G18</f>
+      <c r="H28" s="2">
+        <f t="shared" si="19"/>
         <v>8.5907714593246084E-3</v>
       </c>
-      <c r="H28" s="2">
-        <f>H11/H18</f>
+      <c r="I28" s="2">
+        <f t="shared" si="19"/>
         <v>8.3496180493871017E-3</v>
       </c>
-      <c r="I28" s="2">
-        <f>I11/I18</f>
+      <c r="J28" s="2">
+        <f t="shared" si="19"/>
         <v>7.4308084677630962E-3</v>
       </c>
-      <c r="J28" s="2">
-        <f>J11/J18</f>
+      <c r="K28" s="2">
+        <f t="shared" si="19"/>
         <v>7.6984001267226361E-3</v>
       </c>
-      <c r="K28" s="2">
-        <f>K11/K18</f>
+      <c r="L28" s="2">
+        <f t="shared" si="19"/>
         <v>8.9676767276402631E-3</v>
       </c>
-      <c r="L28" s="2">
-        <f>L11/L18</f>
+      <c r="M28" s="2">
+        <f t="shared" si="19"/>
         <v>9.0194677621003756E-3</v>
       </c>
-      <c r="M28" s="2">
-        <f>M11/M18</f>
+      <c r="N28" s="2">
+        <f t="shared" si="19"/>
         <v>9.384640038459997E-3</v>
       </c>
-      <c r="N28" s="2">
-        <f>N11/N18</f>
+      <c r="O28" s="2">
+        <f t="shared" si="19"/>
         <v>9.2418656514008466E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7866,55 +8139,59 @@
         <v>6</v>
       </c>
       <c r="C29" s="2">
-        <f>C12/C18</f>
+        <f t="shared" ref="C29" si="20">C12/C18</f>
+        <v>4.8620869635042356E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:O29" si="21">D12/D18</f>
         <v>4.7349788573114365E-2</v>
       </c>
-      <c r="D29" s="2">
-        <f>D12/D18</f>
+      <c r="E29" s="2">
+        <f t="shared" si="21"/>
         <v>4.7509982971689187E-2</v>
       </c>
-      <c r="E29" s="2">
-        <f>E12/E18</f>
+      <c r="F29" s="2">
+        <f t="shared" si="21"/>
         <v>4.8328825737698297E-2</v>
       </c>
-      <c r="F29" s="2">
-        <f>F12/F18</f>
+      <c r="G29" s="2">
+        <f t="shared" si="21"/>
         <v>5.0438970551347009E-2</v>
       </c>
-      <c r="G29" s="2">
-        <f>G12/G18</f>
+      <c r="H29" s="2">
+        <f t="shared" si="21"/>
         <v>5.0136305565894435E-2</v>
       </c>
-      <c r="H29" s="2">
-        <f>H12/H18</f>
+      <c r="I29" s="2">
+        <f t="shared" si="21"/>
         <v>5.0018752097274036E-2</v>
       </c>
-      <c r="I29" s="2">
-        <f>I12/I18</f>
+      <c r="J29" s="2">
+        <f t="shared" si="21"/>
         <v>5.1795253938433441E-2</v>
       </c>
-      <c r="J29" s="2">
-        <f>J12/J18</f>
+      <c r="K29" s="2">
+        <f t="shared" si="21"/>
         <v>5.134378795078938E-2</v>
       </c>
-      <c r="K29" s="2">
-        <f>K12/K18</f>
+      <c r="L29" s="2">
+        <f t="shared" si="21"/>
         <v>4.9465903010364853E-2</v>
       </c>
-      <c r="L29" s="2">
-        <f>L12/L18</f>
+      <c r="M29" s="2">
+        <f t="shared" si="21"/>
         <v>4.9244904844118989E-2</v>
       </c>
-      <c r="M29" s="2">
-        <f>M12/M18</f>
+      <c r="N29" s="2">
+        <f t="shared" si="21"/>
         <v>4.9557309402668163E-2</v>
       </c>
-      <c r="N29" s="2">
-        <f>N12/N18</f>
+      <c r="O29" s="2">
+        <f t="shared" si="21"/>
         <v>4.939375370428039E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7922,55 +8199,59 @@
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <f>C13/C18</f>
+        <f t="shared" ref="C30" si="22">C13/C18</f>
+        <v>3.4397960412735379E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:O30" si="23">D13/D18</f>
         <v>3.4556003540171111E-2</v>
       </c>
-      <c r="D30" s="2">
-        <f>D13/D18</f>
+      <c r="E30" s="2">
+        <f t="shared" si="23"/>
         <v>3.4534609294868603E-2</v>
       </c>
-      <c r="E30" s="2">
-        <f>E13/E18</f>
+      <c r="F30" s="2">
+        <f t="shared" si="23"/>
         <v>3.4503289872038108E-2</v>
       </c>
-      <c r="F30" s="2">
-        <f>F13/F18</f>
+      <c r="G30" s="2">
+        <f t="shared" si="23"/>
         <v>3.4766467666683391E-2</v>
       </c>
-      <c r="G30" s="2">
-        <f>G13/G18</f>
+      <c r="H30" s="2">
+        <f t="shared" si="23"/>
         <v>3.5006890724179902E-2</v>
       </c>
-      <c r="H30" s="2">
-        <f>H13/H18</f>
+      <c r="I30" s="2">
+        <f t="shared" si="23"/>
         <v>3.4898639979471388E-2</v>
       </c>
-      <c r="I30" s="2">
-        <f>I13/I18</f>
+      <c r="J30" s="2">
+        <f t="shared" si="23"/>
         <v>3.3638052456469947E-2</v>
       </c>
-      <c r="J30" s="2">
-        <f>J13/J18</f>
+      <c r="K30" s="2">
+        <f t="shared" si="23"/>
         <v>3.4415755847721635E-2</v>
       </c>
-      <c r="K30" s="2">
-        <f>K13/K18</f>
+      <c r="L30" s="2">
+        <f t="shared" si="23"/>
         <v>3.7257971818704293E-2</v>
       </c>
-      <c r="L30" s="2">
-        <f>L13/L18</f>
+      <c r="M30" s="2">
+        <f t="shared" si="23"/>
         <v>3.6752594709372706E-2</v>
       </c>
-      <c r="M30" s="2">
-        <f>M13/M18</f>
+      <c r="N30" s="2">
+        <f t="shared" si="23"/>
         <v>3.675734145266616E-2</v>
       </c>
-      <c r="N30" s="2">
-        <f>N13/N18</f>
+      <c r="O30" s="2">
+        <f t="shared" si="23"/>
         <v>3.6555596853747478E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -7978,55 +8259,59 @@
         <v>7</v>
       </c>
       <c r="C31" s="2">
-        <f>C14/C18</f>
+        <f t="shared" ref="C31" si="24">C14/C18</f>
+        <v>4.2227084755289676E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:O31" si="25">D14/D18</f>
         <v>4.1370832923591304E-2</v>
       </c>
-      <c r="D31" s="2">
-        <f>D14/D18</f>
+      <c r="E31" s="2">
+        <f t="shared" si="25"/>
         <v>4.1545095149420938E-2</v>
       </c>
-      <c r="E31" s="2">
-        <f>E14/E18</f>
+      <c r="F31" s="2">
+        <f t="shared" si="25"/>
         <v>4.337383441650184E-2</v>
       </c>
-      <c r="F31" s="2">
-        <f>F14/F18</f>
+      <c r="G31" s="2">
+        <f t="shared" si="25"/>
         <v>4.3515777855816985E-2</v>
       </c>
-      <c r="G31" s="2">
-        <f>G14/G18</f>
+      <c r="H31" s="2">
+        <f t="shared" si="25"/>
         <v>4.3487008218571759E-2</v>
       </c>
-      <c r="H31" s="2">
-        <f>H14/H18</f>
+      <c r="I31" s="2">
+        <f t="shared" si="25"/>
         <v>4.3198910404453131E-2</v>
       </c>
-      <c r="I31" s="2">
-        <f>I14/I18</f>
+      <c r="J31" s="2">
+        <f t="shared" si="25"/>
         <v>4.1520167088235603E-2</v>
       </c>
-      <c r="J31" s="2">
-        <f>J14/J18</f>
+      <c r="K31" s="2">
+        <f t="shared" si="25"/>
         <v>4.0350599292465282E-2</v>
       </c>
-      <c r="K31" s="2">
-        <f>K14/K18</f>
+      <c r="L31" s="2">
+        <f t="shared" si="25"/>
         <v>4.1271131017261542E-2</v>
       </c>
-      <c r="L31" s="2">
-        <f>L14/L18</f>
+      <c r="M31" s="2">
+        <f t="shared" si="25"/>
         <v>4.1257367387033402E-2</v>
       </c>
-      <c r="M31" s="2">
-        <f>M14/M18</f>
+      <c r="N31" s="2">
+        <f t="shared" si="25"/>
         <v>4.0543247466047032E-2</v>
       </c>
-      <c r="N31" s="2">
-        <f>N14/N18</f>
+      <c r="O31" s="2">
+        <f t="shared" si="25"/>
         <v>4.0845027976734609E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -8034,55 +8319,59 @@
         <v>8</v>
       </c>
       <c r="C32" s="2">
-        <f>C15/C18</f>
+        <f t="shared" ref="C32" si="26">C15/C18</f>
+        <v>2.4250210784116915E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:O32" si="27">D15/D18</f>
         <v>2.4437014455698691E-2</v>
       </c>
-      <c r="D32" s="2">
-        <f>D15/D18</f>
+      <c r="E32" s="2">
+        <f t="shared" si="27"/>
         <v>2.4805568556377649E-2</v>
       </c>
-      <c r="E32" s="2">
-        <f>E15/E18</f>
+      <c r="F32" s="2">
+        <f t="shared" si="27"/>
         <v>2.5420821055181043E-2</v>
       </c>
-      <c r="F32" s="2">
-        <f>F15/F18</f>
+      <c r="G32" s="2">
+        <f t="shared" si="27"/>
         <v>2.6207796116991922E-2</v>
       </c>
-      <c r="G32" s="2">
-        <f>G15/G18</f>
+      <c r="H32" s="2">
+        <f t="shared" si="27"/>
         <v>2.5742136023901255E-2</v>
       </c>
-      <c r="H32" s="2">
-        <f>H15/H18</f>
+      <c r="I32" s="2">
+        <f t="shared" si="27"/>
         <v>2.5966719962101023E-2</v>
       </c>
-      <c r="I32" s="2">
-        <f>I15/I18</f>
+      <c r="J32" s="2">
+        <f t="shared" si="27"/>
         <v>2.394021767650794E-2</v>
       </c>
-      <c r="J32" s="2">
-        <f>J15/J18</f>
+      <c r="K32" s="2">
+        <f t="shared" si="27"/>
         <v>2.333808543217699E-2</v>
       </c>
-      <c r="K32" s="2">
-        <f>K15/K18</f>
+      <c r="L32" s="2">
+        <f t="shared" si="27"/>
         <v>2.4514952733902771E-2</v>
       </c>
-      <c r="L32" s="2">
-        <f>L15/L18</f>
+      <c r="M32" s="2">
+        <f t="shared" si="27"/>
         <v>2.4587723998333037E-2</v>
       </c>
-      <c r="M32" s="2">
-        <f>M15/M18</f>
+      <c r="N32" s="2">
+        <f t="shared" si="27"/>
         <v>2.3887264132045991E-2</v>
       </c>
-      <c r="N32" s="2">
-        <f>N15/N18</f>
+      <c r="O32" s="2">
+        <f t="shared" si="27"/>
         <v>2.4852582197354013E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -8090,55 +8379,59 @@
         <v>15</v>
       </c>
       <c r="C33" s="2">
-        <f>C16/C18</f>
+        <f t="shared" ref="C33" si="28">C16/C18</f>
+        <v>2.6408238647769703E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:O33" si="29">D16/D18</f>
         <v>2.7996853181237093E-2</v>
       </c>
-      <c r="D33" s="2">
-        <f>D16/D18</f>
+      <c r="E33" s="2">
+        <f t="shared" si="29"/>
         <v>2.7633662281793647E-2</v>
       </c>
-      <c r="E33" s="2">
-        <f>E16/E18</f>
+      <c r="F33" s="2">
+        <f t="shared" si="29"/>
         <v>2.793363742784483E-2</v>
       </c>
-      <c r="F33" s="2">
-        <f>F16/F18</f>
+      <c r="G33" s="2">
+        <f t="shared" si="29"/>
         <v>2.7341594341042493E-2</v>
       </c>
-      <c r="G33" s="2">
-        <f>G16/G18</f>
+      <c r="H33" s="2">
+        <f t="shared" si="29"/>
         <v>2.693921073544649E-2</v>
       </c>
-      <c r="H33" s="2">
-        <f>H16/H18</f>
+      <c r="I33" s="2">
+        <f t="shared" si="29"/>
         <v>2.6983281024851462E-2</v>
       </c>
-      <c r="I33" s="2">
-        <f>I16/I18</f>
+      <c r="J33" s="2">
+        <f t="shared" si="29"/>
         <v>2.8043955121275412E-2</v>
       </c>
-      <c r="J33" s="2">
-        <f>J16/J18</f>
+      <c r="K33" s="2">
+        <f t="shared" si="29"/>
         <v>2.7942341200696975E-2</v>
       </c>
-      <c r="K33" s="2">
-        <f>K16/K18</f>
+      <c r="L33" s="2">
+        <f t="shared" si="29"/>
         <v>2.8458748687052855E-2</v>
       </c>
-      <c r="L33" s="2">
-        <f>L16/L18</f>
+      <c r="M33" s="2">
+        <f t="shared" si="29"/>
         <v>2.8110178404873887E-2</v>
       </c>
-      <c r="M33" s="2">
-        <f>M16/M18</f>
+      <c r="N33" s="2">
+        <f t="shared" si="29"/>
         <v>2.8173951364128039E-2</v>
       </c>
-      <c r="N33" s="2">
-        <f>N16/N18</f>
+      <c r="O33" s="2">
+        <f t="shared" si="29"/>
         <v>2.7916461570916252E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -8146,51 +8439,55 @@
         <v>12</v>
       </c>
       <c r="C34" s="2">
-        <f>C17/C18</f>
+        <f t="shared" ref="C34" si="30">C17/C18</f>
+        <v>3.0513510258160358E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:O34" si="31">D17/D18</f>
         <v>3.2943258924181336E-3</v>
       </c>
-      <c r="D34" s="2">
-        <f>D17/D18</f>
+      <c r="E34" s="2">
+        <f t="shared" si="31"/>
         <v>3.2762071678234632E-3</v>
       </c>
-      <c r="E34" s="2">
-        <f>E17/E18</f>
+      <c r="F34" s="2">
+        <f t="shared" si="31"/>
         <v>3.1990473499374319E-3</v>
       </c>
-      <c r="F34" s="2">
-        <f>F17/F18</f>
+      <c r="G34" s="2">
+        <f t="shared" si="31"/>
         <v>3.3311593839361864E-3</v>
       </c>
-      <c r="G34" s="2">
-        <f>G17/G18</f>
+      <c r="H34" s="2">
+        <f t="shared" si="31"/>
         <v>3.5006890724179904E-3</v>
       </c>
-      <c r="H34" s="2">
-        <f>H17/H18</f>
+      <c r="I34" s="2">
+        <f t="shared" si="31"/>
         <v>3.3260298849213401E-3</v>
       </c>
-      <c r="I34" s="2">
-        <f>I17/I18</f>
+      <c r="J34" s="2">
+        <f t="shared" si="31"/>
         <v>3.0961701949012901E-3</v>
       </c>
-      <c r="J34" s="2">
-        <f>J17/J18</f>
+      <c r="K34" s="2">
+        <f t="shared" si="31"/>
         <v>3.0624636992449441E-3</v>
       </c>
-      <c r="K34" s="2">
-        <f>K17/K18</f>
+      <c r="L34" s="2">
+        <f t="shared" si="31"/>
         <v>3.3393448146019542E-3</v>
       </c>
-      <c r="L34" s="2">
-        <f>L17/L18</f>
+      <c r="M34" s="2">
+        <f t="shared" si="31"/>
         <v>3.2843166438451311E-3</v>
       </c>
-      <c r="M34" s="2">
-        <f>M17/M18</f>
+      <c r="N34" s="2">
+        <f t="shared" si="31"/>
         <v>2.9445935659629021E-3</v>
       </c>
-      <c r="N34" s="2">
-        <f>N17/N18</f>
+      <c r="O34" s="2">
+        <f t="shared" si="31"/>
         <v>3.073924879705064E-3</v>
       </c>
     </row>
@@ -8869,10 +9166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8929,722 +9226,798 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41454</v>
+        <v>41463</v>
       </c>
       <c r="B2" s="2">
-        <v>0.17692988494443898</v>
+        <v>0.17817280282651463</v>
       </c>
       <c r="C2" s="2">
-        <v>0.17692988494443898</v>
+        <v>0.17817280282651463</v>
       </c>
       <c r="D2" s="2">
-        <v>6.4018094207886718E-3</v>
+        <v>6.4339342353555229E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>0.1761235126364441</v>
+        <v>0.17579395350704621</v>
       </c>
       <c r="F2" s="2">
-        <v>0.11198741272494837</v>
+        <v>0.11040069056891637</v>
       </c>
       <c r="G2" s="2">
-        <v>5.6868915330907661E-2</v>
+        <v>5.6951860922632193E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>1.052217523846986E-3</v>
+        <v>1.0338459067731963E-3</v>
       </c>
       <c r="I2" s="2">
-        <v>4.3760448421673714E-3</v>
+        <v>4.5569518609226319E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>8.4472416166781403E-3</v>
+        <v>8.8127835548239448E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>4.7349788573114365E-2</v>
+        <v>4.8620869635042356E-2</v>
       </c>
       <c r="L2" s="2">
-        <v>3.4556003540171111E-2</v>
+        <v>3.4397960412735379E-2</v>
       </c>
       <c r="M2" s="2">
-        <v>4.1370832923591304E-2</v>
+        <v>4.2227084755289676E-2</v>
       </c>
       <c r="N2" s="2">
-        <v>2.4437014455698691E-2</v>
+        <v>2.4250210784116915E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>2.7996853181237093E-2</v>
+        <v>2.6408238647769703E-2</v>
       </c>
       <c r="P2" s="2">
-        <v>3.2943258924181336E-3</v>
+        <v>3.0513510258160358E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="B3" s="2">
-        <v>0.1767757739914958</v>
+        <v>0.17692988494443898</v>
       </c>
       <c r="C3" s="2">
-        <v>0.1767757739914958</v>
+        <v>0.17692988494443898</v>
       </c>
       <c r="D3" s="2">
-        <v>6.1740074287250672E-3</v>
+        <v>6.4018094207886718E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>0.1757500921122076</v>
+        <v>0.1761235126364441</v>
       </c>
       <c r="F3" s="2">
-        <v>0.11193873791338466</v>
+        <v>0.11198741272494837</v>
       </c>
       <c r="G3" s="2">
-        <v>5.7298772169167803E-2</v>
+        <v>5.6868915330907661E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>9.7589149679847844E-4</v>
+        <v>1.052217523846986E-3</v>
       </c>
       <c r="I3" s="2">
-        <v>4.2222244351281107E-3</v>
+        <v>4.3760448421673714E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>8.593820017725377E-3</v>
+        <v>8.4472416166781403E-3</v>
       </c>
       <c r="K3" s="2">
-        <v>4.7509982971689187E-2</v>
+        <v>4.7349788573114365E-2</v>
       </c>
       <c r="L3" s="2">
-        <v>3.4534609294868603E-2</v>
+        <v>3.4556003540171111E-2</v>
       </c>
       <c r="M3" s="2">
-        <v>4.1545095149420938E-2</v>
+        <v>4.1370832923591304E-2</v>
       </c>
       <c r="N3" s="2">
-        <v>2.4805568556377649E-2</v>
+        <v>2.4437014455698691E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>2.7633662281793647E-2</v>
+        <v>2.7996853181237093E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>3.2762071678234632E-3</v>
+        <v>3.2943258924181336E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41440</v>
+        <v>41447</v>
       </c>
       <c r="B4" s="2">
-        <v>0.17189076817502927</v>
+        <v>0.1767757739914958</v>
       </c>
       <c r="C4" s="2">
-        <v>0.17189076817502927</v>
+        <v>0.1767757739914958</v>
       </c>
       <c r="D4" s="2">
-        <v>6.0347959472005809E-3</v>
+        <v>6.1740074287250672E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>0.17942921729302064</v>
+        <v>0.1757500921122076</v>
       </c>
       <c r="F4" s="2">
-        <v>0.11340976062648851</v>
+        <v>0.11193873791338466</v>
       </c>
       <c r="G4" s="2">
-        <v>5.8410366124409641E-2</v>
+        <v>5.7298772169167803E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>1.0192548338917369E-3</v>
+        <v>9.7589149679847844E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>3.9559197513421868E-3</v>
+        <v>4.2222244351281107E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>9.0017357607072215E-3</v>
+        <v>8.593820017725377E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>4.8328825737698297E-2</v>
+        <v>4.7509982971689187E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>3.4503289872038108E-2</v>
+        <v>3.4534609294868603E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>4.337383441650184E-2</v>
+        <v>4.1545095149420938E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>2.5420821055181043E-2</v>
+        <v>2.4805568556377649E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>2.793363742784483E-2</v>
+        <v>2.7633662281793647E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>3.1990473499374319E-3</v>
+        <v>3.2762071678234632E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41433</v>
+        <v>41440</v>
       </c>
       <c r="B5" s="2">
-        <v>0.17037074198565194</v>
+        <v>0.17189076817502927</v>
       </c>
       <c r="C5" s="2">
-        <v>0.17037074198565194</v>
+        <v>0.17189076817502927</v>
       </c>
       <c r="D5" s="2">
-        <v>6.531881804043546E-3</v>
+        <v>6.0347959472005809E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.1802538503988361</v>
+        <v>0.17942921729302064</v>
       </c>
       <c r="F5" s="2">
-        <v>0.11327948627903477</v>
+        <v>0.11340976062648851</v>
       </c>
       <c r="G5" s="2">
-        <v>5.7532734661114734E-2</v>
+        <v>5.8410366124409641E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>9.7326042241509053E-4</v>
+        <v>1.0192548338917369E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>4.1940500677268852E-3</v>
+        <v>3.9559197513421868E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>8.6389404505092058E-3</v>
+        <v>9.0017357607072215E-3</v>
       </c>
       <c r="K5" s="2">
-        <v>5.0438970551347009E-2</v>
+        <v>4.8328825737698297E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>3.4766467666683391E-2</v>
+        <v>3.4503289872038108E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>4.3515777855816985E-2</v>
+        <v>4.337383441650184E-2</v>
       </c>
       <c r="N5" s="2">
-        <v>2.6207796116991922E-2</v>
+        <v>2.5420821055181043E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>2.7341594341042493E-2</v>
+        <v>2.793363742784483E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>3.3311593839361864E-3</v>
+        <v>3.1990473499374319E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41426</v>
+        <v>41433</v>
       </c>
       <c r="B6" s="2">
-        <v>0.17080948405073987</v>
+        <v>0.17037074198565194</v>
       </c>
       <c r="C6" s="2">
-        <v>0.17080948405073987</v>
+        <v>0.17037074198565194</v>
       </c>
       <c r="D6" s="2">
-        <v>7.0013781448359808E-3</v>
+        <v>6.531881804043546E-3</v>
       </c>
       <c r="E6" s="2">
-        <v>0.17874639117182547</v>
+        <v>0.1802538503988361</v>
       </c>
       <c r="F6" s="2">
-        <v>0.11349073021557404</v>
+        <v>0.11327948627903477</v>
       </c>
       <c r="G6" s="2">
-        <v>5.7670834632679135E-2</v>
+        <v>5.7532734661114734E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>8.8523171946202055E-4</v>
+        <v>9.7326042241509053E-4</v>
       </c>
       <c r="I6" s="2">
-        <v>4.134434507941937E-3</v>
+        <v>4.1940500677268852E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>8.5907714593246084E-3</v>
+        <v>8.6389404505092058E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>5.0136305565894435E-2</v>
+        <v>5.0438970551347009E-2</v>
       </c>
       <c r="L6" s="2">
-        <v>3.5006890724179902E-2</v>
+        <v>3.4766467666683391E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>4.3487008218571759E-2</v>
+        <v>4.3515777855816985E-2</v>
       </c>
       <c r="N6" s="2">
-        <v>2.5742136023901255E-2</v>
+        <v>2.6207796116991922E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>2.693921073544649E-2</v>
+        <v>2.7341594341042493E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>3.5006890724179904E-3</v>
+        <v>3.3311593839361864E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41419</v>
+        <v>41426</v>
       </c>
       <c r="B7" s="2">
-        <v>0.17128560431100848</v>
+        <v>0.17080948405073987</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17128560431100848</v>
+        <v>0.17080948405073987</v>
       </c>
       <c r="D7" s="2">
-        <v>6.4546692722212357E-3</v>
+        <v>7.0013781448359808E-3</v>
       </c>
       <c r="E7" s="2">
-        <v>0.17971417855944416</v>
+        <v>0.17874639117182547</v>
       </c>
       <c r="F7" s="2">
-        <v>0.11260140936815302</v>
+        <v>0.11349073021557404</v>
       </c>
       <c r="G7" s="2">
-        <v>5.7638025305461797E-2</v>
+        <v>5.7670834632679135E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>8.4877913977221141E-4</v>
+        <v>8.8523171946202055E-4</v>
       </c>
       <c r="I7" s="2">
-        <v>4.0761137758828286E-3</v>
+        <v>4.134434507941937E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>8.3496180493871017E-3</v>
+        <v>8.5907714593246084E-3</v>
       </c>
       <c r="K7" s="2">
-        <v>5.0018752097274036E-2</v>
+        <v>5.0136305565894435E-2</v>
       </c>
       <c r="L7" s="2">
-        <v>3.4898639979471388E-2</v>
+        <v>3.5006890724179902E-2</v>
       </c>
       <c r="M7" s="2">
-        <v>4.3198910404453131E-2</v>
+        <v>4.3487008218571759E-2</v>
       </c>
       <c r="N7" s="2">
-        <v>2.5966719962101023E-2</v>
+        <v>2.5742136023901255E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>2.6983281024851462E-2</v>
+        <v>2.693921073544649E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>3.3260298849213401E-3</v>
+        <v>3.5006890724179904E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41412</v>
+        <v>41419</v>
       </c>
       <c r="B8" s="2">
-        <v>0.17330156697698337</v>
+        <v>0.17128560431100848</v>
       </c>
       <c r="C8" s="2">
-        <v>0.17330156697698337</v>
+        <v>0.17128560431100848</v>
       </c>
       <c r="D8" s="2">
-        <v>6.7066195069217767E-3</v>
+        <v>6.4546692722212357E-3</v>
       </c>
       <c r="E8" s="2">
-        <v>0.18138309596028507</v>
+        <v>0.17971417855944416</v>
       </c>
       <c r="F8" s="2">
-        <v>0.11038109132127751</v>
+        <v>0.11260140936815302</v>
       </c>
       <c r="G8" s="2">
-        <v>5.6087910242550824E-2</v>
+        <v>5.7638025305461797E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>6.9270248428300043E-4</v>
+        <v>8.4877913977221141E-4</v>
       </c>
       <c r="I8" s="2">
-        <v>3.1591431480179261E-3</v>
+        <v>4.0761137758828286E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>7.4308084677630962E-3</v>
+        <v>8.3496180493871017E-3</v>
       </c>
       <c r="K8" s="2">
-        <v>5.1795253938433441E-2</v>
+        <v>5.0018752097274036E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>3.3638052456469947E-2</v>
+        <v>3.4898639979471388E-2</v>
       </c>
       <c r="M8" s="2">
-        <v>4.1520167088235603E-2</v>
+        <v>4.3198910404453131E-2</v>
       </c>
       <c r="N8" s="2">
-        <v>2.394021767650794E-2</v>
+        <v>2.5966719962101023E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>2.8043955121275412E-2</v>
+        <v>2.6983281024851462E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>3.0961701949012901E-3</v>
+        <v>3.3260298849213401E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41405</v>
+        <v>41412</v>
       </c>
       <c r="B9" s="2">
-        <v>0.1743281060246053</v>
+        <v>0.17330156697698337</v>
       </c>
       <c r="C9" s="2">
-        <v>0.1743281060246053</v>
+        <v>0.17330156697698337</v>
       </c>
       <c r="D9" s="2">
-        <v>7.0647869475685098E-3</v>
+        <v>6.7066195069217767E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>0.18064311737684144</v>
+        <v>0.18138309596028507</v>
       </c>
       <c r="F9" s="2">
-        <v>0.11061830086065789</v>
+        <v>0.11038109132127751</v>
       </c>
       <c r="G9" s="2">
-        <v>5.578964042452083E-2</v>
+        <v>5.6087910242550824E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>7.3921537567981418E-4</v>
+        <v>6.9270248428300043E-4</v>
       </c>
       <c r="I9" s="2">
-        <v>3.2947885316014572E-3</v>
+        <v>3.1591431480179261E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>7.6984001267226361E-3</v>
+        <v>7.4308084677630962E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>5.134378795078938E-2</v>
+        <v>5.1795253938433441E-2</v>
       </c>
       <c r="L9" s="2">
-        <v>3.4415755847721635E-2</v>
+        <v>3.3638052456469947E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>4.0350599292465282E-2</v>
+        <v>4.1520167088235603E-2</v>
       </c>
       <c r="N9" s="2">
-        <v>2.333808543217699E-2</v>
+        <v>2.394021767650794E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>2.7942341200696975E-2</v>
+        <v>2.8043955121275412E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>3.0624636992449441E-3</v>
+        <v>3.0961701949012901E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41398</v>
+        <v>41405</v>
       </c>
       <c r="B10" s="2">
-        <v>0.17335856834261479</v>
+        <v>0.1743281060246053</v>
       </c>
       <c r="C10" s="2">
-        <v>0.17335856834261479</v>
+        <v>0.1743281060246053</v>
       </c>
       <c r="D10" s="2">
-        <v>6.2526011217027685E-3</v>
+        <v>7.0647869475685098E-3</v>
       </c>
       <c r="E10" s="2">
-        <v>0.17594482649279614</v>
+        <v>0.18064311737684144</v>
       </c>
       <c r="F10" s="2">
-        <v>0.11232882141937019</v>
+        <v>0.11061830086065789</v>
       </c>
       <c r="G10" s="2">
-        <v>5.7204859390792527E-2</v>
+        <v>5.578964042452083E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>7.3326859430428669E-4</v>
+        <v>7.3921537567981418E-4</v>
       </c>
       <c r="I10" s="2">
-        <v>4.092431479022573E-3</v>
+        <v>3.2947885316014572E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>8.9676767276402631E-3</v>
+        <v>7.6984001267226361E-3</v>
       </c>
       <c r="K10" s="2">
-        <v>4.9465903010364853E-2</v>
+        <v>5.134378795078938E-2</v>
       </c>
       <c r="L10" s="2">
-        <v>3.7257971818704293E-2</v>
+        <v>3.4415755847721635E-2</v>
       </c>
       <c r="M10" s="2">
-        <v>4.1271131017261542E-2</v>
+        <v>4.0350599292465282E-2</v>
       </c>
       <c r="N10" s="2">
-        <v>2.4514952733902771E-2</v>
+        <v>2.333808543217699E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>2.8458748687052855E-2</v>
+        <v>2.7942341200696975E-2</v>
       </c>
       <c r="P10" s="2">
-        <v>3.3393448146019542E-3</v>
+        <v>3.0624636992449441E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41391</v>
+        <v>41398</v>
       </c>
       <c r="B11" s="2">
-        <v>0.17442598876783552</v>
+        <v>0.17335856834261479</v>
       </c>
       <c r="C11" s="2">
-        <v>0.17442598876783552</v>
+        <v>0.17335856834261479</v>
       </c>
       <c r="D11" s="2">
-        <v>7.0449088130817008E-3</v>
+        <v>6.2526011217027685E-3</v>
       </c>
       <c r="E11" s="2">
-        <v>0.17704550415748843</v>
+        <v>0.17594482649279614</v>
       </c>
       <c r="F11" s="2">
-        <v>0.1122323430771368</v>
+        <v>0.11232882141937019</v>
       </c>
       <c r="G11" s="2">
-        <v>5.6815701216487074E-2</v>
+        <v>5.7204859390792527E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>7.1441328808715841E-4</v>
+        <v>7.3326859430428669E-4</v>
       </c>
       <c r="I11" s="2">
-        <v>3.929273084479371E-3</v>
+        <v>4.092431479022573E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>9.0194677621003756E-3</v>
+        <v>8.9676767276402631E-3</v>
       </c>
       <c r="K11" s="2">
-        <v>4.9244904844118989E-2</v>
+        <v>4.9465903010364853E-2</v>
       </c>
       <c r="L11" s="2">
-        <v>3.6752594709372706E-2</v>
+        <v>3.7257971818704293E-2</v>
       </c>
       <c r="M11" s="2">
-        <v>4.1257367387033402E-2</v>
+        <v>4.1271131017261542E-2</v>
       </c>
       <c r="N11" s="2">
-        <v>2.4587723998333037E-2</v>
+        <v>2.4514952733902771E-2</v>
       </c>
       <c r="O11" s="2">
-        <v>2.8110178404873887E-2</v>
+        <v>2.8458748687052855E-2</v>
       </c>
       <c r="P11" s="2">
-        <v>3.2843166438451311E-3</v>
+        <v>3.3393448146019542E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41384</v>
+        <v>41391</v>
       </c>
       <c r="B12" s="2">
-        <v>0.17549377028163934</v>
+        <v>0.17442598876783552</v>
       </c>
       <c r="C12" s="2">
-        <v>0.17549377028163934</v>
+        <v>0.17442598876783552</v>
       </c>
       <c r="D12" s="2">
-        <v>7.0710308080605749E-3</v>
+        <v>7.0449088130817008E-3</v>
       </c>
       <c r="E12" s="2">
-        <v>0.17588437963222628</v>
+        <v>0.17704550415748843</v>
       </c>
       <c r="F12" s="2">
-        <v>0.11233524297904732</v>
+        <v>0.1122323430771368</v>
       </c>
       <c r="G12" s="2">
-        <v>5.6448058971996312E-2</v>
+        <v>5.6815701216487074E-2</v>
       </c>
       <c r="H12" s="2">
-        <v>7.211249549296903E-4</v>
+        <v>7.1441328808715841E-4</v>
       </c>
       <c r="I12" s="2">
-        <v>3.9361403789912267E-3</v>
+        <v>3.929273084479371E-3</v>
       </c>
       <c r="J12" s="2">
-        <v>9.384640038459997E-3</v>
+        <v>9.0194677621003756E-3</v>
       </c>
       <c r="K12" s="2">
-        <v>4.9557309402668163E-2</v>
+        <v>4.9244904844118989E-2</v>
       </c>
       <c r="L12" s="2">
-        <v>3.675734145266616E-2</v>
+        <v>3.6752594709372706E-2</v>
       </c>
       <c r="M12" s="2">
-        <v>4.0543247466047032E-2</v>
+        <v>4.1257367387033402E-2</v>
       </c>
       <c r="N12" s="2">
-        <v>2.3887264132045991E-2</v>
+        <v>2.4587723998333037E-2</v>
       </c>
       <c r="O12" s="2">
-        <v>2.8173951364128039E-2</v>
+        <v>2.8110178404873887E-2</v>
       </c>
       <c r="P12" s="2">
-        <v>2.9445935659629021E-3</v>
+        <v>3.2843166438451311E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>41384</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.17549377028163934</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.0710308080605749E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.17588437963222628</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.11233524297904732</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.6448058971996312E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7.211249549296903E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.9361403789912267E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9.384640038459997E-3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>4.9557309402668163E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3.675734145266616E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4.0543247466047032E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.3887264132045991E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2.8173951364128039E-2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2.9445935659629021E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>41377</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>0.17502285352647493</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>0.17502285352647493</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>6.851035189408018E-3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>0.17436989562719118</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>0.1131123991682321</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>5.7420113112399168E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>7.4336745456919846E-4</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <v>3.9077018895597058E-3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J14" s="2">
         <v>9.2418656514008466E-3</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="2">
         <v>4.939375370428039E-2</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L14" s="2">
         <v>3.6555596853747478E-2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M14" s="2">
         <v>4.0845027976734609E-2</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N14" s="2">
         <v>2.4852582197354013E-2</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O14" s="2">
         <v>2.7916461570916252E-2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>3.073924879705064E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>0.17692988494443898</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.17692988494443898</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.17692988494443898</v>
-      </c>
-      <c r="F38" s="2">
-        <v>6.4018094207886718E-3</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.1761235126364441</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.11198741272494837</v>
-      </c>
-      <c r="I38" s="2">
-        <v>5.6868915330907661E-2</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1.052217523846986E-3</v>
-      </c>
-      <c r="K38" s="2">
-        <v>4.3760448421673714E-3</v>
-      </c>
-      <c r="L38" s="2">
-        <v>8.4472416166781403E-3</v>
-      </c>
-      <c r="M38" s="2">
-        <v>4.7349788573114365E-2</v>
-      </c>
-      <c r="N38" s="2">
-        <v>3.4556003540171111E-2</v>
-      </c>
-      <c r="O38" s="2">
-        <v>4.1370832923591304E-2</v>
-      </c>
-      <c r="P38" s="2">
-        <v>2.4437014455698691E-2</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>2.7996853181237093E-2</v>
-      </c>
-      <c r="R38" s="2">
-        <v>3.2943258924181336E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>0.17692988494443898</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>6.4018094207886718E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>0.1761235126364441</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>0.11198741272494837</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>5.6868915330907661E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>1.052217523846986E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="D39" s="2">
+        <v>0.10071465852973059</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.17817280282651463</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.17817280282651463</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6.4339342353555229E-3</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.17579395350704621</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.11040069056891637</v>
+      </c>
+      <c r="J39" s="2">
+        <v>5.6951860922632193E-2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1.0338459067731963E-3</v>
+      </c>
+      <c r="L39" s="2">
+        <v>4.5569518609226319E-3</v>
+      </c>
+      <c r="M39" s="2">
+        <v>8.8127835548239448E-3</v>
+      </c>
+      <c r="N39" s="2">
+        <v>4.8620869635042356E-2</v>
+      </c>
+      <c r="O39" s="2">
+        <v>3.4397960412735379E-2</v>
+      </c>
+      <c r="P39" s="2">
+        <v>4.2227084755289676E-2</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>2.4250210784116915E-2</v>
+      </c>
+      <c r="R39" s="2">
+        <v>2.6408238647769703E-2</v>
+      </c>
+      <c r="S39" s="2">
+        <v>3.0513510258160358E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <v>4.3760448421673714E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+        <v>0.10071465852973059</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <v>8.4472416166781403E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+        <v>0.17817280282651463</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
-        <v>4.7349788573114365E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+        <v>0.17817280282651463</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <v>3.4556003540171111E-2</v>
+        <v>6.4339342353555229E-3</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
-        <v>4.1370832923591304E-2</v>
+        <v>0.17579395350704621</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
-        <v>2.4437014455698691E-2</v>
+        <v>0.11040069056891637</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
-        <v>2.7996853181237093E-2</v>
+        <v>5.6951860922632193E-2</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
-        <v>3.2943258924181336E-3</v>
+        <v>1.0338459067731963E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>4.5569518609226319E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>8.8127835548239448E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>4.8620869635042356E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>3.4397960412735379E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>4.2227084755289676E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>2.4250210784116915E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>2.6408238647769703E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>3.0513510258160358E-3</v>
       </c>
     </row>
   </sheetData>
@@ -9661,7 +10034,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+      <selection activeCell="B16" sqref="B1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9671,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>10360</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9679,7 +10052,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>17992</v>
+        <v>17751</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9687,7 +10060,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>17992</v>
+        <v>17751</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9695,7 +10068,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9703,7 +10076,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17910</v>
+        <v>17514</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9711,7 +10084,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11388</v>
+        <v>10999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9719,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5783</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9727,7 +10100,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9735,7 +10108,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9743,7 +10116,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>859</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9751,7 +10124,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>4815</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9759,7 +10132,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3514</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9775,7 +10148,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>2485</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9783,7 +10156,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2847</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9791,7 +10164,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>335</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
